--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.299</v>
+        <v>4.226</v>
       </c>
       <c r="C2" t="n">
-        <v>4.299</v>
+        <v>4.226</v>
       </c>
       <c r="D2" t="n">
-        <v>4.299</v>
+        <v>4.226</v>
       </c>
       <c r="E2" t="n">
-        <v>4.299</v>
+        <v>4.226</v>
       </c>
       <c r="F2" t="n">
-        <v>119</v>
+        <v>252507.5451</v>
       </c>
       <c r="G2" t="n">
-        <v>4.282983333333332</v>
+        <v>4.28355</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.297</v>
+        <v>4.299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.298</v>
+        <v>4.299</v>
       </c>
       <c r="D3" t="n">
-        <v>4.298</v>
+        <v>4.299</v>
       </c>
       <c r="E3" t="n">
-        <v>4.297</v>
+        <v>4.299</v>
       </c>
       <c r="F3" t="n">
-        <v>134292.8371</v>
+        <v>119</v>
       </c>
       <c r="G3" t="n">
-        <v>4.283116666666666</v>
+        <v>4.282983333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.228</v>
+        <v>4.297</v>
       </c>
       <c r="C4" t="n">
-        <v>4.228</v>
+        <v>4.298</v>
       </c>
       <c r="D4" t="n">
-        <v>4.228</v>
+        <v>4.298</v>
       </c>
       <c r="E4" t="n">
-        <v>4.228</v>
+        <v>4.297</v>
       </c>
       <c r="F4" t="n">
-        <v>115787.1171</v>
+        <v>134292.8371</v>
       </c>
       <c r="G4" t="n">
-        <v>4.282183333333332</v>
+        <v>4.283116666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>4.228</v>
       </c>
       <c r="F5" t="n">
-        <v>242027.8266</v>
+        <v>115787.1171</v>
       </c>
       <c r="G5" t="n">
-        <v>4.280433333333332</v>
+        <v>4.282183333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>4.228</v>
       </c>
       <c r="F6" t="n">
-        <v>322033.4493</v>
+        <v>242027.8266</v>
       </c>
       <c r="G6" t="n">
-        <v>4.279483333333332</v>
+        <v>4.280433333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.23</v>
+        <v>4.228</v>
       </c>
       <c r="C7" t="n">
-        <v>4.23</v>
+        <v>4.228</v>
       </c>
       <c r="D7" t="n">
-        <v>4.23</v>
+        <v>4.228</v>
       </c>
       <c r="E7" t="n">
-        <v>4.23</v>
+        <v>4.228</v>
       </c>
       <c r="F7" t="n">
-        <v>264562.6209</v>
+        <v>322033.4493</v>
       </c>
       <c r="G7" t="n">
-        <v>4.277566666666664</v>
+        <v>4.279483333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>4.23</v>
       </c>
       <c r="F8" t="n">
-        <v>25267.4835</v>
+        <v>264562.6209</v>
       </c>
       <c r="G8" t="n">
-        <v>4.275649999999998</v>
+        <v>4.277566666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>4.23</v>
       </c>
       <c r="F9" t="n">
-        <v>244772.7866</v>
+        <v>25267.4835</v>
       </c>
       <c r="G9" t="n">
-        <v>4.274749999999998</v>
+        <v>4.275649999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>4.23</v>
       </c>
       <c r="C10" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="D10" t="n">
         <v>4.23</v>
       </c>
       <c r="E10" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="F10" t="n">
-        <v>121812.794</v>
+        <v>244772.7866</v>
       </c>
       <c r="G10" t="n">
-        <v>4.273799999999998</v>
+        <v>4.274749999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="C11" t="n">
         <v>4.227</v>
       </c>
       <c r="D11" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="E11" t="n">
         <v>4.227</v>
       </c>
       <c r="F11" t="n">
-        <v>110365.4113</v>
+        <v>121812.794</v>
       </c>
       <c r="G11" t="n">
-        <v>4.272849999999997</v>
+        <v>4.273799999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="C12" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="D12" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="E12" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="F12" t="n">
-        <v>151600.2196</v>
+        <v>110365.4113</v>
       </c>
       <c r="G12" t="n">
-        <v>4.270916666666665</v>
+        <v>4.272849999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>4.226</v>
       </c>
       <c r="C13" t="n">
-        <v>4.225</v>
+        <v>4.226</v>
       </c>
       <c r="D13" t="n">
         <v>4.226</v>
       </c>
       <c r="E13" t="n">
-        <v>4.225</v>
+        <v>4.226</v>
       </c>
       <c r="F13" t="n">
-        <v>430079.4298</v>
+        <v>151600.2196</v>
       </c>
       <c r="G13" t="n">
-        <v>4.269666666666665</v>
+        <v>4.270916666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="C14" t="n">
-        <v>4.224</v>
+        <v>4.225</v>
       </c>
       <c r="D14" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="E14" t="n">
-        <v>4.224</v>
+        <v>4.225</v>
       </c>
       <c r="F14" t="n">
-        <v>94460.8129</v>
+        <v>430079.4298</v>
       </c>
       <c r="G14" t="n">
-        <v>4.268383333333332</v>
+        <v>4.269666666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.223</v>
+        <v>4.224</v>
       </c>
       <c r="C15" t="n">
-        <v>4.223</v>
+        <v>4.224</v>
       </c>
       <c r="D15" t="n">
-        <v>4.223</v>
+        <v>4.224</v>
       </c>
       <c r="E15" t="n">
-        <v>4.223</v>
+        <v>4.224</v>
       </c>
       <c r="F15" t="n">
-        <v>131.4232</v>
+        <v>94460.8129</v>
       </c>
       <c r="G15" t="n">
-        <v>4.267366666666665</v>
+        <v>4.268383333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.222</v>
+        <v>4.223</v>
       </c>
       <c r="C16" t="n">
-        <v>4.212</v>
+        <v>4.223</v>
       </c>
       <c r="D16" t="n">
-        <v>4.222</v>
+        <v>4.223</v>
       </c>
       <c r="E16" t="n">
-        <v>4.212</v>
+        <v>4.223</v>
       </c>
       <c r="F16" t="n">
-        <v>16700</v>
+        <v>131.4232</v>
       </c>
       <c r="G16" t="n">
-        <v>4.266233333333331</v>
+        <v>4.267366666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.223</v>
+        <v>4.222</v>
       </c>
       <c r="C17" t="n">
-        <v>4.297</v>
+        <v>4.212</v>
       </c>
       <c r="D17" t="n">
-        <v>4.297</v>
+        <v>4.222</v>
       </c>
       <c r="E17" t="n">
-        <v>4.223</v>
+        <v>4.212</v>
       </c>
       <c r="F17" t="n">
-        <v>546743.047108353</v>
+        <v>16700</v>
       </c>
       <c r="G17" t="n">
-        <v>4.266466666666665</v>
+        <v>4.266233333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.293</v>
+        <v>4.223</v>
       </c>
       <c r="C18" t="n">
-        <v>4.293</v>
+        <v>4.297</v>
       </c>
       <c r="D18" t="n">
-        <v>4.293</v>
+        <v>4.297</v>
       </c>
       <c r="E18" t="n">
-        <v>4.293</v>
+        <v>4.223</v>
       </c>
       <c r="F18" t="n">
-        <v>57655.6884</v>
+        <v>546743.047108353</v>
       </c>
       <c r="G18" t="n">
-        <v>4.266633333333332</v>
+        <v>4.266466666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.289</v>
+        <v>4.293</v>
       </c>
       <c r="C19" t="n">
-        <v>4.289</v>
+        <v>4.293</v>
       </c>
       <c r="D19" t="n">
-        <v>4.289</v>
+        <v>4.293</v>
       </c>
       <c r="E19" t="n">
-        <v>4.289</v>
+        <v>4.293</v>
       </c>
       <c r="F19" t="n">
-        <v>47000</v>
+        <v>57655.6884</v>
       </c>
       <c r="G19" t="n">
-        <v>4.266733333333332</v>
+        <v>4.266633333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="C20" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="D20" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="E20" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="F20" t="n">
-        <v>116773.9925</v>
+        <v>47000</v>
       </c>
       <c r="G20" t="n">
         <v>4.266733333333332</v>
@@ -1110,7 +1110,7 @@
         <v>4.28</v>
       </c>
       <c r="F21" t="n">
-        <v>2680.199</v>
+        <v>116773.9925</v>
       </c>
       <c r="G21" t="n">
         <v>4.266733333333332</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.241</v>
+        <v>4.28</v>
       </c>
       <c r="C22" t="n">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="D22" t="n">
-        <v>4.241</v>
+        <v>4.28</v>
       </c>
       <c r="E22" t="n">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="F22" t="n">
-        <v>235069.151</v>
+        <v>2680.199</v>
       </c>
       <c r="G22" t="n">
-        <v>4.266183333333332</v>
+        <v>4.266733333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.239</v>
+        <v>4.241</v>
       </c>
       <c r="C23" t="n">
-        <v>4.285</v>
+        <v>4.24</v>
       </c>
       <c r="D23" t="n">
-        <v>4.285</v>
+        <v>4.241</v>
       </c>
       <c r="E23" t="n">
-        <v>4.239</v>
+        <v>4.24</v>
       </c>
       <c r="F23" t="n">
-        <v>161145.839996686</v>
+        <v>235069.151</v>
       </c>
       <c r="G23" t="n">
-        <v>4.266299999999998</v>
+        <v>4.266183333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.227</v>
+        <v>4.239</v>
       </c>
       <c r="C24" t="n">
-        <v>4.275</v>
+        <v>4.285</v>
       </c>
       <c r="D24" t="n">
-        <v>4.275</v>
+        <v>4.285</v>
       </c>
       <c r="E24" t="n">
-        <v>4.227</v>
+        <v>4.239</v>
       </c>
       <c r="F24" t="n">
-        <v>297121.544208514</v>
+        <v>161145.839996686</v>
       </c>
       <c r="G24" t="n">
-        <v>4.265166666666666</v>
+        <v>4.266299999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.224</v>
+        <v>4.227</v>
       </c>
       <c r="C25" t="n">
-        <v>4.283</v>
+        <v>4.275</v>
       </c>
       <c r="D25" t="n">
-        <v>4.283</v>
+        <v>4.275</v>
       </c>
       <c r="E25" t="n">
-        <v>4.224</v>
+        <v>4.227</v>
       </c>
       <c r="F25" t="n">
-        <v>175286.943272659</v>
+        <v>297121.544208514</v>
       </c>
       <c r="G25" t="n">
-        <v>4.264166666666665</v>
+        <v>4.265166666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.285</v>
+        <v>4.224</v>
       </c>
       <c r="C26" t="n">
-        <v>4.29</v>
+        <v>4.283</v>
       </c>
       <c r="D26" t="n">
-        <v>4.29</v>
+        <v>4.283</v>
       </c>
       <c r="E26" t="n">
-        <v>4.285</v>
+        <v>4.224</v>
       </c>
       <c r="F26" t="n">
-        <v>163291.7165</v>
+        <v>175286.943272659</v>
       </c>
       <c r="G26" t="n">
-        <v>4.263333333333332</v>
+        <v>4.264166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>4.285</v>
+      </c>
+      <c r="C27" t="n">
         <v>4.29</v>
       </c>
-      <c r="C27" t="n">
-        <v>4.301</v>
-      </c>
       <c r="D27" t="n">
-        <v>4.301</v>
+        <v>4.29</v>
       </c>
       <c r="E27" t="n">
-        <v>4.29</v>
+        <v>4.285</v>
       </c>
       <c r="F27" t="n">
-        <v>122184.8842</v>
+        <v>163291.7165</v>
       </c>
       <c r="G27" t="n">
-        <v>4.262683333333332</v>
+        <v>4.263333333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.226</v>
+        <v>4.29</v>
       </c>
       <c r="C28" t="n">
-        <v>4.226</v>
+        <v>4.301</v>
       </c>
       <c r="D28" t="n">
-        <v>4.226</v>
+        <v>4.301</v>
       </c>
       <c r="E28" t="n">
-        <v>4.226</v>
+        <v>4.29</v>
       </c>
       <c r="F28" t="n">
-        <v>17071.6961</v>
+        <v>122184.8842</v>
       </c>
       <c r="G28" t="n">
-        <v>4.261783333333333</v>
+        <v>4.262683333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="C29" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="D29" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="E29" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="F29" t="n">
-        <v>29669.4421</v>
+        <v>17071.6961</v>
       </c>
       <c r="G29" t="n">
-        <v>4.261783333333332</v>
+        <v>4.261783333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="C30" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="E30" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="F30" t="n">
-        <v>117</v>
+        <v>29669.4421</v>
       </c>
       <c r="G30" t="n">
-        <v>4.262133333333332</v>
+        <v>4.261783333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="C31" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="D31" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="E31" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="F31" t="n">
-        <v>133844.1421</v>
+        <v>117</v>
       </c>
       <c r="G31" t="n">
-        <v>4.261266666666666</v>
+        <v>4.262133333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>4.226</v>
       </c>
       <c r="F32" t="n">
-        <v>742025.6029000001</v>
+        <v>133844.1421</v>
       </c>
       <c r="G32" t="n">
-        <v>4.260033333333333</v>
+        <v>4.261266666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="C33" t="n">
-        <v>4.272</v>
+        <v>4.226</v>
       </c>
       <c r="D33" t="n">
-        <v>4.273</v>
+        <v>4.226</v>
       </c>
       <c r="E33" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="F33" t="n">
-        <v>94688.3015</v>
+        <v>742025.6029000001</v>
       </c>
       <c r="G33" t="n">
-        <v>4.259916666666666</v>
+        <v>4.260033333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.227</v>
+        <v>4.27</v>
       </c>
       <c r="C34" t="n">
-        <v>4.227</v>
+        <v>4.272</v>
       </c>
       <c r="D34" t="n">
-        <v>4.227</v>
+        <v>4.273</v>
       </c>
       <c r="E34" t="n">
-        <v>4.227</v>
+        <v>4.27</v>
       </c>
       <c r="F34" t="n">
-        <v>16149.0501</v>
+        <v>94688.3015</v>
       </c>
       <c r="G34" t="n">
-        <v>4.257966666666666</v>
+        <v>4.259916666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>4.227</v>
       </c>
       <c r="F35" t="n">
-        <v>244347.9393</v>
+        <v>16149.0501</v>
       </c>
       <c r="G35" t="n">
-        <v>4.257083333333332</v>
+        <v>4.257966666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>4.227</v>
       </c>
       <c r="F36" t="n">
-        <v>156810.12</v>
+        <v>244347.9393</v>
       </c>
       <c r="G36" t="n">
-        <v>4.255149999999999</v>
+        <v>4.257083333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="C37" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="D37" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="E37" t="n">
-        <v>4.226</v>
+        <v>4.227</v>
       </c>
       <c r="F37" t="n">
-        <v>28130.8993</v>
+        <v>156810.12</v>
       </c>
       <c r="G37" t="n">
-        <v>4.254266666666666</v>
+        <v>4.255149999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="C38" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="D38" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="E38" t="n">
-        <v>4.3</v>
+        <v>4.226</v>
       </c>
       <c r="F38" t="n">
-        <v>4427.8902</v>
+        <v>28130.8993</v>
       </c>
       <c r="G38" t="n">
-        <v>4.25355</v>
+        <v>4.254266666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="C39" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="E39" t="n">
-        <v>4.299</v>
+        <v>4.3</v>
       </c>
       <c r="F39" t="n">
-        <v>35294.2001</v>
+        <v>4427.8902</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2539</v>
+        <v>4.25355</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.231</v>
+        <v>4.299</v>
       </c>
       <c r="C40" t="n">
-        <v>4.231</v>
+        <v>4.299</v>
       </c>
       <c r="D40" t="n">
-        <v>4.231</v>
+        <v>4.299</v>
       </c>
       <c r="E40" t="n">
-        <v>4.231</v>
+        <v>4.299</v>
       </c>
       <c r="F40" t="n">
-        <v>305693.0441</v>
+        <v>35294.2001</v>
       </c>
       <c r="G40" t="n">
-        <v>4.253116666666667</v>
+        <v>4.2539</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>4.231</v>
       </c>
       <c r="F41" t="n">
-        <v>317665.3108</v>
+        <v>305693.0441</v>
       </c>
       <c r="G41" t="n">
-        <v>4.252466666666668</v>
+        <v>4.253116666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>4.231</v>
       </c>
       <c r="F42" t="n">
-        <v>151279.8164</v>
+        <v>317665.3108</v>
       </c>
       <c r="G42" t="n">
-        <v>4.251833333333335</v>
+        <v>4.252466666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.232</v>
+        <v>4.231</v>
       </c>
       <c r="C43" t="n">
-        <v>4.232</v>
+        <v>4.231</v>
       </c>
       <c r="D43" t="n">
-        <v>4.232</v>
+        <v>4.231</v>
       </c>
       <c r="E43" t="n">
-        <v>4.232</v>
+        <v>4.231</v>
       </c>
       <c r="F43" t="n">
-        <v>109464.371</v>
+        <v>151279.8164</v>
       </c>
       <c r="G43" t="n">
-        <v>4.251066666666668</v>
+        <v>4.251833333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.298</v>
+        <v>4.232</v>
       </c>
       <c r="C44" t="n">
-        <v>4.298</v>
+        <v>4.232</v>
       </c>
       <c r="D44" t="n">
-        <v>4.298</v>
+        <v>4.232</v>
       </c>
       <c r="E44" t="n">
-        <v>4.298</v>
+        <v>4.232</v>
       </c>
       <c r="F44" t="n">
-        <v>158.7667</v>
+        <v>109464.371</v>
       </c>
       <c r="G44" t="n">
-        <v>4.251550000000001</v>
+        <v>4.251066666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.257</v>
+        <v>4.298</v>
       </c>
       <c r="C45" t="n">
-        <v>4.257</v>
+        <v>4.298</v>
       </c>
       <c r="D45" t="n">
-        <v>4.257</v>
+        <v>4.298</v>
       </c>
       <c r="E45" t="n">
-        <v>4.257</v>
+        <v>4.298</v>
       </c>
       <c r="F45" t="n">
-        <v>80909.538</v>
+        <v>158.7667</v>
       </c>
       <c r="G45" t="n">
-        <v>4.251350000000001</v>
+        <v>4.251550000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.265</v>
+        <v>4.257</v>
       </c>
       <c r="C46" t="n">
-        <v>4.265</v>
+        <v>4.257</v>
       </c>
       <c r="D46" t="n">
-        <v>4.265</v>
+        <v>4.257</v>
       </c>
       <c r="E46" t="n">
-        <v>4.265</v>
+        <v>4.257</v>
       </c>
       <c r="F46" t="n">
-        <v>136.8204</v>
+        <v>80909.538</v>
       </c>
       <c r="G46" t="n">
-        <v>4.251733333333335</v>
+        <v>4.251350000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.232</v>
+        <v>4.265</v>
       </c>
       <c r="C47" t="n">
-        <v>4.232</v>
+        <v>4.265</v>
       </c>
       <c r="D47" t="n">
-        <v>4.232</v>
+        <v>4.265</v>
       </c>
       <c r="E47" t="n">
-        <v>4.232</v>
+        <v>4.265</v>
       </c>
       <c r="F47" t="n">
-        <v>10543.9446</v>
+        <v>136.8204</v>
       </c>
       <c r="G47" t="n">
-        <v>4.250600000000001</v>
+        <v>4.251733333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.231</v>
+        <v>4.232</v>
       </c>
       <c r="C48" t="n">
         <v>4.232</v>
@@ -2052,13 +2052,13 @@
         <v>4.232</v>
       </c>
       <c r="E48" t="n">
-        <v>4.231</v>
+        <v>4.232</v>
       </c>
       <c r="F48" t="n">
-        <v>437998.3923</v>
+        <v>10543.9446</v>
       </c>
       <c r="G48" t="n">
-        <v>4.250633333333335</v>
+        <v>4.250600000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.265</v>
+        <v>4.231</v>
       </c>
       <c r="C49" t="n">
-        <v>4.265</v>
+        <v>4.232</v>
       </c>
       <c r="D49" t="n">
-        <v>4.265</v>
+        <v>4.232</v>
       </c>
       <c r="E49" t="n">
-        <v>4.265</v>
+        <v>4.231</v>
       </c>
       <c r="F49" t="n">
-        <v>235.4748</v>
+        <v>437998.3923</v>
       </c>
       <c r="G49" t="n">
-        <v>4.251333333333335</v>
+        <v>4.250633333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.231</v>
+        <v>4.265</v>
       </c>
       <c r="C50" t="n">
-        <v>4.231</v>
+        <v>4.265</v>
       </c>
       <c r="D50" t="n">
-        <v>4.231</v>
+        <v>4.265</v>
       </c>
       <c r="E50" t="n">
-        <v>4.231</v>
+        <v>4.265</v>
       </c>
       <c r="F50" t="n">
-        <v>54510.4315</v>
+        <v>235.4748</v>
       </c>
       <c r="G50" t="n">
-        <v>4.251433333333335</v>
+        <v>4.251333333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>4.231</v>
       </c>
       <c r="F51" t="n">
-        <v>90000</v>
+        <v>54510.4315</v>
       </c>
       <c r="G51" t="n">
-        <v>4.251550000000003</v>
+        <v>4.251433333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="C52" t="n">
         <v>4.231</v>
@@ -2192,13 +2192,13 @@
         <v>4.231</v>
       </c>
       <c r="E52" t="n">
-        <v>4.226</v>
+        <v>4.231</v>
       </c>
       <c r="F52" t="n">
-        <v>185802.8545</v>
+        <v>90000</v>
       </c>
       <c r="G52" t="n">
-        <v>4.251700000000002</v>
+        <v>4.251550000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.231</v>
+        <v>4.23</v>
       </c>
       <c r="C53" t="n">
         <v>4.231</v>
@@ -2227,13 +2227,13 @@
         <v>4.231</v>
       </c>
       <c r="E53" t="n">
-        <v>4.231</v>
+        <v>4.226</v>
       </c>
       <c r="F53" t="n">
-        <v>746639.3672</v>
+        <v>185802.8545</v>
       </c>
       <c r="G53" t="n">
-        <v>4.251883333333335</v>
+        <v>4.251700000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.265</v>
+        <v>4.231</v>
       </c>
       <c r="C54" t="n">
-        <v>4.27</v>
+        <v>4.231</v>
       </c>
       <c r="D54" t="n">
-        <v>4.27</v>
+        <v>4.231</v>
       </c>
       <c r="E54" t="n">
-        <v>4.265</v>
+        <v>4.231</v>
       </c>
       <c r="F54" t="n">
-        <v>11369.8876</v>
+        <v>746639.3672</v>
       </c>
       <c r="G54" t="n">
-        <v>4.252683333333335</v>
+        <v>4.251883333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.272</v>
+        <v>4.265</v>
       </c>
       <c r="C55" t="n">
-        <v>4.272</v>
+        <v>4.27</v>
       </c>
       <c r="D55" t="n">
-        <v>4.272</v>
+        <v>4.27</v>
       </c>
       <c r="E55" t="n">
-        <v>4.272</v>
+        <v>4.265</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>11369.8876</v>
       </c>
       <c r="G55" t="n">
-        <v>4.252566666666669</v>
+        <v>4.252683333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="C56" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="D56" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="E56" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="F56" t="n">
-        <v>1369.8876</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="n">
-        <v>4.251333333333336</v>
+        <v>4.252566666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>4.226</v>
       </c>
       <c r="F57" t="n">
-        <v>72220.323</v>
+        <v>1369.8876</v>
       </c>
       <c r="G57" t="n">
-        <v>4.249966666666669</v>
+        <v>4.251333333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.275</v>
+        <v>4.226</v>
       </c>
       <c r="C58" t="n">
-        <v>4.275</v>
+        <v>4.226</v>
       </c>
       <c r="D58" t="n">
-        <v>4.275</v>
+        <v>4.226</v>
       </c>
       <c r="E58" t="n">
-        <v>4.275</v>
+        <v>4.226</v>
       </c>
       <c r="F58" t="n">
-        <v>190.2884</v>
+        <v>72220.323</v>
       </c>
       <c r="G58" t="n">
-        <v>4.250816666666669</v>
+        <v>4.249966666666669</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.226</v>
+        <v>4.275</v>
       </c>
       <c r="C59" t="n">
-        <v>4.226</v>
+        <v>4.275</v>
       </c>
       <c r="D59" t="n">
-        <v>4.226</v>
+        <v>4.275</v>
       </c>
       <c r="E59" t="n">
-        <v>4.226</v>
+        <v>4.275</v>
       </c>
       <c r="F59" t="n">
-        <v>53870.0426</v>
+        <v>190.2884</v>
       </c>
       <c r="G59" t="n">
-        <v>4.250750000000003</v>
+        <v>4.250816666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="C60" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="D60" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="E60" t="n">
-        <v>4.27</v>
+        <v>4.226</v>
       </c>
       <c r="F60" t="n">
-        <v>171.4603</v>
+        <v>53870.0426</v>
       </c>
       <c r="G60" t="n">
-        <v>4.251533333333336</v>
+        <v>4.250750000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,19 +2498,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="C61" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="D61" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="E61" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="F61" t="n">
-        <v>38773.9616</v>
+        <v>171.4603</v>
       </c>
       <c r="G61" t="n">
         <v>4.251533333333336</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.269</v>
+        <v>4.226</v>
       </c>
       <c r="C62" t="n">
-        <v>4.269</v>
+        <v>4.226</v>
       </c>
       <c r="D62" t="n">
-        <v>4.269</v>
+        <v>4.226</v>
       </c>
       <c r="E62" t="n">
-        <v>4.269</v>
+        <v>4.226</v>
       </c>
       <c r="F62" t="n">
-        <v>7801.2072</v>
+        <v>38773.9616</v>
       </c>
       <c r="G62" t="n">
-        <v>4.251033333333336</v>
+        <v>4.251533333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>4.269</v>
       </c>
       <c r="C63" t="n">
-        <v>4.217</v>
+        <v>4.269</v>
       </c>
       <c r="D63" t="n">
         <v>4.269</v>
       </c>
       <c r="E63" t="n">
-        <v>4.217</v>
+        <v>4.269</v>
       </c>
       <c r="F63" t="n">
-        <v>53069.4156</v>
+        <v>7801.2072</v>
       </c>
       <c r="G63" t="n">
-        <v>4.249683333333336</v>
+        <v>4.251033333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>4.269</v>
       </c>
       <c r="C64" t="n">
-        <v>4.283</v>
+        <v>4.217</v>
       </c>
       <c r="D64" t="n">
-        <v>4.283</v>
+        <v>4.269</v>
       </c>
       <c r="E64" t="n">
-        <v>4.269</v>
+        <v>4.217</v>
       </c>
       <c r="F64" t="n">
-        <v>25117.732712607</v>
+        <v>53069.4156</v>
       </c>
       <c r="G64" t="n">
-        <v>4.250600000000003</v>
+        <v>4.249683333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.22</v>
+        <v>4.269</v>
       </c>
       <c r="C65" t="n">
-        <v>4.282</v>
+        <v>4.283</v>
       </c>
       <c r="D65" t="n">
-        <v>4.282</v>
+        <v>4.283</v>
       </c>
       <c r="E65" t="n">
-        <v>4.22</v>
+        <v>4.269</v>
       </c>
       <c r="F65" t="n">
-        <v>429342.7655</v>
+        <v>25117.732712607</v>
       </c>
       <c r="G65" t="n">
-        <v>4.251500000000003</v>
+        <v>4.250600000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.281</v>
+        <v>4.22</v>
       </c>
       <c r="C66" t="n">
-        <v>4.281</v>
+        <v>4.282</v>
       </c>
       <c r="D66" t="n">
-        <v>4.281</v>
+        <v>4.282</v>
       </c>
       <c r="E66" t="n">
-        <v>4.281</v>
+        <v>4.22</v>
       </c>
       <c r="F66" t="n">
-        <v>41015.087</v>
+        <v>429342.7655</v>
       </c>
       <c r="G66" t="n">
-        <v>4.252383333333336</v>
+        <v>4.251500000000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.217</v>
+        <v>4.281</v>
       </c>
       <c r="C67" t="n">
-        <v>4.215</v>
+        <v>4.281</v>
       </c>
       <c r="D67" t="n">
-        <v>4.217</v>
+        <v>4.281</v>
       </c>
       <c r="E67" t="n">
-        <v>4.215</v>
+        <v>4.281</v>
       </c>
       <c r="F67" t="n">
-        <v>513036.9949</v>
+        <v>41015.087</v>
       </c>
       <c r="G67" t="n">
-        <v>4.252133333333336</v>
+        <v>4.252383333333336</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.282</v>
+        <v>4.217</v>
       </c>
       <c r="C68" t="n">
-        <v>4.282</v>
+        <v>4.215</v>
       </c>
       <c r="D68" t="n">
-        <v>4.282</v>
+        <v>4.217</v>
       </c>
       <c r="E68" t="n">
-        <v>4.282</v>
+        <v>4.215</v>
       </c>
       <c r="F68" t="n">
-        <v>124.6442</v>
+        <v>513036.9949</v>
       </c>
       <c r="G68" t="n">
-        <v>4.253000000000003</v>
+        <v>4.252133333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="C69" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="D69" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="E69" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="F69" t="n">
-        <v>11964.5612</v>
+        <v>124.6442</v>
       </c>
       <c r="G69" t="n">
-        <v>4.253833333333336</v>
+        <v>4.253000000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.216</v>
+        <v>4.28</v>
       </c>
       <c r="C70" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="D70" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="E70" t="n">
-        <v>4.216</v>
+        <v>4.28</v>
       </c>
       <c r="F70" t="n">
-        <v>23666.134</v>
+        <v>11964.5612</v>
       </c>
       <c r="G70" t="n">
-        <v>4.255033333333336</v>
+        <v>4.253833333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.261</v>
+        <v>4.216</v>
       </c>
       <c r="C71" t="n">
-        <v>4.261</v>
+        <v>4.299</v>
       </c>
       <c r="D71" t="n">
-        <v>4.261</v>
+        <v>4.299</v>
       </c>
       <c r="E71" t="n">
-        <v>4.261</v>
+        <v>4.216</v>
       </c>
       <c r="F71" t="n">
-        <v>1538.5212</v>
+        <v>23666.134</v>
       </c>
       <c r="G71" t="n">
-        <v>4.255600000000003</v>
+        <v>4.255033333333336</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259</v>
+        <v>4.261</v>
       </c>
       <c r="C72" t="n">
-        <v>4.259</v>
+        <v>4.261</v>
       </c>
       <c r="D72" t="n">
-        <v>4.259</v>
+        <v>4.261</v>
       </c>
       <c r="E72" t="n">
-        <v>4.259</v>
+        <v>4.261</v>
       </c>
       <c r="F72" t="n">
-        <v>7313.1886</v>
+        <v>1538.5212</v>
       </c>
       <c r="G72" t="n">
-        <v>4.256150000000003</v>
+        <v>4.255600000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="C73" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="D73" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="E73" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="F73" t="n">
-        <v>896.1783</v>
+        <v>7313.1886</v>
       </c>
       <c r="G73" t="n">
-        <v>4.256000000000003</v>
+        <v>4.256150000000003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.269</v>
+        <v>4.216</v>
       </c>
       <c r="C74" t="n">
-        <v>4.269</v>
+        <v>4.216</v>
       </c>
       <c r="D74" t="n">
-        <v>4.269</v>
+        <v>4.216</v>
       </c>
       <c r="E74" t="n">
-        <v>4.269</v>
+        <v>4.216</v>
       </c>
       <c r="F74" t="n">
-        <v>125.0223</v>
+        <v>896.1783</v>
       </c>
       <c r="G74" t="n">
-        <v>4.256750000000002</v>
+        <v>4.256000000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.267</v>
+        <v>4.269</v>
       </c>
       <c r="C75" t="n">
-        <v>4.267</v>
+        <v>4.269</v>
       </c>
       <c r="D75" t="n">
-        <v>4.267</v>
+        <v>4.269</v>
       </c>
       <c r="E75" t="n">
-        <v>4.267</v>
+        <v>4.269</v>
       </c>
       <c r="F75" t="n">
         <v>125.0223</v>
       </c>
       <c r="G75" t="n">
-        <v>4.257483333333336</v>
+        <v>4.256750000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.268</v>
+        <v>4.267</v>
       </c>
       <c r="C76" t="n">
-        <v>4.216</v>
+        <v>4.267</v>
       </c>
       <c r="D76" t="n">
-        <v>4.268</v>
+        <v>4.267</v>
       </c>
       <c r="E76" t="n">
-        <v>4.216</v>
+        <v>4.267</v>
       </c>
       <c r="F76" t="n">
-        <v>1600</v>
+        <v>125.0223</v>
       </c>
       <c r="G76" t="n">
-        <v>4.257550000000003</v>
+        <v>4.257483333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>4.268</v>
       </c>
       <c r="C77" t="n">
-        <v>4.268</v>
+        <v>4.216</v>
       </c>
       <c r="D77" t="n">
         <v>4.268</v>
       </c>
       <c r="E77" t="n">
-        <v>4.268</v>
+        <v>4.216</v>
       </c>
       <c r="F77" t="n">
-        <v>2596.4185</v>
+        <v>1600</v>
       </c>
       <c r="G77" t="n">
-        <v>4.257066666666669</v>
+        <v>4.257550000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.259</v>
+        <v>4.268</v>
       </c>
       <c r="C78" t="n">
-        <v>4.259</v>
+        <v>4.268</v>
       </c>
       <c r="D78" t="n">
-        <v>4.259</v>
+        <v>4.268</v>
       </c>
       <c r="E78" t="n">
-        <v>4.259</v>
+        <v>4.268</v>
       </c>
       <c r="F78" t="n">
-        <v>22978.925</v>
+        <v>2596.4185</v>
       </c>
       <c r="G78" t="n">
-        <v>4.256500000000002</v>
+        <v>4.257066666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="C79" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="D79" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="E79" t="n">
-        <v>4.216</v>
+        <v>4.259</v>
       </c>
       <c r="F79" t="n">
-        <v>236.9545</v>
+        <v>22978.925</v>
       </c>
       <c r="G79" t="n">
-        <v>4.255283333333336</v>
+        <v>4.256500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>4.216</v>
       </c>
       <c r="F80" t="n">
-        <v>2416.8803</v>
+        <v>236.9545</v>
       </c>
       <c r="G80" t="n">
-        <v>4.254216666666669</v>
+        <v>4.255283333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.277</v>
+        <v>4.216</v>
       </c>
       <c r="C81" t="n">
-        <v>4.277</v>
+        <v>4.216</v>
       </c>
       <c r="D81" t="n">
-        <v>4.277</v>
+        <v>4.216</v>
       </c>
       <c r="E81" t="n">
-        <v>4.277</v>
+        <v>4.216</v>
       </c>
       <c r="F81" t="n">
-        <v>120</v>
+        <v>2416.8803</v>
       </c>
       <c r="G81" t="n">
-        <v>4.254166666666669</v>
+        <v>4.254216666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.219</v>
+        <v>4.277</v>
       </c>
       <c r="C82" t="n">
-        <v>4.215</v>
+        <v>4.277</v>
       </c>
       <c r="D82" t="n">
-        <v>4.219</v>
+        <v>4.277</v>
       </c>
       <c r="E82" t="n">
-        <v>4.215</v>
+        <v>4.277</v>
       </c>
       <c r="F82" t="n">
-        <v>212487.9824</v>
+        <v>120</v>
       </c>
       <c r="G82" t="n">
-        <v>4.253750000000002</v>
+        <v>4.254166666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.214</v>
+        <v>4.219</v>
       </c>
       <c r="C83" t="n">
-        <v>4.213</v>
+        <v>4.215</v>
       </c>
       <c r="D83" t="n">
-        <v>4.214</v>
+        <v>4.219</v>
       </c>
       <c r="E83" t="n">
-        <v>4.213</v>
+        <v>4.215</v>
       </c>
       <c r="F83" t="n">
-        <v>141447.1751</v>
+        <v>212487.9824</v>
       </c>
       <c r="G83" t="n">
-        <v>4.252550000000003</v>
+        <v>4.253750000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.212</v>
+        <v>4.214</v>
       </c>
       <c r="C84" t="n">
-        <v>4.21</v>
+        <v>4.213</v>
       </c>
       <c r="D84" t="n">
-        <v>4.212</v>
+        <v>4.214</v>
       </c>
       <c r="E84" t="n">
-        <v>4.21</v>
+        <v>4.213</v>
       </c>
       <c r="F84" t="n">
-        <v>23738.8269</v>
+        <v>141447.1751</v>
       </c>
       <c r="G84" t="n">
-        <v>4.251466666666669</v>
+        <v>4.252550000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.269</v>
+        <v>4.212</v>
       </c>
       <c r="C85" t="n">
-        <v>4.269</v>
+        <v>4.21</v>
       </c>
       <c r="D85" t="n">
-        <v>4.269</v>
+        <v>4.212</v>
       </c>
       <c r="E85" t="n">
-        <v>4.269</v>
+        <v>4.21</v>
       </c>
       <c r="F85" t="n">
-        <v>120</v>
+        <v>23738.8269</v>
       </c>
       <c r="G85" t="n">
-        <v>4.251233333333336</v>
+        <v>4.251466666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.21</v>
+        <v>4.269</v>
       </c>
       <c r="C86" t="n">
-        <v>4.204</v>
+        <v>4.269</v>
       </c>
       <c r="D86" t="n">
-        <v>4.21</v>
+        <v>4.269</v>
       </c>
       <c r="E86" t="n">
-        <v>4.204</v>
+        <v>4.269</v>
       </c>
       <c r="F86" t="n">
-        <v>107240.953</v>
+        <v>120</v>
       </c>
       <c r="G86" t="n">
-        <v>4.249800000000002</v>
+        <v>4.251233333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.265</v>
+        <v>4.21</v>
       </c>
       <c r="C87" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="D87" t="n">
-        <v>4.265</v>
+        <v>4.21</v>
       </c>
       <c r="E87" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="F87" t="n">
-        <v>118</v>
+        <v>107240.953</v>
       </c>
       <c r="G87" t="n">
-        <v>4.249200000000003</v>
+        <v>4.249800000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.204</v>
+        <v>4.265</v>
       </c>
       <c r="C88" t="n">
-        <v>4.204</v>
+        <v>4.265</v>
       </c>
       <c r="D88" t="n">
-        <v>4.204</v>
+        <v>4.265</v>
       </c>
       <c r="E88" t="n">
-        <v>4.204</v>
+        <v>4.265</v>
       </c>
       <c r="F88" t="n">
-        <v>38246.8885</v>
+        <v>118</v>
       </c>
       <c r="G88" t="n">
-        <v>4.248833333333336</v>
+        <v>4.249200000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.205</v>
+        <v>4.204</v>
       </c>
       <c r="C89" t="n">
-        <v>4.205</v>
+        <v>4.204</v>
       </c>
       <c r="D89" t="n">
-        <v>4.205</v>
+        <v>4.204</v>
       </c>
       <c r="E89" t="n">
-        <v>4.205</v>
+        <v>4.204</v>
       </c>
       <c r="F89" t="n">
-        <v>374790.0731</v>
+        <v>38246.8885</v>
       </c>
       <c r="G89" t="n">
-        <v>4.247250000000003</v>
+        <v>4.248833333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.204</v>
+        <v>4.205</v>
       </c>
       <c r="C90" t="n">
-        <v>4.201</v>
+        <v>4.205</v>
       </c>
       <c r="D90" t="n">
-        <v>4.204</v>
+        <v>4.205</v>
       </c>
       <c r="E90" t="n">
-        <v>4.201</v>
+        <v>4.205</v>
       </c>
       <c r="F90" t="n">
-        <v>268126.8546</v>
+        <v>374790.0731</v>
       </c>
       <c r="G90" t="n">
-        <v>4.245616666666669</v>
+        <v>4.247250000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.2</v>
+        <v>4.204</v>
       </c>
       <c r="C91" t="n">
-        <v>4.2</v>
+        <v>4.201</v>
       </c>
       <c r="D91" t="n">
-        <v>4.2</v>
+        <v>4.204</v>
       </c>
       <c r="E91" t="n">
-        <v>4.2</v>
+        <v>4.201</v>
       </c>
       <c r="F91" t="n">
-        <v>82173.25199999999</v>
+        <v>268126.8546</v>
       </c>
       <c r="G91" t="n">
-        <v>4.245183333333336</v>
+        <v>4.245616666666669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="C92" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="E92" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="F92" t="n">
-        <v>1723.0301</v>
+        <v>82173.25199999999</v>
       </c>
       <c r="G92" t="n">
-        <v>4.244583333333336</v>
+        <v>4.245183333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="C93" t="n">
-        <v>4.171</v>
+        <v>4.19</v>
       </c>
       <c r="D93" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="E93" t="n">
-        <v>4.171</v>
+        <v>4.19</v>
       </c>
       <c r="F93" t="n">
-        <v>484389.2748</v>
+        <v>1723.0301</v>
       </c>
       <c r="G93" t="n">
-        <v>4.242900000000003</v>
+        <v>4.244583333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="C94" t="n">
-        <v>4.19</v>
+        <v>4.171</v>
       </c>
       <c r="D94" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="E94" t="n">
-        <v>4.19</v>
+        <v>4.171</v>
       </c>
       <c r="F94" t="n">
-        <v>120</v>
+        <v>484389.2748</v>
       </c>
       <c r="G94" t="n">
-        <v>4.242283333333337</v>
+        <v>4.242900000000003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.172</v>
+        <v>4.19</v>
       </c>
       <c r="C95" t="n">
-        <v>4.172</v>
+        <v>4.19</v>
       </c>
       <c r="D95" t="n">
-        <v>4.172</v>
+        <v>4.19</v>
       </c>
       <c r="E95" t="n">
-        <v>4.172</v>
+        <v>4.19</v>
       </c>
       <c r="F95" t="n">
-        <v>94693.12179999999</v>
+        <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>4.24136666666667</v>
+        <v>4.242283333333337</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>4.172</v>
       </c>
       <c r="F96" t="n">
-        <v>120368.3156</v>
+        <v>94693.12179999999</v>
       </c>
       <c r="G96" t="n">
-        <v>4.240450000000003</v>
+        <v>4.24136666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="C97" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="D97" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="E97" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="F97" t="n">
-        <v>45129.818</v>
+        <v>120368.3156</v>
       </c>
       <c r="G97" t="n">
-        <v>4.239850000000003</v>
+        <v>4.240450000000003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="C98" t="n">
         <v>4.19</v>
       </c>
       <c r="D98" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="E98" t="n">
         <v>4.19</v>
       </c>
       <c r="F98" t="n">
-        <v>325115.5775</v>
+        <v>45129.818</v>
       </c>
       <c r="G98" t="n">
-        <v>4.238016666666669</v>
+        <v>4.239850000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.197</v>
+        <v>4.2</v>
       </c>
       <c r="C99" t="n">
-        <v>4.197</v>
+        <v>4.19</v>
       </c>
       <c r="D99" t="n">
-        <v>4.197</v>
+        <v>4.2</v>
       </c>
       <c r="E99" t="n">
-        <v>4.197</v>
+        <v>4.19</v>
       </c>
       <c r="F99" t="n">
-        <v>6898.3414</v>
+        <v>325115.5775</v>
       </c>
       <c r="G99" t="n">
-        <v>4.23631666666667</v>
+        <v>4.238016666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>4.197</v>
       </c>
       <c r="F100" t="n">
-        <v>1939.5709</v>
+        <v>6898.3414</v>
       </c>
       <c r="G100" t="n">
-        <v>4.235750000000002</v>
+        <v>4.23631666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.175</v>
+        <v>4.197</v>
       </c>
       <c r="C101" t="n">
-        <v>4.175</v>
+        <v>4.197</v>
       </c>
       <c r="D101" t="n">
-        <v>4.175</v>
+        <v>4.197</v>
       </c>
       <c r="E101" t="n">
-        <v>4.175</v>
+        <v>4.197</v>
       </c>
       <c r="F101" t="n">
-        <v>211961.1178</v>
+        <v>1939.5709</v>
       </c>
       <c r="G101" t="n">
-        <v>4.23481666666667</v>
+        <v>4.235750000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.173</v>
+        <v>4.175</v>
       </c>
       <c r="C102" t="n">
-        <v>4.171</v>
+        <v>4.175</v>
       </c>
       <c r="D102" t="n">
-        <v>4.173</v>
+        <v>4.175</v>
       </c>
       <c r="E102" t="n">
-        <v>4.171</v>
+        <v>4.175</v>
       </c>
       <c r="F102" t="n">
-        <v>219713.1388</v>
+        <v>211961.1178</v>
       </c>
       <c r="G102" t="n">
-        <v>4.233816666666669</v>
+        <v>4.23481666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.17</v>
+        <v>4.173</v>
       </c>
       <c r="C103" t="n">
-        <v>4.17</v>
+        <v>4.171</v>
       </c>
       <c r="D103" t="n">
-        <v>4.17</v>
+        <v>4.173</v>
       </c>
       <c r="E103" t="n">
-        <v>4.17</v>
+        <v>4.171</v>
       </c>
       <c r="F103" t="n">
-        <v>131601.2824</v>
+        <v>219713.1388</v>
       </c>
       <c r="G103" t="n">
-        <v>4.232783333333336</v>
+        <v>4.233816666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.173</v>
+        <v>4.17</v>
       </c>
       <c r="C104" t="n">
-        <v>4.173</v>
+        <v>4.17</v>
       </c>
       <c r="D104" t="n">
-        <v>4.173</v>
+        <v>4.17</v>
       </c>
       <c r="E104" t="n">
-        <v>4.173</v>
+        <v>4.17</v>
       </c>
       <c r="F104" t="n">
-        <v>217237.0061</v>
+        <v>131601.2824</v>
       </c>
       <c r="G104" t="n">
-        <v>4.230700000000002</v>
+        <v>4.232783333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.176</v>
+        <v>4.173</v>
       </c>
       <c r="C105" t="n">
-        <v>4.176</v>
+        <v>4.173</v>
       </c>
       <c r="D105" t="n">
-        <v>4.176</v>
+        <v>4.173</v>
       </c>
       <c r="E105" t="n">
-        <v>4.176</v>
+        <v>4.173</v>
       </c>
       <c r="F105" t="n">
-        <v>351129.4749</v>
+        <v>217237.0061</v>
       </c>
       <c r="G105" t="n">
-        <v>4.229350000000002</v>
+        <v>4.230700000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,28 +4076,32 @@
         <v>4.176</v>
       </c>
       <c r="C106" t="n">
-        <v>4.173</v>
+        <v>4.176</v>
       </c>
       <c r="D106" t="n">
         <v>4.176</v>
       </c>
       <c r="E106" t="n">
-        <v>4.173</v>
+        <v>4.176</v>
       </c>
       <c r="F106" t="n">
-        <v>333573.0011</v>
+        <v>351129.4749</v>
       </c>
       <c r="G106" t="n">
-        <v>4.227816666666669</v>
+        <v>4.229350000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4.173</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4108,32 +4112,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.179</v>
+        <v>4.176</v>
       </c>
       <c r="C107" t="n">
         <v>4.173</v>
       </c>
       <c r="D107" t="n">
-        <v>4.179</v>
+        <v>4.176</v>
       </c>
       <c r="E107" t="n">
         <v>4.173</v>
       </c>
       <c r="F107" t="n">
-        <v>191405.3805</v>
+        <v>333573.0011</v>
       </c>
       <c r="G107" t="n">
-        <v>4.226833333333336</v>
+        <v>4.227816666666669</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.176</v>
+      </c>
+      <c r="K107" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4155,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.18</v>
+        <v>4.179</v>
       </c>
       <c r="C108" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="D108" t="n">
-        <v>4.18</v>
+        <v>4.179</v>
       </c>
       <c r="E108" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="F108" t="n">
-        <v>406.608</v>
+        <v>191405.3805</v>
       </c>
       <c r="G108" t="n">
-        <v>4.225966666666669</v>
+        <v>4.226833333333336</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4179,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.199</v>
+        <v>4.18</v>
       </c>
       <c r="C109" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="D109" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="E109" t="n">
-        <v>4.199</v>
+        <v>4.18</v>
       </c>
       <c r="F109" t="n">
-        <v>108968.8873</v>
+        <v>406.608</v>
       </c>
       <c r="G109" t="n">
-        <v>4.224883333333336</v>
+        <v>4.225966666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4237,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.175</v>
+        <v>4.199</v>
       </c>
       <c r="C110" t="n">
-        <v>4.175</v>
+        <v>4.2</v>
       </c>
       <c r="D110" t="n">
-        <v>4.175</v>
+        <v>4.2</v>
       </c>
       <c r="E110" t="n">
-        <v>4.175</v>
+        <v>4.199</v>
       </c>
       <c r="F110" t="n">
-        <v>700813.4941</v>
+        <v>108968.8873</v>
       </c>
       <c r="G110" t="n">
-        <v>4.223950000000003</v>
+        <v>4.224883333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4251,19 +4281,19 @@
         <v>4.175</v>
       </c>
       <c r="C111" t="n">
-        <v>4.173</v>
+        <v>4.175</v>
       </c>
       <c r="D111" t="n">
         <v>4.175</v>
       </c>
       <c r="E111" t="n">
-        <v>4.173</v>
+        <v>4.175</v>
       </c>
       <c r="F111" t="n">
-        <v>160732.3343</v>
+        <v>700813.4941</v>
       </c>
       <c r="G111" t="n">
-        <v>4.222983333333336</v>
+        <v>4.223950000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4319,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.196</v>
+        <v>4.175</v>
       </c>
       <c r="C112" t="n">
-        <v>4.197</v>
+        <v>4.173</v>
       </c>
       <c r="D112" t="n">
-        <v>4.197</v>
+        <v>4.175</v>
       </c>
       <c r="E112" t="n">
-        <v>4.196</v>
+        <v>4.173</v>
       </c>
       <c r="F112" t="n">
-        <v>448063.5823</v>
+        <v>160732.3343</v>
       </c>
       <c r="G112" t="n">
-        <v>4.22241666666667</v>
+        <v>4.222983333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,7 +4360,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.197</v>
+        <v>4.196</v>
       </c>
       <c r="C113" t="n">
         <v>4.197</v>
@@ -4327,13 +4369,13 @@
         <v>4.197</v>
       </c>
       <c r="E113" t="n">
-        <v>4.197</v>
+        <v>4.196</v>
       </c>
       <c r="F113" t="n">
-        <v>665772.8194</v>
+        <v>448063.5823</v>
       </c>
       <c r="G113" t="n">
-        <v>4.221850000000003</v>
+        <v>4.22241666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,10 +4413,10 @@
         <v>4.197</v>
       </c>
       <c r="F114" t="n">
-        <v>1096358.6298</v>
+        <v>665772.8194</v>
       </c>
       <c r="G114" t="n">
-        <v>4.220633333333336</v>
+        <v>4.221850000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4425,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,10 +4454,10 @@
         <v>4.197</v>
       </c>
       <c r="F115" t="n">
-        <v>453000</v>
+        <v>1096358.6298</v>
       </c>
       <c r="G115" t="n">
-        <v>4.219383333333337</v>
+        <v>4.220633333333336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4495,10 @@
         <v>4.197</v>
       </c>
       <c r="F116" t="n">
-        <v>502.4847</v>
+        <v>453000</v>
       </c>
       <c r="G116" t="n">
-        <v>4.218900000000003</v>
+        <v>4.219383333333337</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4524,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.198</v>
+        <v>4.197</v>
       </c>
       <c r="C117" t="n">
-        <v>4.198</v>
+        <v>4.197</v>
       </c>
       <c r="D117" t="n">
-        <v>4.198</v>
+        <v>4.197</v>
       </c>
       <c r="E117" t="n">
-        <v>4.198</v>
+        <v>4.197</v>
       </c>
       <c r="F117" t="n">
-        <v>119441.2527</v>
+        <v>502.4847</v>
       </c>
       <c r="G117" t="n">
-        <v>4.218433333333336</v>
+        <v>4.218900000000003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4548,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,10 +4577,10 @@
         <v>4.198</v>
       </c>
       <c r="F118" t="n">
-        <v>106651.9688</v>
+        <v>119441.2527</v>
       </c>
       <c r="G118" t="n">
-        <v>4.217150000000002</v>
+        <v>4.218433333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4531,19 +4609,19 @@
         <v>4.198</v>
       </c>
       <c r="C119" t="n">
-        <v>4.2</v>
+        <v>4.198</v>
       </c>
       <c r="D119" t="n">
-        <v>4.2</v>
+        <v>4.198</v>
       </c>
       <c r="E119" t="n">
         <v>4.198</v>
       </c>
       <c r="F119" t="n">
-        <v>666722.3108</v>
+        <v>106651.9688</v>
       </c>
       <c r="G119" t="n">
-        <v>4.216716666666669</v>
+        <v>4.217150000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4647,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.18</v>
+        <v>4.198</v>
       </c>
       <c r="C120" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="D120" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="E120" t="n">
-        <v>4.18</v>
+        <v>4.198</v>
       </c>
       <c r="F120" t="n">
-        <v>132489.2824</v>
+        <v>666722.3108</v>
       </c>
       <c r="G120" t="n">
-        <v>4.215216666666669</v>
+        <v>4.216716666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4671,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4610,10 +4700,10 @@
         <v>4.18</v>
       </c>
       <c r="F121" t="n">
-        <v>444</v>
+        <v>132489.2824</v>
       </c>
       <c r="G121" t="n">
-        <v>4.214450000000002</v>
+        <v>4.215216666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4712,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +4741,10 @@
         <v>4.18</v>
       </c>
       <c r="F122" t="n">
-        <v>663632.3367</v>
+        <v>444</v>
       </c>
       <c r="G122" t="n">
-        <v>4.212966666666669</v>
+        <v>4.214450000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4782,10 @@
         <v>4.18</v>
       </c>
       <c r="F123" t="n">
-        <v>12266.2112</v>
+        <v>663632.3367</v>
       </c>
       <c r="G123" t="n">
-        <v>4.212350000000002</v>
+        <v>4.212966666666669</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4794,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4811,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="C124" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="D124" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="E124" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="F124" t="n">
-        <v>252001.4083</v>
+        <v>12266.2112</v>
       </c>
       <c r="G124" t="n">
-        <v>4.210966666666669</v>
+        <v>4.212350000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4750,10 +4864,10 @@
         <v>4.2</v>
       </c>
       <c r="F125" t="n">
-        <v>116714.9338</v>
+        <v>252001.4083</v>
       </c>
       <c r="G125" t="n">
-        <v>4.209600000000003</v>
+        <v>4.210966666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +4876,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4893,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="C126" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="D126" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="E126" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="F126" t="n">
-        <v>7388.8888</v>
+        <v>116714.9338</v>
       </c>
       <c r="G126" t="n">
-        <v>4.207916666666669</v>
+        <v>4.209600000000003</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +4917,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4937,19 @@
         <v>4.18</v>
       </c>
       <c r="C127" t="n">
-        <v>4.172</v>
+        <v>4.18</v>
       </c>
       <c r="D127" t="n">
         <v>4.18</v>
       </c>
       <c r="E127" t="n">
-        <v>4.172</v>
+        <v>4.18</v>
       </c>
       <c r="F127" t="n">
-        <v>271748.6562</v>
+        <v>7388.8888</v>
       </c>
       <c r="G127" t="n">
-        <v>4.207200000000003</v>
+        <v>4.207916666666669</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4975,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.172</v>
+        <v>4.18</v>
       </c>
       <c r="C128" t="n">
         <v>4.172</v>
       </c>
       <c r="D128" t="n">
-        <v>4.172</v>
+        <v>4.18</v>
       </c>
       <c r="E128" t="n">
         <v>4.172</v>
       </c>
       <c r="F128" t="n">
-        <v>25000</v>
+        <v>271748.6562</v>
       </c>
       <c r="G128" t="n">
-        <v>4.205366666666669</v>
+        <v>4.207200000000003</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5016,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="C129" t="n">
         <v>4.172</v>
       </c>
       <c r="D129" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="E129" t="n">
         <v>4.172</v>
       </c>
       <c r="F129" t="n">
-        <v>280363.7299</v>
+        <v>25000</v>
       </c>
       <c r="G129" t="n">
-        <v>4.203566666666669</v>
+        <v>4.205366666666669</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5057,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.2</v>
+        <v>4.173</v>
       </c>
       <c r="C130" t="n">
-        <v>4.2</v>
+        <v>4.172</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2</v>
+        <v>4.173</v>
       </c>
       <c r="E130" t="n">
-        <v>4.2</v>
+        <v>4.172</v>
       </c>
       <c r="F130" t="n">
-        <v>276030.8015</v>
+        <v>280363.7299</v>
       </c>
       <c r="G130" t="n">
-        <v>4.201916666666669</v>
+        <v>4.203566666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5081,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4960,10 +5110,10 @@
         <v>4.2</v>
       </c>
       <c r="F131" t="n">
-        <v>11267.9634</v>
+        <v>276030.8015</v>
       </c>
       <c r="G131" t="n">
-        <v>4.200900000000003</v>
+        <v>4.201916666666669</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5139,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.175</v>
+        <v>4.2</v>
       </c>
       <c r="C132" t="n">
-        <v>4.174</v>
+        <v>4.2</v>
       </c>
       <c r="D132" t="n">
-        <v>4.175</v>
+        <v>4.2</v>
       </c>
       <c r="E132" t="n">
-        <v>4.174</v>
+        <v>4.2</v>
       </c>
       <c r="F132" t="n">
-        <v>486707.6676</v>
+        <v>11267.9634</v>
       </c>
       <c r="G132" t="n">
-        <v>4.199483333333336</v>
+        <v>4.200900000000003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5180,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.174</v>
+        <v>4.175</v>
       </c>
       <c r="C133" t="n">
         <v>4.174</v>
       </c>
       <c r="D133" t="n">
-        <v>4.174</v>
+        <v>4.175</v>
       </c>
       <c r="E133" t="n">
         <v>4.174</v>
       </c>
       <c r="F133" t="n">
-        <v>50000</v>
+        <v>486707.6676</v>
       </c>
       <c r="G133" t="n">
-        <v>4.198783333333336</v>
+        <v>4.199483333333336</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5056,19 +5224,19 @@
         <v>4.174</v>
       </c>
       <c r="C134" t="n">
-        <v>4.172</v>
+        <v>4.174</v>
       </c>
       <c r="D134" t="n">
         <v>4.174</v>
       </c>
       <c r="E134" t="n">
-        <v>4.172</v>
+        <v>4.174</v>
       </c>
       <c r="F134" t="n">
-        <v>581100</v>
+        <v>50000</v>
       </c>
       <c r="G134" t="n">
-        <v>4.19716666666667</v>
+        <v>4.198783333333336</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5245,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5262,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.173</v>
+        <v>4.174</v>
       </c>
       <c r="C135" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="D135" t="n">
-        <v>4.173</v>
+        <v>4.174</v>
       </c>
       <c r="E135" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="F135" t="n">
-        <v>152007.3938</v>
+        <v>581100</v>
       </c>
       <c r="G135" t="n">
-        <v>4.195600000000002</v>
+        <v>4.19716666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5286,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5135,10 +5315,10 @@
         <v>4.173</v>
       </c>
       <c r="F136" t="n">
-        <v>208273.2273</v>
+        <v>152007.3938</v>
       </c>
       <c r="G136" t="n">
-        <v>4.194883333333336</v>
+        <v>4.195600000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5344,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.172</v>
+        <v>4.173</v>
       </c>
       <c r="C137" t="n">
-        <v>4.172</v>
+        <v>4.173</v>
       </c>
       <c r="D137" t="n">
-        <v>4.172</v>
+        <v>4.173</v>
       </c>
       <c r="E137" t="n">
-        <v>4.172</v>
+        <v>4.173</v>
       </c>
       <c r="F137" t="n">
-        <v>89459.37940000001</v>
+        <v>208273.2273</v>
       </c>
       <c r="G137" t="n">
-        <v>4.193283333333336</v>
+        <v>4.194883333333336</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5385,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="C138" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="D138" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="E138" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="F138" t="n">
-        <v>350000</v>
+        <v>89459.37940000001</v>
       </c>
       <c r="G138" t="n">
-        <v>4.191800000000002</v>
+        <v>4.193283333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5426,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="C139" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="D139" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="E139" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="F139" t="n">
-        <v>71728.63619999999</v>
+        <v>350000</v>
       </c>
       <c r="G139" t="n">
-        <v>4.191066666666669</v>
+        <v>4.191800000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5275,10 +5479,10 @@
         <v>4.172</v>
       </c>
       <c r="F140" t="n">
-        <v>31860.0619</v>
+        <v>71728.63619999999</v>
       </c>
       <c r="G140" t="n">
-        <v>4.190333333333336</v>
+        <v>4.191066666666669</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5301,19 +5511,19 @@
         <v>4.172</v>
       </c>
       <c r="C141" t="n">
-        <v>4.168</v>
+        <v>4.172</v>
       </c>
       <c r="D141" t="n">
         <v>4.172</v>
       </c>
       <c r="E141" t="n">
-        <v>4.168</v>
+        <v>4.172</v>
       </c>
       <c r="F141" t="n">
-        <v>536232.0639</v>
+        <v>31860.0619</v>
       </c>
       <c r="G141" t="n">
-        <v>4.188516666666669</v>
+        <v>4.190333333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5532,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5549,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C142" t="n">
         <v>4.168</v>
       </c>
-      <c r="C142" t="n">
-        <v>4.166</v>
-      </c>
       <c r="D142" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E142" t="n">
         <v>4.168</v>
       </c>
-      <c r="E142" t="n">
-        <v>4.166</v>
-      </c>
       <c r="F142" t="n">
-        <v>275966.7817</v>
+        <v>536232.0639</v>
       </c>
       <c r="G142" t="n">
-        <v>4.187700000000002</v>
+        <v>4.188516666666669</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5573,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5590,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.166</v>
+        <v>4.168</v>
       </c>
       <c r="C143" t="n">
         <v>4.166</v>
       </c>
       <c r="D143" t="n">
-        <v>4.166</v>
+        <v>4.168</v>
       </c>
       <c r="E143" t="n">
         <v>4.166</v>
       </c>
       <c r="F143" t="n">
-        <v>22253.3054</v>
+        <v>275966.7817</v>
       </c>
       <c r="G143" t="n">
-        <v>4.18691666666667</v>
+        <v>4.187700000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5631,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.165</v>
+        <v>4.166</v>
       </c>
       <c r="C144" t="n">
-        <v>4.16</v>
+        <v>4.166</v>
       </c>
       <c r="D144" t="n">
-        <v>4.165</v>
+        <v>4.166</v>
       </c>
       <c r="E144" t="n">
-        <v>4.16</v>
+        <v>4.166</v>
       </c>
       <c r="F144" t="n">
-        <v>2870.9248</v>
+        <v>22253.3054</v>
       </c>
       <c r="G144" t="n">
-        <v>4.186083333333335</v>
+        <v>4.18691666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5672,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.158</v>
+        <v>4.165</v>
       </c>
       <c r="C145" t="n">
-        <v>4.145</v>
+        <v>4.16</v>
       </c>
       <c r="D145" t="n">
-        <v>4.158</v>
+        <v>4.165</v>
       </c>
       <c r="E145" t="n">
-        <v>4.145</v>
+        <v>4.16</v>
       </c>
       <c r="F145" t="n">
-        <v>866448.0441000001</v>
+        <v>2870.9248</v>
       </c>
       <c r="G145" t="n">
-        <v>4.184016666666669</v>
+        <v>4.186083333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5713,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="C146" t="n">
         <v>4.145</v>
       </c>
-      <c r="C146" t="n">
-        <v>4.12</v>
-      </c>
       <c r="D146" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="E146" t="n">
         <v>4.145</v>
       </c>
-      <c r="E146" t="n">
-        <v>4.12</v>
-      </c>
       <c r="F146" t="n">
-        <v>186591.2302</v>
+        <v>866448.0441000001</v>
       </c>
       <c r="G146" t="n">
-        <v>4.182616666666669</v>
+        <v>4.184016666666669</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +5737,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5754,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.166</v>
+        <v>4.145</v>
       </c>
       <c r="C147" t="n">
-        <v>4.166</v>
+        <v>4.12</v>
       </c>
       <c r="D147" t="n">
-        <v>4.166</v>
+        <v>4.145</v>
       </c>
       <c r="E147" t="n">
-        <v>4.166</v>
+        <v>4.12</v>
       </c>
       <c r="F147" t="n">
-        <v>161142.3682</v>
+        <v>186591.2302</v>
       </c>
       <c r="G147" t="n">
-        <v>4.180966666666669</v>
+        <v>4.182616666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5795,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.13</v>
+        <v>4.166</v>
       </c>
       <c r="C148" t="n">
-        <v>4.12</v>
+        <v>4.166</v>
       </c>
       <c r="D148" t="n">
-        <v>4.13</v>
+        <v>4.166</v>
       </c>
       <c r="E148" t="n">
-        <v>4.12</v>
+        <v>4.166</v>
       </c>
       <c r="F148" t="n">
-        <v>161129.9317</v>
+        <v>161142.3682</v>
       </c>
       <c r="G148" t="n">
-        <v>4.179566666666669</v>
+        <v>4.180966666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +5836,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C149" t="n">
         <v>4.12</v>
       </c>
-      <c r="C149" t="n">
-        <v>4.173</v>
-      </c>
       <c r="D149" t="n">
-        <v>4.173</v>
+        <v>4.13</v>
       </c>
       <c r="E149" t="n">
         <v>4.12</v>
       </c>
       <c r="F149" t="n">
-        <v>88871.103191924</v>
+        <v>161129.9317</v>
       </c>
       <c r="G149" t="n">
-        <v>4.179033333333336</v>
+        <v>4.179566666666669</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5616,29 +5880,37 @@
         <v>4.12</v>
       </c>
       <c r="C150" t="n">
-        <v>4.12</v>
+        <v>4.173</v>
       </c>
       <c r="D150" t="n">
-        <v>4.12</v>
+        <v>4.173</v>
       </c>
       <c r="E150" t="n">
         <v>4.12</v>
       </c>
       <c r="F150" t="n">
-        <v>23432.4234</v>
+        <v>88871.103191924</v>
       </c>
       <c r="G150" t="n">
-        <v>4.177683333333336</v>
+        <v>4.179033333333336</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,32 +5920,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.163</v>
+        <v>4.12</v>
       </c>
       <c r="C151" t="n">
-        <v>4.163</v>
+        <v>4.12</v>
       </c>
       <c r="D151" t="n">
-        <v>4.163</v>
+        <v>4.12</v>
       </c>
       <c r="E151" t="n">
-        <v>4.163</v>
+        <v>4.12</v>
       </c>
       <c r="F151" t="n">
-        <v>11710</v>
+        <v>23432.4234</v>
       </c>
       <c r="G151" t="n">
-        <v>4.177066666666669</v>
+        <v>4.177683333333336</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5698,17 +5978,25 @@
         <v>11710</v>
       </c>
       <c r="G152" t="n">
-        <v>4.17661666666667</v>
+        <v>4.177066666666669</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K152" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +6006,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.172</v>
+        <v>4.163</v>
       </c>
       <c r="C153" t="n">
-        <v>4.172</v>
+        <v>4.163</v>
       </c>
       <c r="D153" t="n">
-        <v>4.172</v>
+        <v>4.163</v>
       </c>
       <c r="E153" t="n">
-        <v>4.172</v>
+        <v>4.163</v>
       </c>
       <c r="F153" t="n">
-        <v>120</v>
+        <v>11710</v>
       </c>
       <c r="G153" t="n">
-        <v>4.176633333333337</v>
+        <v>4.17661666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5765,10 +6059,10 @@
         <v>4.172</v>
       </c>
       <c r="F154" t="n">
-        <v>43144.774688398</v>
+        <v>120</v>
       </c>
       <c r="G154" t="n">
-        <v>4.176333333333337</v>
+        <v>4.176633333333337</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,8 +6071,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5800,7 +6100,7 @@
         <v>4.172</v>
       </c>
       <c r="F155" t="n">
-        <v>525.1325000000001</v>
+        <v>43144.774688398</v>
       </c>
       <c r="G155" t="n">
         <v>4.176333333333337</v>
@@ -5812,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6129,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.155</v>
+        <v>4.172</v>
       </c>
       <c r="C156" t="n">
-        <v>4.155</v>
+        <v>4.172</v>
       </c>
       <c r="D156" t="n">
-        <v>4.155</v>
+        <v>4.172</v>
       </c>
       <c r="E156" t="n">
-        <v>4.155</v>
+        <v>4.172</v>
       </c>
       <c r="F156" t="n">
-        <v>180000</v>
+        <v>525.1325000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>4.176050000000003</v>
+        <v>4.176333333333337</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,8 +6153,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6170,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.15</v>
+        <v>4.155</v>
       </c>
       <c r="C157" t="n">
-        <v>4.15</v>
+        <v>4.155</v>
       </c>
       <c r="D157" t="n">
-        <v>4.15</v>
+        <v>4.155</v>
       </c>
       <c r="E157" t="n">
-        <v>4.15</v>
+        <v>4.155</v>
       </c>
       <c r="F157" t="n">
-        <v>6219.3167</v>
+        <v>180000</v>
       </c>
       <c r="G157" t="n">
-        <v>4.175383333333337</v>
+        <v>4.176050000000003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6211,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.161</v>
+        <v>4.15</v>
       </c>
       <c r="C158" t="n">
-        <v>4.171</v>
+        <v>4.15</v>
       </c>
       <c r="D158" t="n">
-        <v>4.171</v>
+        <v>4.15</v>
       </c>
       <c r="E158" t="n">
-        <v>4.161</v>
+        <v>4.15</v>
       </c>
       <c r="F158" t="n">
-        <v>83066.12940000001</v>
+        <v>6219.3167</v>
       </c>
       <c r="G158" t="n">
-        <v>4.17506666666667</v>
+        <v>4.175383333333337</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6252,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.163</v>
+        <v>4.161</v>
       </c>
       <c r="C159" t="n">
-        <v>4.163</v>
+        <v>4.171</v>
       </c>
       <c r="D159" t="n">
-        <v>4.163</v>
+        <v>4.171</v>
       </c>
       <c r="E159" t="n">
-        <v>4.163</v>
+        <v>4.161</v>
       </c>
       <c r="F159" t="n">
-        <v>10530</v>
+        <v>83066.12940000001</v>
       </c>
       <c r="G159" t="n">
-        <v>4.174500000000004</v>
+        <v>4.17506666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,8 +6276,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6293,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.173</v>
+        <v>4.163</v>
       </c>
       <c r="C160" t="n">
-        <v>4.173</v>
+        <v>4.163</v>
       </c>
       <c r="D160" t="n">
-        <v>4.173</v>
+        <v>4.163</v>
       </c>
       <c r="E160" t="n">
-        <v>4.173</v>
+        <v>4.163</v>
       </c>
       <c r="F160" t="n">
-        <v>120</v>
+        <v>10530</v>
       </c>
       <c r="G160" t="n">
-        <v>4.174100000000004</v>
+        <v>4.174500000000004</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5987,8 +6317,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6010,10 +6346,10 @@
         <v>4.173</v>
       </c>
       <c r="F161" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="G161" t="n">
-        <v>4.17406666666667</v>
+        <v>4.174100000000004</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6045,10 +6387,10 @@
         <v>4.173</v>
       </c>
       <c r="F162" t="n">
-        <v>64584.606</v>
+        <v>750</v>
       </c>
       <c r="G162" t="n">
-        <v>4.174100000000004</v>
+        <v>4.17406666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,8 +6399,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +6416,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.163</v>
+        <v>4.173</v>
       </c>
       <c r="C163" t="n">
-        <v>4.163</v>
+        <v>4.173</v>
       </c>
       <c r="D163" t="n">
-        <v>4.163</v>
+        <v>4.173</v>
       </c>
       <c r="E163" t="n">
-        <v>4.163</v>
+        <v>4.173</v>
       </c>
       <c r="F163" t="n">
-        <v>70090.3836</v>
+        <v>64584.606</v>
       </c>
       <c r="G163" t="n">
-        <v>4.173983333333337</v>
+        <v>4.174100000000004</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6092,8 +6440,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6103,22 +6457,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.125</v>
+        <v>4.163</v>
       </c>
       <c r="C164" t="n">
-        <v>4.125</v>
+        <v>4.163</v>
       </c>
       <c r="D164" t="n">
-        <v>4.125</v>
+        <v>4.163</v>
       </c>
       <c r="E164" t="n">
-        <v>4.125</v>
+        <v>4.163</v>
       </c>
       <c r="F164" t="n">
-        <v>50000</v>
+        <v>70090.3836</v>
       </c>
       <c r="G164" t="n">
-        <v>4.173183333333337</v>
+        <v>4.173983333333337</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6127,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6141,19 +6501,19 @@
         <v>4.125</v>
       </c>
       <c r="C165" t="n">
-        <v>4.04</v>
+        <v>4.125</v>
       </c>
       <c r="D165" t="n">
         <v>4.125</v>
       </c>
       <c r="E165" t="n">
-        <v>4.04</v>
+        <v>4.125</v>
       </c>
       <c r="F165" t="n">
-        <v>615587.3035</v>
+        <v>50000</v>
       </c>
       <c r="G165" t="n">
-        <v>4.17091666666667</v>
+        <v>4.173183333333337</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6162,8 +6522,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6176,19 +6542,19 @@
         <v>4.125</v>
       </c>
       <c r="C166" t="n">
-        <v>4.115</v>
+        <v>4.04</v>
       </c>
       <c r="D166" t="n">
         <v>4.125</v>
       </c>
       <c r="E166" t="n">
-        <v>4.115</v>
+        <v>4.04</v>
       </c>
       <c r="F166" t="n">
-        <v>16021</v>
+        <v>615587.3035</v>
       </c>
       <c r="G166" t="n">
-        <v>4.169950000000004</v>
+        <v>4.17091666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6197,8 +6563,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6580,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.045</v>
+        <v>4.125</v>
       </c>
       <c r="C167" t="n">
-        <v>4.045</v>
+        <v>4.115</v>
       </c>
       <c r="D167" t="n">
-        <v>4.045</v>
+        <v>4.125</v>
       </c>
       <c r="E167" t="n">
-        <v>4.045</v>
+        <v>4.115</v>
       </c>
       <c r="F167" t="n">
-        <v>173532.0607</v>
+        <v>16021</v>
       </c>
       <c r="G167" t="n">
-        <v>4.16781666666667</v>
+        <v>4.169950000000004</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6232,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6243,22 +6621,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.105</v>
+        <v>4.045</v>
       </c>
       <c r="C168" t="n">
-        <v>4.105</v>
+        <v>4.045</v>
       </c>
       <c r="D168" t="n">
-        <v>4.105</v>
+        <v>4.045</v>
       </c>
       <c r="E168" t="n">
-        <v>4.105</v>
+        <v>4.045</v>
       </c>
       <c r="F168" t="n">
-        <v>123</v>
+        <v>173532.0607</v>
       </c>
       <c r="G168" t="n">
-        <v>4.16656666666667</v>
+        <v>4.16781666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6267,8 +6645,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6278,32 +6662,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.05</v>
+        <v>4.105</v>
       </c>
       <c r="C169" t="n">
-        <v>4.043</v>
+        <v>4.105</v>
       </c>
       <c r="D169" t="n">
-        <v>4.05</v>
+        <v>4.105</v>
       </c>
       <c r="E169" t="n">
-        <v>4.043</v>
+        <v>4.105</v>
       </c>
       <c r="F169" t="n">
-        <v>705147.1588</v>
+        <v>123</v>
       </c>
       <c r="G169" t="n">
-        <v>4.163950000000003</v>
+        <v>4.16656666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="K169" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6313,32 +6705,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="F170" t="n">
+        <v>705147.1588</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4.163950000000003</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
         <v>4.105</v>
       </c>
-      <c r="C170" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="D170" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="F170" t="n">
-        <v>149135.2807</v>
-      </c>
-      <c r="G170" t="n">
-        <v>4.16261666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6351,29 +6751,37 @@
         <v>4.105</v>
       </c>
       <c r="C171" t="n">
-        <v>4.105</v>
+        <v>4.095</v>
       </c>
       <c r="D171" t="n">
         <v>4.105</v>
       </c>
       <c r="E171" t="n">
-        <v>4.105</v>
+        <v>4.095</v>
       </c>
       <c r="F171" t="n">
-        <v>122143.9687</v>
+        <v>149135.2807</v>
       </c>
       <c r="G171" t="n">
-        <v>4.161483333333337</v>
+        <v>4.16261666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="K171" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6386,29 +6794,37 @@
         <v>4.105</v>
       </c>
       <c r="C172" t="n">
-        <v>4.128</v>
+        <v>4.105</v>
       </c>
       <c r="D172" t="n">
-        <v>4.128</v>
+        <v>4.105</v>
       </c>
       <c r="E172" t="n">
         <v>4.105</v>
       </c>
       <c r="F172" t="n">
-        <v>241543.8336</v>
+        <v>122143.9687</v>
       </c>
       <c r="G172" t="n">
-        <v>4.160333333333337</v>
+        <v>4.161483333333337</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6418,32 +6834,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C173" t="n">
         <v>4.128</v>
       </c>
-      <c r="C173" t="n">
-        <v>4.162</v>
-      </c>
       <c r="D173" t="n">
-        <v>4.162</v>
+        <v>4.128</v>
       </c>
       <c r="E173" t="n">
-        <v>4.128</v>
+        <v>4.105</v>
       </c>
       <c r="F173" t="n">
-        <v>20749.996912878</v>
+        <v>241543.8336</v>
       </c>
       <c r="G173" t="n">
-        <v>4.159750000000003</v>
+        <v>4.160333333333337</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6453,32 +6877,40 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.115</v>
+        <v>4.128</v>
       </c>
       <c r="C174" t="n">
-        <v>4.115</v>
+        <v>4.162</v>
       </c>
       <c r="D174" t="n">
-        <v>4.115</v>
+        <v>4.162</v>
       </c>
       <c r="E174" t="n">
-        <v>4.115</v>
+        <v>4.128</v>
       </c>
       <c r="F174" t="n">
-        <v>22387.673277588</v>
+        <v>20749.996912878</v>
       </c>
       <c r="G174" t="n">
-        <v>4.158383333333337</v>
+        <v>4.159750000000003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="K174" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6488,32 +6920,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.161</v>
+        <v>4.115</v>
       </c>
       <c r="C175" t="n">
-        <v>4.161</v>
+        <v>4.115</v>
       </c>
       <c r="D175" t="n">
-        <v>4.161</v>
+        <v>4.115</v>
       </c>
       <c r="E175" t="n">
-        <v>4.161</v>
+        <v>4.115</v>
       </c>
       <c r="F175" t="n">
-        <v>121</v>
+        <v>22387.673277588</v>
       </c>
       <c r="G175" t="n">
-        <v>4.157783333333336</v>
+        <v>4.158383333333337</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6526,29 +6966,37 @@
         <v>4.161</v>
       </c>
       <c r="C176" t="n">
-        <v>4.162</v>
+        <v>4.161</v>
       </c>
       <c r="D176" t="n">
-        <v>4.162</v>
+        <v>4.161</v>
       </c>
       <c r="E176" t="n">
         <v>4.161</v>
       </c>
       <c r="F176" t="n">
-        <v>10000</v>
+        <v>121</v>
       </c>
       <c r="G176" t="n">
-        <v>4.157200000000003</v>
+        <v>4.157783333333336</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="K176" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +7006,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.08</v>
+        <v>4.161</v>
       </c>
       <c r="C177" t="n">
-        <v>4.151</v>
+        <v>4.162</v>
       </c>
       <c r="D177" t="n">
-        <v>4.151</v>
+        <v>4.162</v>
       </c>
       <c r="E177" t="n">
-        <v>4.08</v>
+        <v>4.161</v>
       </c>
       <c r="F177" t="n">
-        <v>3450.5187</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="n">
-        <v>4.15641666666667</v>
+        <v>4.157200000000003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6582,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6593,22 +7047,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.152</v>
+        <v>4.08</v>
       </c>
       <c r="C178" t="n">
-        <v>4.152</v>
+        <v>4.151</v>
       </c>
       <c r="D178" t="n">
-        <v>4.152</v>
+        <v>4.151</v>
       </c>
       <c r="E178" t="n">
-        <v>4.152</v>
+        <v>4.08</v>
       </c>
       <c r="F178" t="n">
-        <v>121</v>
+        <v>3450.5187</v>
       </c>
       <c r="G178" t="n">
-        <v>4.155650000000003</v>
+        <v>4.15641666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6617,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6631,19 +7091,19 @@
         <v>4.152</v>
       </c>
       <c r="C179" t="n">
-        <v>4.162</v>
+        <v>4.152</v>
       </c>
       <c r="D179" t="n">
-        <v>4.162</v>
+        <v>4.152</v>
       </c>
       <c r="E179" t="n">
         <v>4.152</v>
       </c>
       <c r="F179" t="n">
-        <v>3210</v>
+        <v>121</v>
       </c>
       <c r="G179" t="n">
-        <v>4.15501666666667</v>
+        <v>4.155650000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6652,8 +7112,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6663,22 +7129,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.116</v>
+        <v>4.152</v>
       </c>
       <c r="C180" t="n">
-        <v>4.116</v>
+        <v>4.162</v>
       </c>
       <c r="D180" t="n">
-        <v>4.116</v>
+        <v>4.162</v>
       </c>
       <c r="E180" t="n">
-        <v>4.116</v>
+        <v>4.152</v>
       </c>
       <c r="F180" t="n">
-        <v>398389.19</v>
+        <v>3210</v>
       </c>
       <c r="G180" t="n">
-        <v>4.153950000000004</v>
+        <v>4.15501666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6687,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6701,29 +7173,35 @@
         <v>4.116</v>
       </c>
       <c r="C181" t="n">
-        <v>4.11</v>
+        <v>4.116</v>
       </c>
       <c r="D181" t="n">
         <v>4.116</v>
       </c>
       <c r="E181" t="n">
-        <v>4.11</v>
+        <v>4.116</v>
       </c>
       <c r="F181" t="n">
-        <v>43894.7746</v>
+        <v>398389.19</v>
       </c>
       <c r="G181" t="n">
-        <v>4.152783333333336</v>
+        <v>4.153950000000004</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6733,32 +7211,38 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.13</v>
+        <v>4.116</v>
       </c>
       <c r="C182" t="n">
-        <v>4.13</v>
+        <v>4.11</v>
       </c>
       <c r="D182" t="n">
-        <v>4.13</v>
+        <v>4.116</v>
       </c>
       <c r="E182" t="n">
-        <v>4.13</v>
+        <v>4.11</v>
       </c>
       <c r="F182" t="n">
-        <v>121</v>
+        <v>43894.7746</v>
       </c>
       <c r="G182" t="n">
-        <v>4.151950000000003</v>
+        <v>4.152783333333336</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6768,22 +7252,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="C183" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="D183" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="E183" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="F183" t="n">
         <v>121</v>
       </c>
       <c r="G183" t="n">
-        <v>4.151283333333336</v>
+        <v>4.151950000000003</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6792,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6803,22 +7293,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.081</v>
+        <v>4.14</v>
       </c>
       <c r="C184" t="n">
-        <v>4.107</v>
+        <v>4.14</v>
       </c>
       <c r="D184" t="n">
-        <v>4.107</v>
+        <v>4.14</v>
       </c>
       <c r="E184" t="n">
-        <v>4.081</v>
+        <v>4.14</v>
       </c>
       <c r="F184" t="n">
-        <v>42500</v>
+        <v>121</v>
       </c>
       <c r="G184" t="n">
-        <v>4.149733333333336</v>
+        <v>4.151283333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6827,8 +7317,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6841,19 +7337,19 @@
         <v>4.081</v>
       </c>
       <c r="C185" t="n">
-        <v>4.081</v>
+        <v>4.107</v>
       </c>
       <c r="D185" t="n">
-        <v>4.081</v>
+        <v>4.107</v>
       </c>
       <c r="E185" t="n">
         <v>4.081</v>
       </c>
       <c r="F185" t="n">
-        <v>42491.3851</v>
+        <v>42500</v>
       </c>
       <c r="G185" t="n">
-        <v>4.147750000000003</v>
+        <v>4.149733333333336</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6862,8 +7358,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6873,32 +7375,40 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.092</v>
+        <v>4.081</v>
       </c>
       <c r="C186" t="n">
-        <v>4.071</v>
+        <v>4.081</v>
       </c>
       <c r="D186" t="n">
-        <v>4.092</v>
+        <v>4.081</v>
       </c>
       <c r="E186" t="n">
-        <v>4.071</v>
+        <v>4.081</v>
       </c>
       <c r="F186" t="n">
-        <v>1807242.5375</v>
+        <v>42491.3851</v>
       </c>
       <c r="G186" t="n">
-        <v>4.145933333333336</v>
+        <v>4.147750000000003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="K186" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6908,22 +7418,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.106</v>
+        <v>4.092</v>
       </c>
       <c r="C187" t="n">
-        <v>4.106</v>
+        <v>4.071</v>
       </c>
       <c r="D187" t="n">
-        <v>4.106</v>
+        <v>4.092</v>
       </c>
       <c r="E187" t="n">
-        <v>4.106</v>
+        <v>4.071</v>
       </c>
       <c r="F187" t="n">
-        <v>422.9149</v>
+        <v>1807242.5375</v>
       </c>
       <c r="G187" t="n">
-        <v>4.144833333333336</v>
+        <v>4.145933333333336</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6932,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6955,10 +7471,10 @@
         <v>4.106</v>
       </c>
       <c r="F188" t="n">
-        <v>90545.834</v>
+        <v>422.9149</v>
       </c>
       <c r="G188" t="n">
-        <v>4.143733333333336</v>
+        <v>4.144833333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6967,8 +7483,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6978,32 +7500,38 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="C189" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="D189" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="E189" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="F189" t="n">
-        <v>10000</v>
+        <v>90545.834</v>
       </c>
       <c r="G189" t="n">
-        <v>4.142650000000002</v>
+        <v>4.143733333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7013,22 +7541,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.125</v>
+        <v>4.107</v>
       </c>
       <c r="C190" t="n">
         <v>4.107</v>
       </c>
       <c r="D190" t="n">
-        <v>4.125</v>
+        <v>4.107</v>
       </c>
       <c r="E190" t="n">
         <v>4.107</v>
       </c>
       <c r="F190" t="n">
-        <v>172490.5576</v>
+        <v>10000</v>
       </c>
       <c r="G190" t="n">
-        <v>4.141100000000003</v>
+        <v>4.142650000000002</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7037,10 +7565,16 @@
         <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M190" t="n">
-        <v>1</v>
+        <v>0.9791840402588067</v>
       </c>
     </row>
     <row r="191">
@@ -7048,22 +7582,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.091</v>
+        <v>4.125</v>
       </c>
       <c r="C191" t="n">
-        <v>4.091</v>
+        <v>4.107</v>
       </c>
       <c r="D191" t="n">
-        <v>4.091</v>
+        <v>4.125</v>
       </c>
       <c r="E191" t="n">
-        <v>4.091</v>
+        <v>4.107</v>
       </c>
       <c r="F191" t="n">
-        <v>108337.442</v>
+        <v>172490.5576</v>
       </c>
       <c r="G191" t="n">
-        <v>4.139283333333337</v>
+        <v>4.141100000000003</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7629,10 @@
         <v>4.091</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1032</v>
+        <v>108337.442</v>
       </c>
       <c r="G192" t="n">
-        <v>4.137900000000004</v>
+        <v>4.139283333333337</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7652,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.081</v>
+        <v>4.091</v>
       </c>
       <c r="C193" t="n">
-        <v>4.081</v>
+        <v>4.091</v>
       </c>
       <c r="D193" t="n">
-        <v>4.081</v>
+        <v>4.091</v>
       </c>
       <c r="E193" t="n">
-        <v>4.081</v>
+        <v>4.091</v>
       </c>
       <c r="F193" t="n">
-        <v>25602.7258</v>
+        <v>0.1032</v>
       </c>
       <c r="G193" t="n">
-        <v>4.136350000000003</v>
+        <v>4.137900000000004</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7687,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.08</v>
+        <v>4.081</v>
       </c>
       <c r="C194" t="n">
-        <v>4.056</v>
+        <v>4.081</v>
       </c>
       <c r="D194" t="n">
-        <v>4.08</v>
+        <v>4.081</v>
       </c>
       <c r="E194" t="n">
-        <v>4.056</v>
+        <v>4.081</v>
       </c>
       <c r="F194" t="n">
-        <v>398916.1809</v>
+        <v>25602.7258</v>
       </c>
       <c r="G194" t="n">
-        <v>4.13441666666667</v>
+        <v>4.136350000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7722,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.081</v>
+        <v>4.08</v>
       </c>
       <c r="C195" t="n">
-        <v>4.081</v>
+        <v>4.056</v>
       </c>
       <c r="D195" t="n">
-        <v>4.081</v>
+        <v>4.08</v>
       </c>
       <c r="E195" t="n">
-        <v>4.081</v>
+        <v>4.056</v>
       </c>
       <c r="F195" t="n">
-        <v>123</v>
+        <v>398916.1809</v>
       </c>
       <c r="G195" t="n">
-        <v>4.132883333333337</v>
+        <v>4.13441666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7769,10 @@
         <v>4.081</v>
       </c>
       <c r="F196" t="n">
-        <v>518.669</v>
+        <v>123</v>
       </c>
       <c r="G196" t="n">
-        <v>4.131350000000003</v>
+        <v>4.132883333333337</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7804,10 @@
         <v>4.081</v>
       </c>
       <c r="F197" t="n">
-        <v>270.8299</v>
+        <v>518.669</v>
       </c>
       <c r="G197" t="n">
-        <v>4.129833333333336</v>
+        <v>4.131350000000003</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7827,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.06</v>
+        <v>4.081</v>
       </c>
       <c r="C198" t="n">
-        <v>4.06</v>
+        <v>4.081</v>
       </c>
       <c r="D198" t="n">
-        <v>4.06</v>
+        <v>4.081</v>
       </c>
       <c r="E198" t="n">
-        <v>4.06</v>
+        <v>4.081</v>
       </c>
       <c r="F198" t="n">
-        <v>151.507</v>
+        <v>270.8299</v>
       </c>
       <c r="G198" t="n">
-        <v>4.128000000000003</v>
+        <v>4.129833333333336</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7862,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.062</v>
+        <v>4.06</v>
       </c>
       <c r="C199" t="n">
         <v>4.06</v>
       </c>
       <c r="D199" t="n">
-        <v>4.062</v>
+        <v>4.06</v>
       </c>
       <c r="E199" t="n">
         <v>4.06</v>
       </c>
       <c r="F199" t="n">
-        <v>577903.8021</v>
+        <v>151.507</v>
       </c>
       <c r="G199" t="n">
-        <v>4.126133333333336</v>
+        <v>4.128000000000003</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,38 +7897,32 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="C200" t="n">
         <v>4.06</v>
       </c>
-      <c r="C200" t="n">
-        <v>4.056</v>
-      </c>
       <c r="D200" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="E200" t="n">
         <v>4.06</v>
       </c>
-      <c r="E200" t="n">
-        <v>4.056</v>
-      </c>
       <c r="F200" t="n">
-        <v>186124.4167</v>
+        <v>577903.8021</v>
       </c>
       <c r="G200" t="n">
-        <v>4.124200000000004</v>
+        <v>4.126133333333336</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>4.06</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7404,38 +7932,32 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.056</v>
+        <v>4.06</v>
       </c>
       <c r="C201" t="n">
         <v>4.056</v>
       </c>
       <c r="D201" t="n">
-        <v>4.056</v>
+        <v>4.06</v>
       </c>
       <c r="E201" t="n">
         <v>4.056</v>
       </c>
       <c r="F201" t="n">
-        <v>237778.3265</v>
+        <v>186124.4167</v>
       </c>
       <c r="G201" t="n">
-        <v>4.122333333333336</v>
+        <v>4.124200000000004</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>4.056</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7445,39 +7967,68 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="F202" t="n">
+        <v>237778.3265</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4.122333333333336</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>4.081</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C203" t="n">
         <v>4.081</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D203" t="n">
         <v>4.081</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E203" t="n">
         <v>4.081</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F203" t="n">
         <v>123</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G203" t="n">
         <v>4.12091666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.3</v>
+        <v>4.224</v>
       </c>
       <c r="C2" t="n">
-        <v>4.3</v>
+        <v>4.224</v>
       </c>
       <c r="D2" t="n">
-        <v>4.3</v>
+        <v>4.224</v>
       </c>
       <c r="E2" t="n">
-        <v>4.3</v>
+        <v>4.224</v>
       </c>
       <c r="F2" t="n">
-        <v>6981.9149</v>
+        <v>94460.8129</v>
       </c>
       <c r="G2" t="n">
-        <v>-6190320.962600001</v>
+        <v>-6670592.369600004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.279</v>
+        <v>4.223</v>
       </c>
       <c r="C3" t="n">
-        <v>4.279</v>
+        <v>4.223</v>
       </c>
       <c r="D3" t="n">
-        <v>4.279</v>
+        <v>4.223</v>
       </c>
       <c r="E3" t="n">
-        <v>4.279</v>
+        <v>4.223</v>
       </c>
       <c r="F3" t="n">
-        <v>105769.8829</v>
+        <v>131.4232</v>
       </c>
       <c r="G3" t="n">
-        <v>-6296090.845500001</v>
+        <v>-6670723.792800004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.344</v>
+        <v>4.222</v>
       </c>
       <c r="C4" t="n">
-        <v>4.344</v>
+        <v>4.212</v>
       </c>
       <c r="D4" t="n">
-        <v>4.344</v>
+        <v>4.222</v>
       </c>
       <c r="E4" t="n">
-        <v>4.344</v>
+        <v>4.212</v>
       </c>
       <c r="F4" t="n">
-        <v>116</v>
+        <v>16700</v>
       </c>
       <c r="G4" t="n">
-        <v>-6295974.845500001</v>
+        <v>-6687423.792800004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.28</v>
+        <v>4.223</v>
       </c>
       <c r="C5" t="n">
-        <v>4.28</v>
+        <v>4.297</v>
       </c>
       <c r="D5" t="n">
-        <v>4.28</v>
+        <v>4.297</v>
       </c>
       <c r="E5" t="n">
-        <v>4.28</v>
+        <v>4.223</v>
       </c>
       <c r="F5" t="n">
-        <v>68145.9727</v>
+        <v>546743.047108353</v>
       </c>
       <c r="G5" t="n">
-        <v>-6364120.818200001</v>
+        <v>-6140680.745691651</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.343</v>
+        <v>4.293</v>
       </c>
       <c r="C6" t="n">
-        <v>4.343</v>
+        <v>4.293</v>
       </c>
       <c r="D6" t="n">
-        <v>4.343</v>
+        <v>4.293</v>
       </c>
       <c r="E6" t="n">
-        <v>4.343</v>
+        <v>4.293</v>
       </c>
       <c r="F6" t="n">
-        <v>116</v>
+        <v>57655.6884</v>
       </c>
       <c r="G6" t="n">
-        <v>-6364004.818200001</v>
+        <v>-6198336.434091651</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="C7" t="n">
-        <v>4.279</v>
+        <v>4.289</v>
       </c>
       <c r="D7" t="n">
-        <v>4.28</v>
+        <v>4.289</v>
       </c>
       <c r="E7" t="n">
-        <v>4.279</v>
+        <v>4.289</v>
       </c>
       <c r="F7" t="n">
-        <v>59644.6363</v>
+        <v>47000</v>
       </c>
       <c r="G7" t="n">
-        <v>-6423649.454500001</v>
+        <v>-6245336.434091651</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.343</v>
+        <v>4.28</v>
       </c>
       <c r="C8" t="n">
-        <v>4.343</v>
+        <v>4.28</v>
       </c>
       <c r="D8" t="n">
-        <v>4.343</v>
+        <v>4.28</v>
       </c>
       <c r="E8" t="n">
-        <v>4.343</v>
+        <v>4.28</v>
       </c>
       <c r="F8" t="n">
-        <v>116</v>
+        <v>116773.9925</v>
       </c>
       <c r="G8" t="n">
-        <v>-6423533.454500001</v>
+        <v>-6362110.426591651</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.278</v>
+        <v>4.28</v>
       </c>
       <c r="C9" t="n">
-        <v>4.278</v>
+        <v>4.28</v>
       </c>
       <c r="D9" t="n">
-        <v>4.278</v>
+        <v>4.28</v>
       </c>
       <c r="E9" t="n">
-        <v>4.278</v>
+        <v>4.28</v>
       </c>
       <c r="F9" t="n">
-        <v>57515.3474</v>
+        <v>2680.199</v>
       </c>
       <c r="G9" t="n">
-        <v>-6481048.801900001</v>
+        <v>-6362110.426591651</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.278</v>
+        <v>4.241</v>
       </c>
       <c r="C10" t="n">
-        <v>4.278</v>
+        <v>4.24</v>
       </c>
       <c r="D10" t="n">
-        <v>4.278</v>
+        <v>4.241</v>
       </c>
       <c r="E10" t="n">
-        <v>4.278</v>
+        <v>4.24</v>
       </c>
       <c r="F10" t="n">
-        <v>165140.4494</v>
+        <v>235069.151</v>
       </c>
       <c r="G10" t="n">
-        <v>-6481048.801900001</v>
+        <v>-6597179.57759165</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.273</v>
+        <v>4.239</v>
       </c>
       <c r="C11" t="n">
-        <v>4.27</v>
+        <v>4.285</v>
       </c>
       <c r="D11" t="n">
-        <v>4.273</v>
+        <v>4.285</v>
       </c>
       <c r="E11" t="n">
-        <v>4.27</v>
+        <v>4.239</v>
       </c>
       <c r="F11" t="n">
-        <v>364485.557</v>
+        <v>161145.839996686</v>
       </c>
       <c r="G11" t="n">
-        <v>-6845534.358900001</v>
+        <v>-6436033.737594964</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.27</v>
+        <v>4.227</v>
       </c>
       <c r="C12" t="n">
-        <v>4.269</v>
+        <v>4.275</v>
       </c>
       <c r="D12" t="n">
-        <v>4.27</v>
+        <v>4.275</v>
       </c>
       <c r="E12" t="n">
-        <v>4.269</v>
+        <v>4.227</v>
       </c>
       <c r="F12" t="n">
-        <v>62491.5817</v>
+        <v>297121.544208514</v>
       </c>
       <c r="G12" t="n">
-        <v>-6908025.940600001</v>
+        <v>-6733155.281803478</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.27</v>
+        <v>4.224</v>
       </c>
       <c r="C13" t="n">
-        <v>4.278</v>
+        <v>4.283</v>
       </c>
       <c r="D13" t="n">
-        <v>4.278</v>
+        <v>4.283</v>
       </c>
       <c r="E13" t="n">
-        <v>4.27</v>
+        <v>4.224</v>
       </c>
       <c r="F13" t="n">
-        <v>1068218.6841</v>
+        <v>175286.943272659</v>
       </c>
       <c r="G13" t="n">
-        <v>-5839807.256500001</v>
+        <v>-6557868.338530819</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269</v>
+        <v>4.285</v>
       </c>
       <c r="C14" t="n">
-        <v>4.269</v>
+        <v>4.29</v>
       </c>
       <c r="D14" t="n">
-        <v>4.269</v>
+        <v>4.29</v>
       </c>
       <c r="E14" t="n">
-        <v>4.269</v>
+        <v>4.285</v>
       </c>
       <c r="F14" t="n">
-        <v>73876.42690000001</v>
+        <v>163291.7165</v>
       </c>
       <c r="G14" t="n">
-        <v>-5913683.683400001</v>
+        <v>-6394576.622030819</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.269</v>
+        <v>4.29</v>
       </c>
       <c r="C15" t="n">
-        <v>4.269</v>
+        <v>4.301</v>
       </c>
       <c r="D15" t="n">
-        <v>4.269</v>
+        <v>4.301</v>
       </c>
       <c r="E15" t="n">
-        <v>4.269</v>
+        <v>4.29</v>
       </c>
       <c r="F15" t="n">
-        <v>65520.1283</v>
+        <v>122184.8842</v>
       </c>
       <c r="G15" t="n">
-        <v>-5913683.683400001</v>
+        <v>-6272391.737830819</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.265</v>
+        <v>4.226</v>
       </c>
       <c r="C16" t="n">
-        <v>4.242</v>
+        <v>4.226</v>
       </c>
       <c r="D16" t="n">
-        <v>4.265</v>
+        <v>4.226</v>
       </c>
       <c r="E16" t="n">
-        <v>4.242</v>
+        <v>4.226</v>
       </c>
       <c r="F16" t="n">
-        <v>213175.2437</v>
+        <v>17071.6961</v>
       </c>
       <c r="G16" t="n">
-        <v>-6126858.927100001</v>
+        <v>-6289463.433930819</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,16 +990,16 @@
         <v>4.3</v>
       </c>
       <c r="F17" t="n">
-        <v>117</v>
+        <v>29669.4421</v>
       </c>
       <c r="G17" t="n">
-        <v>-6126741.927100001</v>
+        <v>-6259793.991830819</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.241</v>
+        <v>4.299</v>
       </c>
       <c r="C18" t="n">
-        <v>4.23</v>
+        <v>4.299</v>
       </c>
       <c r="D18" t="n">
-        <v>4.241</v>
+        <v>4.299</v>
       </c>
       <c r="E18" t="n">
-        <v>4.23</v>
+        <v>4.299</v>
       </c>
       <c r="F18" t="n">
-        <v>708127.1565</v>
+        <v>117</v>
       </c>
       <c r="G18" t="n">
-        <v>-6834869.083600001</v>
+        <v>-6259910.991830819</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="C19" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="D19" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="E19" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="F19" t="n">
-        <v>286599.3068</v>
+        <v>133844.1421</v>
       </c>
       <c r="G19" t="n">
-        <v>-7121468.390400002</v>
+        <v>-6393755.133930819</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="C20" t="n">
-        <v>4.225</v>
+        <v>4.226</v>
       </c>
       <c r="D20" t="n">
-        <v>4.225</v>
+        <v>4.226</v>
       </c>
       <c r="E20" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="F20" t="n">
-        <v>47027.0256</v>
+        <v>742025.6029000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-7074441.364800001</v>
+        <v>-6393755.133930819</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.224</v>
+        <v>4.27</v>
       </c>
       <c r="C21" t="n">
-        <v>4.224</v>
+        <v>4.272</v>
       </c>
       <c r="D21" t="n">
-        <v>4.224</v>
+        <v>4.273</v>
       </c>
       <c r="E21" t="n">
-        <v>4.224</v>
+        <v>4.27</v>
       </c>
       <c r="F21" t="n">
-        <v>21548.744</v>
+        <v>94688.3015</v>
       </c>
       <c r="G21" t="n">
-        <v>-7095990.108800001</v>
+        <v>-6299066.832430819</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="C22" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="D22" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="E22" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="F22" t="n">
-        <v>131.4543</v>
+        <v>16149.0501</v>
       </c>
       <c r="G22" t="n">
-        <v>-7096121.563100002</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.22</v>
+        <v>4.227</v>
       </c>
       <c r="C23" t="n">
-        <v>4.22</v>
+        <v>4.227</v>
       </c>
       <c r="D23" t="n">
-        <v>4.22</v>
+        <v>4.227</v>
       </c>
       <c r="E23" t="n">
-        <v>4.22</v>
+        <v>4.227</v>
       </c>
       <c r="F23" t="n">
-        <v>306568.693</v>
+        <v>244347.9393</v>
       </c>
       <c r="G23" t="n">
-        <v>-7402690.256100002</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="C24" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="D24" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="E24" t="n">
-        <v>4.222</v>
+        <v>4.227</v>
       </c>
       <c r="F24" t="n">
-        <v>189683.9907</v>
+        <v>156810.12</v>
       </c>
       <c r="G24" t="n">
-        <v>-7213006.265400002</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.279</v>
+        <v>4.226</v>
       </c>
       <c r="C25" t="n">
-        <v>4.279</v>
+        <v>4.226</v>
       </c>
       <c r="D25" t="n">
-        <v>4.279</v>
+        <v>4.226</v>
       </c>
       <c r="E25" t="n">
-        <v>4.279</v>
+        <v>4.226</v>
       </c>
       <c r="F25" t="n">
-        <v>117</v>
+        <v>28130.8993</v>
       </c>
       <c r="G25" t="n">
-        <v>-7212889.265400002</v>
+        <v>-6343346.781830818</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,13 +1295,14 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.279</v>
+        <v>4.3</v>
       </c>
       <c r="C26" t="n">
         <v>4.3</v>
@@ -1282,13 +1311,13 @@
         <v>4.3</v>
       </c>
       <c r="E26" t="n">
-        <v>4.279</v>
+        <v>4.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1151600.2196</v>
+        <v>4427.8902</v>
       </c>
       <c r="G26" t="n">
-        <v>-6061289.045800002</v>
+        <v>-6338918.891630818</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.308</v>
+        <v>4.299</v>
       </c>
       <c r="C27" t="n">
-        <v>4.308</v>
+        <v>4.299</v>
       </c>
       <c r="D27" t="n">
-        <v>4.308</v>
+        <v>4.299</v>
       </c>
       <c r="E27" t="n">
-        <v>4.308</v>
+        <v>4.299</v>
       </c>
       <c r="F27" t="n">
-        <v>117</v>
+        <v>35294.2001</v>
       </c>
       <c r="G27" t="n">
-        <v>-6061172.045800002</v>
+        <v>-6374213.091730818</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.224</v>
+        <v>4.231</v>
       </c>
       <c r="C28" t="n">
-        <v>4.224</v>
+        <v>4.231</v>
       </c>
       <c r="D28" t="n">
-        <v>4.224</v>
+        <v>4.231</v>
       </c>
       <c r="E28" t="n">
-        <v>4.224</v>
+        <v>4.231</v>
       </c>
       <c r="F28" t="n">
-        <v>30313.9581</v>
+        <v>305693.0441</v>
       </c>
       <c r="G28" t="n">
-        <v>-6091486.003900003</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1381,25 +1413,25 @@
         <v>4.231</v>
       </c>
       <c r="C29" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="D29" t="n">
         <v>4.231</v>
       </c>
       <c r="E29" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="F29" t="n">
-        <v>293769.3512</v>
+        <v>317665.3108</v>
       </c>
       <c r="G29" t="n">
-        <v>-5797716.652700002</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1416,19 +1449,19 @@
         <v>4.231</v>
       </c>
       <c r="C30" t="n">
-        <v>4.223</v>
+        <v>4.231</v>
       </c>
       <c r="D30" t="n">
         <v>4.231</v>
       </c>
       <c r="E30" t="n">
-        <v>4.223</v>
+        <v>4.231</v>
       </c>
       <c r="F30" t="n">
-        <v>342031.6724</v>
+        <v>151279.8164</v>
       </c>
       <c r="G30" t="n">
-        <v>-6139748.325100002</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.226</v>
+        <v>4.232</v>
       </c>
       <c r="C31" t="n">
-        <v>4.226</v>
+        <v>4.232</v>
       </c>
       <c r="D31" t="n">
-        <v>4.226</v>
+        <v>4.232</v>
       </c>
       <c r="E31" t="n">
-        <v>4.226</v>
+        <v>4.232</v>
       </c>
       <c r="F31" t="n">
-        <v>252507.5451</v>
+        <v>109464.371</v>
       </c>
       <c r="G31" t="n">
-        <v>-5887240.780000002</v>
+        <v>-6570441.764830817</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.299</v>
+        <v>4.298</v>
       </c>
       <c r="C32" t="n">
-        <v>4.299</v>
+        <v>4.298</v>
       </c>
       <c r="D32" t="n">
-        <v>4.299</v>
+        <v>4.298</v>
       </c>
       <c r="E32" t="n">
-        <v>4.299</v>
+        <v>4.298</v>
       </c>
       <c r="F32" t="n">
-        <v>119</v>
+        <v>158.7667</v>
       </c>
       <c r="G32" t="n">
-        <v>-5887121.780000002</v>
+        <v>-6570282.998130818</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.297</v>
+        <v>4.257</v>
       </c>
       <c r="C33" t="n">
-        <v>4.298</v>
+        <v>4.257</v>
       </c>
       <c r="D33" t="n">
-        <v>4.298</v>
+        <v>4.257</v>
       </c>
       <c r="E33" t="n">
-        <v>4.297</v>
+        <v>4.257</v>
       </c>
       <c r="F33" t="n">
-        <v>134292.8371</v>
+        <v>80909.538</v>
       </c>
       <c r="G33" t="n">
-        <v>-6021414.617100002</v>
+        <v>-6651192.536130818</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.228</v>
+        <v>4.265</v>
       </c>
       <c r="C34" t="n">
-        <v>4.228</v>
+        <v>4.265</v>
       </c>
       <c r="D34" t="n">
-        <v>4.228</v>
+        <v>4.265</v>
       </c>
       <c r="E34" t="n">
-        <v>4.228</v>
+        <v>4.265</v>
       </c>
       <c r="F34" t="n">
-        <v>115787.1171</v>
+        <v>136.8204</v>
       </c>
       <c r="G34" t="n">
-        <v>-6137201.734200003</v>
+        <v>-6651055.715730818</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="C35" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="D35" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="E35" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="F35" t="n">
-        <v>242027.8266</v>
+        <v>10543.9446</v>
       </c>
       <c r="G35" t="n">
-        <v>-6137201.734200003</v>
+        <v>-6661599.660330818</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.228</v>
+        <v>4.231</v>
       </c>
       <c r="C36" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="D36" t="n">
-        <v>4.228</v>
+        <v>4.232</v>
       </c>
       <c r="E36" t="n">
-        <v>4.228</v>
+        <v>4.231</v>
       </c>
       <c r="F36" t="n">
-        <v>322033.4493</v>
+        <v>437998.3923</v>
       </c>
       <c r="G36" t="n">
-        <v>-6137201.734200003</v>
+        <v>-6661599.660330818</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.23</v>
+        <v>4.265</v>
       </c>
       <c r="C37" t="n">
-        <v>4.23</v>
+        <v>4.265</v>
       </c>
       <c r="D37" t="n">
-        <v>4.23</v>
+        <v>4.265</v>
       </c>
       <c r="E37" t="n">
-        <v>4.23</v>
+        <v>4.265</v>
       </c>
       <c r="F37" t="n">
-        <v>264562.6209</v>
+        <v>235.4748</v>
       </c>
       <c r="G37" t="n">
-        <v>-5872639.113300003</v>
+        <v>-6661364.185530818</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="C38" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="D38" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="E38" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="F38" t="n">
-        <v>25267.4835</v>
+        <v>54510.4315</v>
       </c>
       <c r="G38" t="n">
-        <v>-5872639.113300003</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="C39" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="D39" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="E39" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="F39" t="n">
-        <v>244772.7866</v>
+        <v>90000</v>
       </c>
       <c r="G39" t="n">
-        <v>-5872639.113300003</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1809,19 @@
         <v>4.23</v>
       </c>
       <c r="C40" t="n">
-        <v>4.227</v>
+        <v>4.231</v>
       </c>
       <c r="D40" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="E40" t="n">
-        <v>4.227</v>
+        <v>4.226</v>
       </c>
       <c r="F40" t="n">
-        <v>121812.794</v>
+        <v>185802.8545</v>
       </c>
       <c r="G40" t="n">
-        <v>-5994451.907300003</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.227</v>
+        <v>4.231</v>
       </c>
       <c r="C41" t="n">
-        <v>4.227</v>
+        <v>4.231</v>
       </c>
       <c r="D41" t="n">
-        <v>4.227</v>
+        <v>4.231</v>
       </c>
       <c r="E41" t="n">
-        <v>4.227</v>
+        <v>4.231</v>
       </c>
       <c r="F41" t="n">
-        <v>110365.4113</v>
+        <v>746639.3672</v>
       </c>
       <c r="G41" t="n">
-        <v>-5994451.907300003</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.226</v>
+        <v>4.265</v>
       </c>
       <c r="C42" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="D42" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="E42" t="n">
-        <v>4.226</v>
+        <v>4.265</v>
       </c>
       <c r="F42" t="n">
-        <v>151600.2196</v>
+        <v>11369.8876</v>
       </c>
       <c r="G42" t="n">
-        <v>-6146052.126900003</v>
+        <v>-6704504.729430818</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="C43" t="n">
-        <v>4.225</v>
+        <v>4.272</v>
       </c>
       <c r="D43" t="n">
-        <v>4.226</v>
+        <v>4.272</v>
       </c>
       <c r="E43" t="n">
-        <v>4.225</v>
+        <v>4.272</v>
       </c>
       <c r="F43" t="n">
-        <v>430079.4298</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>-6576131.556700003</v>
+        <v>-6694504.729430818</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="C44" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="D44" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="E44" t="n">
-        <v>4.224</v>
+        <v>4.226</v>
       </c>
       <c r="F44" t="n">
-        <v>94460.8129</v>
+        <v>1369.8876</v>
       </c>
       <c r="G44" t="n">
-        <v>-6670592.369600004</v>
+        <v>-6695874.617030818</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="C45" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="D45" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="E45" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="F45" t="n">
-        <v>131.4232</v>
+        <v>72220.323</v>
       </c>
       <c r="G45" t="n">
-        <v>-6670723.792800004</v>
+        <v>-6695874.617030818</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.222</v>
+        <v>4.275</v>
       </c>
       <c r="C46" t="n">
-        <v>4.212</v>
+        <v>4.275</v>
       </c>
       <c r="D46" t="n">
-        <v>4.222</v>
+        <v>4.275</v>
       </c>
       <c r="E46" t="n">
-        <v>4.212</v>
+        <v>4.275</v>
       </c>
       <c r="F46" t="n">
-        <v>16700</v>
+        <v>190.2884</v>
       </c>
       <c r="G46" t="n">
-        <v>-6687423.792800004</v>
+        <v>-6695684.328630818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="C47" t="n">
-        <v>4.297</v>
+        <v>4.226</v>
       </c>
       <c r="D47" t="n">
-        <v>4.297</v>
+        <v>4.226</v>
       </c>
       <c r="E47" t="n">
-        <v>4.223</v>
+        <v>4.226</v>
       </c>
       <c r="F47" t="n">
-        <v>546743.047108353</v>
+        <v>53870.0426</v>
       </c>
       <c r="G47" t="n">
-        <v>-6140680.745691651</v>
+        <v>-6749554.371230818</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.293</v>
+        <v>4.27</v>
       </c>
       <c r="C48" t="n">
-        <v>4.293</v>
+        <v>4.27</v>
       </c>
       <c r="D48" t="n">
-        <v>4.293</v>
+        <v>4.27</v>
       </c>
       <c r="E48" t="n">
-        <v>4.293</v>
+        <v>4.27</v>
       </c>
       <c r="F48" t="n">
-        <v>57655.6884</v>
+        <v>171.4603</v>
       </c>
       <c r="G48" t="n">
-        <v>-6198336.434091651</v>
+        <v>-6749382.910930818</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.289</v>
+        <v>4.226</v>
       </c>
       <c r="C49" t="n">
-        <v>4.289</v>
+        <v>4.226</v>
       </c>
       <c r="D49" t="n">
-        <v>4.289</v>
+        <v>4.226</v>
       </c>
       <c r="E49" t="n">
-        <v>4.289</v>
+        <v>4.226</v>
       </c>
       <c r="F49" t="n">
-        <v>47000</v>
+        <v>38773.9616</v>
       </c>
       <c r="G49" t="n">
-        <v>-6245336.434091651</v>
+        <v>-6788156.872530818</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="C50" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="D50" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="E50" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="F50" t="n">
-        <v>116773.9925</v>
+        <v>7801.2072</v>
       </c>
       <c r="G50" t="n">
-        <v>-6362110.426591651</v>
+        <v>-6780355.665330818</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="C51" t="n">
-        <v>4.28</v>
+        <v>4.217</v>
       </c>
       <c r="D51" t="n">
-        <v>4.28</v>
+        <v>4.269</v>
       </c>
       <c r="E51" t="n">
-        <v>4.28</v>
+        <v>4.217</v>
       </c>
       <c r="F51" t="n">
-        <v>2680.199</v>
+        <v>53069.4156</v>
       </c>
       <c r="G51" t="n">
-        <v>-6362110.426591651</v>
+        <v>-6833425.080930818</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.241</v>
+        <v>4.269</v>
       </c>
       <c r="C52" t="n">
-        <v>4.24</v>
+        <v>4.283</v>
       </c>
       <c r="D52" t="n">
-        <v>4.241</v>
+        <v>4.283</v>
       </c>
       <c r="E52" t="n">
-        <v>4.24</v>
+        <v>4.269</v>
       </c>
       <c r="F52" t="n">
-        <v>235069.151</v>
+        <v>25117.732712607</v>
       </c>
       <c r="G52" t="n">
-        <v>-6597179.57759165</v>
+        <v>-6808307.348218211</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.239</v>
+        <v>4.22</v>
       </c>
       <c r="C53" t="n">
-        <v>4.285</v>
+        <v>4.282</v>
       </c>
       <c r="D53" t="n">
-        <v>4.285</v>
+        <v>4.282</v>
       </c>
       <c r="E53" t="n">
-        <v>4.239</v>
+        <v>4.22</v>
       </c>
       <c r="F53" t="n">
-        <v>161145.839996686</v>
+        <v>429342.7655</v>
       </c>
       <c r="G53" t="n">
-        <v>-6436033.737594964</v>
+        <v>-7237650.113718211</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.227</v>
+        <v>4.281</v>
       </c>
       <c r="C54" t="n">
-        <v>4.275</v>
+        <v>4.281</v>
       </c>
       <c r="D54" t="n">
-        <v>4.275</v>
+        <v>4.281</v>
       </c>
       <c r="E54" t="n">
-        <v>4.227</v>
+        <v>4.281</v>
       </c>
       <c r="F54" t="n">
-        <v>297121.544208514</v>
+        <v>41015.087</v>
       </c>
       <c r="G54" t="n">
-        <v>-6733155.281803478</v>
+        <v>-7278665.200718211</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.224</v>
+        <v>4.217</v>
       </c>
       <c r="C55" t="n">
-        <v>4.283</v>
+        <v>4.215</v>
       </c>
       <c r="D55" t="n">
-        <v>4.283</v>
+        <v>4.217</v>
       </c>
       <c r="E55" t="n">
-        <v>4.224</v>
+        <v>4.215</v>
       </c>
       <c r="F55" t="n">
-        <v>175286.943272659</v>
+        <v>513036.9949</v>
       </c>
       <c r="G55" t="n">
-        <v>-6557868.338530819</v>
+        <v>-7791702.195618211</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.285</v>
+        <v>4.282</v>
       </c>
       <c r="C56" t="n">
-        <v>4.29</v>
+        <v>4.282</v>
       </c>
       <c r="D56" t="n">
-        <v>4.29</v>
+        <v>4.282</v>
       </c>
       <c r="E56" t="n">
-        <v>4.285</v>
+        <v>4.282</v>
       </c>
       <c r="F56" t="n">
-        <v>163291.7165</v>
+        <v>124.6442</v>
       </c>
       <c r="G56" t="n">
-        <v>-6394576.622030819</v>
+        <v>-7791577.551418211</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="C57" t="n">
-        <v>4.301</v>
+        <v>4.28</v>
       </c>
       <c r="D57" t="n">
-        <v>4.301</v>
+        <v>4.28</v>
       </c>
       <c r="E57" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="F57" t="n">
-        <v>122184.8842</v>
+        <v>11964.5612</v>
       </c>
       <c r="G57" t="n">
-        <v>-6272391.737830819</v>
+        <v>-7803542.112618212</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="C58" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="D58" t="n">
-        <v>4.226</v>
+        <v>4.299</v>
       </c>
       <c r="E58" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="F58" t="n">
-        <v>17071.6961</v>
+        <v>23666.134</v>
       </c>
       <c r="G58" t="n">
-        <v>-6289463.433930819</v>
+        <v>-7779875.978618212</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.3</v>
+        <v>4.261</v>
       </c>
       <c r="C59" t="n">
-        <v>4.3</v>
+        <v>4.261</v>
       </c>
       <c r="D59" t="n">
-        <v>4.3</v>
+        <v>4.261</v>
       </c>
       <c r="E59" t="n">
-        <v>4.3</v>
+        <v>4.261</v>
       </c>
       <c r="F59" t="n">
-        <v>29669.4421</v>
+        <v>1538.5212</v>
       </c>
       <c r="G59" t="n">
-        <v>-6259793.991830819</v>
+        <v>-7781414.499818212</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.299</v>
+        <v>4.259</v>
       </c>
       <c r="C60" t="n">
-        <v>4.299</v>
+        <v>4.259</v>
       </c>
       <c r="D60" t="n">
-        <v>4.299</v>
+        <v>4.259</v>
       </c>
       <c r="E60" t="n">
-        <v>4.299</v>
+        <v>4.259</v>
       </c>
       <c r="F60" t="n">
-        <v>117</v>
+        <v>7313.1886</v>
       </c>
       <c r="G60" t="n">
-        <v>-6259910.991830819</v>
+        <v>-7788727.688418212</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="C61" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="D61" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="E61" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="F61" t="n">
-        <v>133844.1421</v>
+        <v>896.1783</v>
       </c>
       <c r="G61" t="n">
-        <v>-6393755.133930819</v>
+        <v>-7789623.866718212</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="C62" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="D62" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="E62" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="F62" t="n">
-        <v>742025.6029000001</v>
+        <v>125.0223</v>
       </c>
       <c r="G62" t="n">
-        <v>-6393755.133930819</v>
+        <v>-7789498.844418212</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.27</v>
+        <v>4.267</v>
       </c>
       <c r="C63" t="n">
-        <v>4.272</v>
+        <v>4.267</v>
       </c>
       <c r="D63" t="n">
-        <v>4.273</v>
+        <v>4.267</v>
       </c>
       <c r="E63" t="n">
-        <v>4.27</v>
+        <v>4.267</v>
       </c>
       <c r="F63" t="n">
-        <v>94688.3015</v>
+        <v>125.0223</v>
       </c>
       <c r="G63" t="n">
-        <v>-6299066.832430819</v>
+        <v>-7789623.866718212</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="C64" t="n">
-        <v>4.227</v>
+        <v>4.216</v>
       </c>
       <c r="D64" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="E64" t="n">
-        <v>4.227</v>
+        <v>4.216</v>
       </c>
       <c r="F64" t="n">
-        <v>16149.0501</v>
+        <v>1600</v>
       </c>
       <c r="G64" t="n">
-        <v>-6315215.882530819</v>
+        <v>-7791223.866718212</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="C65" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="D65" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="E65" t="n">
-        <v>4.227</v>
+        <v>4.268</v>
       </c>
       <c r="F65" t="n">
-        <v>244347.9393</v>
+        <v>2596.4185</v>
       </c>
       <c r="G65" t="n">
-        <v>-6315215.882530819</v>
+        <v>-7788627.448218212</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.227</v>
+        <v>4.259</v>
       </c>
       <c r="C66" t="n">
-        <v>4.227</v>
+        <v>4.259</v>
       </c>
       <c r="D66" t="n">
-        <v>4.227</v>
+        <v>4.259</v>
       </c>
       <c r="E66" t="n">
-        <v>4.227</v>
+        <v>4.259</v>
       </c>
       <c r="F66" t="n">
-        <v>156810.12</v>
+        <v>22978.925</v>
       </c>
       <c r="G66" t="n">
-        <v>-6315215.882530819</v>
+        <v>-7811606.373218212</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="C67" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="D67" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="E67" t="n">
-        <v>4.226</v>
+        <v>4.216</v>
       </c>
       <c r="F67" t="n">
-        <v>28130.8993</v>
+        <v>236.9545</v>
       </c>
       <c r="G67" t="n">
-        <v>-6343346.781830818</v>
+        <v>-7811843.327718212</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.3</v>
+        <v>4.216</v>
       </c>
       <c r="C68" t="n">
-        <v>4.3</v>
+        <v>4.216</v>
       </c>
       <c r="D68" t="n">
-        <v>4.3</v>
+        <v>4.216</v>
       </c>
       <c r="E68" t="n">
-        <v>4.3</v>
+        <v>4.216</v>
       </c>
       <c r="F68" t="n">
-        <v>4427.8902</v>
+        <v>2416.8803</v>
       </c>
       <c r="G68" t="n">
-        <v>-6338918.891630818</v>
+        <v>-7811843.327718212</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.299</v>
+        <v>4.277</v>
       </c>
       <c r="C69" t="n">
-        <v>4.299</v>
+        <v>4.277</v>
       </c>
       <c r="D69" t="n">
-        <v>4.299</v>
+        <v>4.277</v>
       </c>
       <c r="E69" t="n">
-        <v>4.299</v>
+        <v>4.277</v>
       </c>
       <c r="F69" t="n">
-        <v>35294.2001</v>
+        <v>120</v>
       </c>
       <c r="G69" t="n">
-        <v>-6374213.091730818</v>
+        <v>-7811723.327718212</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.231</v>
+        <v>4.219</v>
       </c>
       <c r="C70" t="n">
-        <v>4.231</v>
+        <v>4.215</v>
       </c>
       <c r="D70" t="n">
-        <v>4.231</v>
+        <v>4.219</v>
       </c>
       <c r="E70" t="n">
-        <v>4.231</v>
+        <v>4.215</v>
       </c>
       <c r="F70" t="n">
-        <v>305693.0441</v>
+        <v>212487.9824</v>
       </c>
       <c r="G70" t="n">
-        <v>-6679906.135830818</v>
+        <v>-8024211.310118212</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.231</v>
+        <v>4.214</v>
       </c>
       <c r="C71" t="n">
-        <v>4.231</v>
+        <v>4.213</v>
       </c>
       <c r="D71" t="n">
-        <v>4.231</v>
+        <v>4.214</v>
       </c>
       <c r="E71" t="n">
-        <v>4.231</v>
+        <v>4.213</v>
       </c>
       <c r="F71" t="n">
-        <v>317665.3108</v>
+        <v>141447.1751</v>
       </c>
       <c r="G71" t="n">
-        <v>-6679906.135830818</v>
+        <v>-8165658.485218212</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.231</v>
+        <v>4.212</v>
       </c>
       <c r="C72" t="n">
-        <v>4.231</v>
+        <v>4.21</v>
       </c>
       <c r="D72" t="n">
-        <v>4.231</v>
+        <v>4.212</v>
       </c>
       <c r="E72" t="n">
-        <v>4.231</v>
+        <v>4.21</v>
       </c>
       <c r="F72" t="n">
-        <v>151279.8164</v>
+        <v>23738.8269</v>
       </c>
       <c r="G72" t="n">
-        <v>-6679906.135830818</v>
+        <v>-8189397.312118212</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.232</v>
+        <v>4.269</v>
       </c>
       <c r="C73" t="n">
-        <v>4.232</v>
+        <v>4.269</v>
       </c>
       <c r="D73" t="n">
-        <v>4.232</v>
+        <v>4.269</v>
       </c>
       <c r="E73" t="n">
-        <v>4.232</v>
+        <v>4.269</v>
       </c>
       <c r="F73" t="n">
-        <v>109464.371</v>
+        <v>120</v>
       </c>
       <c r="G73" t="n">
-        <v>-6570441.764830817</v>
+        <v>-8189277.312118212</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.298</v>
+        <v>4.21</v>
       </c>
       <c r="C74" t="n">
-        <v>4.298</v>
+        <v>4.204</v>
       </c>
       <c r="D74" t="n">
-        <v>4.298</v>
+        <v>4.21</v>
       </c>
       <c r="E74" t="n">
-        <v>4.298</v>
+        <v>4.204</v>
       </c>
       <c r="F74" t="n">
-        <v>158.7667</v>
+        <v>107240.953</v>
       </c>
       <c r="G74" t="n">
-        <v>-6570282.998130818</v>
+        <v>-8296518.265118212</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.257</v>
+        <v>4.265</v>
       </c>
       <c r="C75" t="n">
-        <v>4.257</v>
+        <v>4.265</v>
       </c>
       <c r="D75" t="n">
-        <v>4.257</v>
+        <v>4.265</v>
       </c>
       <c r="E75" t="n">
-        <v>4.257</v>
+        <v>4.265</v>
       </c>
       <c r="F75" t="n">
-        <v>80909.538</v>
+        <v>118</v>
       </c>
       <c r="G75" t="n">
-        <v>-6651192.536130818</v>
+        <v>-8296400.265118212</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="C76" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="D76" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="E76" t="n">
-        <v>4.265</v>
+        <v>4.204</v>
       </c>
       <c r="F76" t="n">
-        <v>136.8204</v>
+        <v>38246.8885</v>
       </c>
       <c r="G76" t="n">
-        <v>-6651055.715730818</v>
+        <v>-8334647.153618212</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.232</v>
+        <v>4.205</v>
       </c>
       <c r="C77" t="n">
-        <v>4.232</v>
+        <v>4.205</v>
       </c>
       <c r="D77" t="n">
-        <v>4.232</v>
+        <v>4.205</v>
       </c>
       <c r="E77" t="n">
-        <v>4.232</v>
+        <v>4.205</v>
       </c>
       <c r="F77" t="n">
-        <v>10543.9446</v>
+        <v>374790.0731</v>
       </c>
       <c r="G77" t="n">
-        <v>-6661599.660330818</v>
+        <v>-7959857.080518212</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.231</v>
+        <v>4.204</v>
       </c>
       <c r="C78" t="n">
-        <v>4.232</v>
+        <v>4.201</v>
       </c>
       <c r="D78" t="n">
-        <v>4.232</v>
+        <v>4.204</v>
       </c>
       <c r="E78" t="n">
-        <v>4.231</v>
+        <v>4.201</v>
       </c>
       <c r="F78" t="n">
-        <v>437998.3923</v>
+        <v>268126.8546</v>
       </c>
       <c r="G78" t="n">
-        <v>-6661599.660330818</v>
+        <v>-8227983.935118212</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.265</v>
+        <v>4.2</v>
       </c>
       <c r="C79" t="n">
-        <v>4.265</v>
+        <v>4.2</v>
       </c>
       <c r="D79" t="n">
-        <v>4.265</v>
+        <v>4.2</v>
       </c>
       <c r="E79" t="n">
-        <v>4.265</v>
+        <v>4.2</v>
       </c>
       <c r="F79" t="n">
-        <v>235.4748</v>
+        <v>82173.25199999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-6661364.185530818</v>
+        <v>-8310157.187118213</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="C80" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="D80" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="E80" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="F80" t="n">
-        <v>54510.4315</v>
+        <v>1723.0301</v>
       </c>
       <c r="G80" t="n">
-        <v>-6715874.617030818</v>
+        <v>-8311880.217218213</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.231</v>
+        <v>4.18</v>
       </c>
       <c r="C81" t="n">
-        <v>4.231</v>
+        <v>4.171</v>
       </c>
       <c r="D81" t="n">
-        <v>4.231</v>
+        <v>4.18</v>
       </c>
       <c r="E81" t="n">
-        <v>4.231</v>
+        <v>4.171</v>
       </c>
       <c r="F81" t="n">
-        <v>90000</v>
+        <v>484389.2748</v>
       </c>
       <c r="G81" t="n">
-        <v>-6715874.617030818</v>
+        <v>-8796269.492018213</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="C82" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="D82" t="n">
-        <v>4.231</v>
+        <v>4.19</v>
       </c>
       <c r="E82" t="n">
-        <v>4.226</v>
+        <v>4.19</v>
       </c>
       <c r="F82" t="n">
-        <v>185802.8545</v>
+        <v>120</v>
       </c>
       <c r="G82" t="n">
-        <v>-6715874.617030818</v>
+        <v>-8796149.492018213</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.231</v>
+        <v>4.172</v>
       </c>
       <c r="C83" t="n">
-        <v>4.231</v>
+        <v>4.172</v>
       </c>
       <c r="D83" t="n">
-        <v>4.231</v>
+        <v>4.172</v>
       </c>
       <c r="E83" t="n">
-        <v>4.231</v>
+        <v>4.172</v>
       </c>
       <c r="F83" t="n">
-        <v>746639.3672</v>
+        <v>94693.12179999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-6715874.617030818</v>
+        <v>-8890842.613818213</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.265</v>
+        <v>4.172</v>
       </c>
       <c r="C84" t="n">
-        <v>4.27</v>
+        <v>4.172</v>
       </c>
       <c r="D84" t="n">
-        <v>4.27</v>
+        <v>4.172</v>
       </c>
       <c r="E84" t="n">
-        <v>4.265</v>
+        <v>4.172</v>
       </c>
       <c r="F84" t="n">
-        <v>11369.8876</v>
+        <v>120368.3156</v>
       </c>
       <c r="G84" t="n">
-        <v>-6704504.729430818</v>
+        <v>-8890842.613818213</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.272</v>
+        <v>4.19</v>
       </c>
       <c r="C85" t="n">
-        <v>4.272</v>
+        <v>4.19</v>
       </c>
       <c r="D85" t="n">
-        <v>4.272</v>
+        <v>4.19</v>
       </c>
       <c r="E85" t="n">
-        <v>4.272</v>
+        <v>4.19</v>
       </c>
       <c r="F85" t="n">
-        <v>10000</v>
+        <v>45129.818</v>
       </c>
       <c r="G85" t="n">
-        <v>-6694504.729430818</v>
+        <v>-8845712.795818213</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.226</v>
+        <v>4.2</v>
       </c>
       <c r="C86" t="n">
-        <v>4.226</v>
+        <v>4.19</v>
       </c>
       <c r="D86" t="n">
-        <v>4.226</v>
+        <v>4.2</v>
       </c>
       <c r="E86" t="n">
-        <v>4.226</v>
+        <v>4.19</v>
       </c>
       <c r="F86" t="n">
-        <v>1369.8876</v>
+        <v>325115.5775</v>
       </c>
       <c r="G86" t="n">
-        <v>-6695874.617030818</v>
+        <v>-8845712.795818213</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.226</v>
+        <v>4.197</v>
       </c>
       <c r="C87" t="n">
-        <v>4.226</v>
+        <v>4.197</v>
       </c>
       <c r="D87" t="n">
-        <v>4.226</v>
+        <v>4.197</v>
       </c>
       <c r="E87" t="n">
-        <v>4.226</v>
+        <v>4.197</v>
       </c>
       <c r="F87" t="n">
-        <v>72220.323</v>
+        <v>6898.3414</v>
       </c>
       <c r="G87" t="n">
-        <v>-6695874.617030818</v>
+        <v>-8838814.454418214</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.275</v>
+        <v>4.197</v>
       </c>
       <c r="C88" t="n">
-        <v>4.275</v>
+        <v>4.197</v>
       </c>
       <c r="D88" t="n">
-        <v>4.275</v>
+        <v>4.197</v>
       </c>
       <c r="E88" t="n">
-        <v>4.275</v>
+        <v>4.197</v>
       </c>
       <c r="F88" t="n">
-        <v>190.2884</v>
+        <v>1939.5709</v>
       </c>
       <c r="G88" t="n">
-        <v>-6695684.328630818</v>
+        <v>-8838814.454418214</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.226</v>
+        <v>4.175</v>
       </c>
       <c r="C89" t="n">
-        <v>4.226</v>
+        <v>4.175</v>
       </c>
       <c r="D89" t="n">
-        <v>4.226</v>
+        <v>4.175</v>
       </c>
       <c r="E89" t="n">
-        <v>4.226</v>
+        <v>4.175</v>
       </c>
       <c r="F89" t="n">
-        <v>53870.0426</v>
+        <v>211961.1178</v>
       </c>
       <c r="G89" t="n">
-        <v>-6749554.371230818</v>
+        <v>-9050775.572218213</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.27</v>
+        <v>4.173</v>
       </c>
       <c r="C90" t="n">
-        <v>4.27</v>
+        <v>4.171</v>
       </c>
       <c r="D90" t="n">
-        <v>4.27</v>
+        <v>4.173</v>
       </c>
       <c r="E90" t="n">
-        <v>4.27</v>
+        <v>4.171</v>
       </c>
       <c r="F90" t="n">
-        <v>171.4603</v>
+        <v>219713.1388</v>
       </c>
       <c r="G90" t="n">
-        <v>-6749382.910930818</v>
+        <v>-9270488.711018214</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.226</v>
+        <v>4.17</v>
       </c>
       <c r="C91" t="n">
-        <v>4.226</v>
+        <v>4.17</v>
       </c>
       <c r="D91" t="n">
-        <v>4.226</v>
+        <v>4.17</v>
       </c>
       <c r="E91" t="n">
-        <v>4.226</v>
+        <v>4.17</v>
       </c>
       <c r="F91" t="n">
-        <v>38773.9616</v>
+        <v>131601.2824</v>
       </c>
       <c r="G91" t="n">
-        <v>-6788156.872530818</v>
+        <v>-9402089.993418215</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.269</v>
+        <v>4.173</v>
       </c>
       <c r="C92" t="n">
-        <v>4.269</v>
+        <v>4.173</v>
       </c>
       <c r="D92" t="n">
-        <v>4.269</v>
+        <v>4.173</v>
       </c>
       <c r="E92" t="n">
-        <v>4.269</v>
+        <v>4.173</v>
       </c>
       <c r="F92" t="n">
-        <v>7801.2072</v>
+        <v>217237.0061</v>
       </c>
       <c r="G92" t="n">
-        <v>-6780355.665330818</v>
+        <v>-9184852.987318214</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.269</v>
+        <v>4.176</v>
       </c>
       <c r="C93" t="n">
-        <v>4.217</v>
+        <v>4.176</v>
       </c>
       <c r="D93" t="n">
-        <v>4.269</v>
+        <v>4.176</v>
       </c>
       <c r="E93" t="n">
-        <v>4.217</v>
+        <v>4.176</v>
       </c>
       <c r="F93" t="n">
-        <v>53069.4156</v>
+        <v>351129.4749</v>
       </c>
       <c r="G93" t="n">
-        <v>-6833425.080930818</v>
+        <v>-8833723.512418214</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.269</v>
+        <v>4.176</v>
       </c>
       <c r="C94" t="n">
-        <v>4.283</v>
+        <v>4.173</v>
       </c>
       <c r="D94" t="n">
-        <v>4.283</v>
+        <v>4.176</v>
       </c>
       <c r="E94" t="n">
-        <v>4.269</v>
+        <v>4.173</v>
       </c>
       <c r="F94" t="n">
-        <v>25117.732712607</v>
+        <v>333573.0011</v>
       </c>
       <c r="G94" t="n">
-        <v>-6808307.348218211</v>
+        <v>-9167296.513518214</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.22</v>
+        <v>4.179</v>
       </c>
       <c r="C95" t="n">
-        <v>4.282</v>
+        <v>4.173</v>
       </c>
       <c r="D95" t="n">
-        <v>4.282</v>
+        <v>4.179</v>
       </c>
       <c r="E95" t="n">
-        <v>4.22</v>
+        <v>4.173</v>
       </c>
       <c r="F95" t="n">
-        <v>429342.7655</v>
+        <v>191405.3805</v>
       </c>
       <c r="G95" t="n">
-        <v>-7237650.113718211</v>
+        <v>-9167296.513518214</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.281</v>
+        <v>4.18</v>
       </c>
       <c r="C96" t="n">
-        <v>4.281</v>
+        <v>4.18</v>
       </c>
       <c r="D96" t="n">
-        <v>4.281</v>
+        <v>4.18</v>
       </c>
       <c r="E96" t="n">
-        <v>4.281</v>
+        <v>4.18</v>
       </c>
       <c r="F96" t="n">
-        <v>41015.087</v>
+        <v>406.608</v>
       </c>
       <c r="G96" t="n">
-        <v>-7278665.200718211</v>
+        <v>-9166889.905518215</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.217</v>
+        <v>4.199</v>
       </c>
       <c r="C97" t="n">
-        <v>4.215</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="n">
-        <v>4.217</v>
+        <v>4.2</v>
       </c>
       <c r="E97" t="n">
-        <v>4.215</v>
+        <v>4.199</v>
       </c>
       <c r="F97" t="n">
-        <v>513036.9949</v>
+        <v>108968.8873</v>
       </c>
       <c r="G97" t="n">
-        <v>-7791702.195618211</v>
+        <v>-9057921.018218216</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.282</v>
+        <v>4.175</v>
       </c>
       <c r="C98" t="n">
-        <v>4.282</v>
+        <v>4.175</v>
       </c>
       <c r="D98" t="n">
-        <v>4.282</v>
+        <v>4.175</v>
       </c>
       <c r="E98" t="n">
-        <v>4.282</v>
+        <v>4.175</v>
       </c>
       <c r="F98" t="n">
-        <v>124.6442</v>
+        <v>700813.4941</v>
       </c>
       <c r="G98" t="n">
-        <v>-7791577.551418211</v>
+        <v>-9758734.512318216</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.28</v>
+        <v>4.175</v>
       </c>
       <c r="C99" t="n">
-        <v>4.28</v>
+        <v>4.173</v>
       </c>
       <c r="D99" t="n">
-        <v>4.28</v>
+        <v>4.175</v>
       </c>
       <c r="E99" t="n">
-        <v>4.28</v>
+        <v>4.173</v>
       </c>
       <c r="F99" t="n">
-        <v>11964.5612</v>
+        <v>160732.3343</v>
       </c>
       <c r="G99" t="n">
-        <v>-7803542.112618212</v>
+        <v>-9919466.846618216</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.216</v>
+        <v>4.196</v>
       </c>
       <c r="C100" t="n">
-        <v>4.299</v>
+        <v>4.197</v>
       </c>
       <c r="D100" t="n">
-        <v>4.299</v>
+        <v>4.197</v>
       </c>
       <c r="E100" t="n">
-        <v>4.216</v>
+        <v>4.196</v>
       </c>
       <c r="F100" t="n">
-        <v>23666.134</v>
+        <v>448063.5823</v>
       </c>
       <c r="G100" t="n">
-        <v>-7779875.978618212</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.261</v>
+        <v>4.197</v>
       </c>
       <c r="C101" t="n">
-        <v>4.261</v>
+        <v>4.197</v>
       </c>
       <c r="D101" t="n">
-        <v>4.261</v>
+        <v>4.197</v>
       </c>
       <c r="E101" t="n">
-        <v>4.261</v>
+        <v>4.197</v>
       </c>
       <c r="F101" t="n">
-        <v>1538.5212</v>
+        <v>665772.8194</v>
       </c>
       <c r="G101" t="n">
-        <v>-7781414.499818212</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.259</v>
+        <v>4.197</v>
       </c>
       <c r="C102" t="n">
-        <v>4.259</v>
+        <v>4.197</v>
       </c>
       <c r="D102" t="n">
-        <v>4.259</v>
+        <v>4.197</v>
       </c>
       <c r="E102" t="n">
-        <v>4.259</v>
+        <v>4.197</v>
       </c>
       <c r="F102" t="n">
-        <v>7313.1886</v>
+        <v>1096358.6298</v>
       </c>
       <c r="G102" t="n">
-        <v>-7788727.688418212</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.216</v>
+        <v>4.197</v>
       </c>
       <c r="C103" t="n">
-        <v>4.216</v>
+        <v>4.197</v>
       </c>
       <c r="D103" t="n">
-        <v>4.216</v>
+        <v>4.197</v>
       </c>
       <c r="E103" t="n">
-        <v>4.216</v>
+        <v>4.197</v>
       </c>
       <c r="F103" t="n">
-        <v>896.1783</v>
+        <v>453000</v>
       </c>
       <c r="G103" t="n">
-        <v>-7789623.866718212</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.269</v>
+        <v>4.197</v>
       </c>
       <c r="C104" t="n">
-        <v>4.269</v>
+        <v>4.197</v>
       </c>
       <c r="D104" t="n">
-        <v>4.269</v>
+        <v>4.197</v>
       </c>
       <c r="E104" t="n">
-        <v>4.269</v>
+        <v>4.197</v>
       </c>
       <c r="F104" t="n">
-        <v>125.0223</v>
+        <v>502.4847</v>
       </c>
       <c r="G104" t="n">
-        <v>-7789498.844418212</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.267</v>
+        <v>4.198</v>
       </c>
       <c r="C105" t="n">
-        <v>4.267</v>
+        <v>4.198</v>
       </c>
       <c r="D105" t="n">
-        <v>4.267</v>
+        <v>4.198</v>
       </c>
       <c r="E105" t="n">
-        <v>4.267</v>
+        <v>4.198</v>
       </c>
       <c r="F105" t="n">
-        <v>125.0223</v>
+        <v>119441.2527</v>
       </c>
       <c r="G105" t="n">
-        <v>-7789623.866718212</v>
+        <v>-9351962.011618217</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.268</v>
+        <v>4.198</v>
       </c>
       <c r="C106" t="n">
-        <v>4.216</v>
+        <v>4.198</v>
       </c>
       <c r="D106" t="n">
-        <v>4.268</v>
+        <v>4.198</v>
       </c>
       <c r="E106" t="n">
-        <v>4.216</v>
+        <v>4.198</v>
       </c>
       <c r="F106" t="n">
-        <v>1600</v>
+        <v>106651.9688</v>
       </c>
       <c r="G106" t="n">
-        <v>-7791223.866718212</v>
+        <v>-9351962.011618217</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.268</v>
+        <v>4.198</v>
       </c>
       <c r="C107" t="n">
-        <v>4.268</v>
+        <v>4.2</v>
       </c>
       <c r="D107" t="n">
-        <v>4.268</v>
+        <v>4.2</v>
       </c>
       <c r="E107" t="n">
-        <v>4.268</v>
+        <v>4.198</v>
       </c>
       <c r="F107" t="n">
-        <v>2596.4185</v>
+        <v>666722.3108</v>
       </c>
       <c r="G107" t="n">
-        <v>-7788627.448218212</v>
+        <v>-8685239.700818218</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.259</v>
+        <v>4.18</v>
       </c>
       <c r="C108" t="n">
-        <v>4.259</v>
+        <v>4.18</v>
       </c>
       <c r="D108" t="n">
-        <v>4.259</v>
+        <v>4.18</v>
       </c>
       <c r="E108" t="n">
-        <v>4.259</v>
+        <v>4.18</v>
       </c>
       <c r="F108" t="n">
-        <v>22978.925</v>
+        <v>132489.2824</v>
       </c>
       <c r="G108" t="n">
-        <v>-7811606.373218212</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="C109" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="D109" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="E109" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="F109" t="n">
-        <v>236.9545</v>
+        <v>444</v>
       </c>
       <c r="G109" t="n">
-        <v>-7811843.327718212</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="C110" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="D110" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="E110" t="n">
-        <v>4.216</v>
+        <v>4.18</v>
       </c>
       <c r="F110" t="n">
-        <v>2416.8803</v>
+        <v>663632.3367</v>
       </c>
       <c r="G110" t="n">
-        <v>-7811843.327718212</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.277</v>
+        <v>4.18</v>
       </c>
       <c r="C111" t="n">
-        <v>4.277</v>
+        <v>4.18</v>
       </c>
       <c r="D111" t="n">
-        <v>4.277</v>
+        <v>4.18</v>
       </c>
       <c r="E111" t="n">
-        <v>4.277</v>
+        <v>4.18</v>
       </c>
       <c r="F111" t="n">
-        <v>120</v>
+        <v>12266.2112</v>
       </c>
       <c r="G111" t="n">
-        <v>-7811723.327718212</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.219</v>
+        <v>4.2</v>
       </c>
       <c r="C112" t="n">
-        <v>4.215</v>
+        <v>4.2</v>
       </c>
       <c r="D112" t="n">
-        <v>4.219</v>
+        <v>4.2</v>
       </c>
       <c r="E112" t="n">
-        <v>4.215</v>
+        <v>4.2</v>
       </c>
       <c r="F112" t="n">
-        <v>212487.9824</v>
+        <v>252001.4083</v>
       </c>
       <c r="G112" t="n">
-        <v>-8024211.310118212</v>
+        <v>-8565727.57491822</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.214</v>
+        <v>4.2</v>
       </c>
       <c r="C113" t="n">
-        <v>4.213</v>
+        <v>4.2</v>
       </c>
       <c r="D113" t="n">
-        <v>4.214</v>
+        <v>4.2</v>
       </c>
       <c r="E113" t="n">
-        <v>4.213</v>
+        <v>4.2</v>
       </c>
       <c r="F113" t="n">
-        <v>141447.1751</v>
+        <v>116714.9338</v>
       </c>
       <c r="G113" t="n">
-        <v>-8165658.485218212</v>
+        <v>-8565727.57491822</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.212</v>
+        <v>4.18</v>
       </c>
       <c r="C114" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="D114" t="n">
-        <v>4.212</v>
+        <v>4.18</v>
       </c>
       <c r="E114" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="F114" t="n">
-        <v>23738.8269</v>
+        <v>7388.8888</v>
       </c>
       <c r="G114" t="n">
-        <v>-8189397.312118212</v>
+        <v>-8573116.463718221</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.269</v>
+        <v>4.18</v>
       </c>
       <c r="C115" t="n">
-        <v>4.269</v>
+        <v>4.172</v>
       </c>
       <c r="D115" t="n">
-        <v>4.269</v>
+        <v>4.18</v>
       </c>
       <c r="E115" t="n">
-        <v>4.269</v>
+        <v>4.172</v>
       </c>
       <c r="F115" t="n">
-        <v>120</v>
+        <v>271748.6562</v>
       </c>
       <c r="G115" t="n">
-        <v>-8189277.312118212</v>
+        <v>-8844865.11991822</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.21</v>
+        <v>4.172</v>
       </c>
       <c r="C116" t="n">
-        <v>4.204</v>
+        <v>4.172</v>
       </c>
       <c r="D116" t="n">
-        <v>4.21</v>
+        <v>4.172</v>
       </c>
       <c r="E116" t="n">
-        <v>4.204</v>
+        <v>4.172</v>
       </c>
       <c r="F116" t="n">
-        <v>107240.953</v>
+        <v>25000</v>
       </c>
       <c r="G116" t="n">
-        <v>-8296518.265118212</v>
+        <v>-8844865.11991822</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.265</v>
+        <v>4.173</v>
       </c>
       <c r="C117" t="n">
-        <v>4.265</v>
+        <v>4.172</v>
       </c>
       <c r="D117" t="n">
-        <v>4.265</v>
+        <v>4.173</v>
       </c>
       <c r="E117" t="n">
-        <v>4.265</v>
+        <v>4.172</v>
       </c>
       <c r="F117" t="n">
-        <v>118</v>
+        <v>280363.7299</v>
       </c>
       <c r="G117" t="n">
-        <v>-8296400.265118212</v>
+        <v>-8844865.11991822</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.204</v>
+        <v>4.2</v>
       </c>
       <c r="C118" t="n">
-        <v>4.204</v>
+        <v>4.2</v>
       </c>
       <c r="D118" t="n">
-        <v>4.204</v>
+        <v>4.2</v>
       </c>
       <c r="E118" t="n">
-        <v>4.204</v>
+        <v>4.2</v>
       </c>
       <c r="F118" t="n">
-        <v>38246.8885</v>
+        <v>276030.8015</v>
       </c>
       <c r="G118" t="n">
-        <v>-8334647.153618212</v>
+        <v>-8568834.31841822</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.205</v>
+        <v>4.2</v>
       </c>
       <c r="C119" t="n">
-        <v>4.205</v>
+        <v>4.2</v>
       </c>
       <c r="D119" t="n">
-        <v>4.205</v>
+        <v>4.2</v>
       </c>
       <c r="E119" t="n">
-        <v>4.205</v>
+        <v>4.2</v>
       </c>
       <c r="F119" t="n">
-        <v>374790.0731</v>
+        <v>11267.9634</v>
       </c>
       <c r="G119" t="n">
-        <v>-7959857.080518212</v>
+        <v>-8568834.31841822</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.204</v>
+        <v>4.175</v>
       </c>
       <c r="C120" t="n">
-        <v>4.201</v>
+        <v>4.174</v>
       </c>
       <c r="D120" t="n">
-        <v>4.204</v>
+        <v>4.175</v>
       </c>
       <c r="E120" t="n">
-        <v>4.201</v>
+        <v>4.174</v>
       </c>
       <c r="F120" t="n">
-        <v>268126.8546</v>
+        <v>486707.6676</v>
       </c>
       <c r="G120" t="n">
-        <v>-8227983.935118212</v>
+        <v>-9055541.98601822</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.2</v>
+        <v>4.174</v>
       </c>
       <c r="C121" t="n">
-        <v>4.2</v>
+        <v>4.174</v>
       </c>
       <c r="D121" t="n">
-        <v>4.2</v>
+        <v>4.174</v>
       </c>
       <c r="E121" t="n">
-        <v>4.2</v>
+        <v>4.174</v>
       </c>
       <c r="F121" t="n">
-        <v>82173.25199999999</v>
+        <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-8310157.187118213</v>
+        <v>-9055541.98601822</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.19</v>
+        <v>4.174</v>
       </c>
       <c r="C122" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="D122" t="n">
-        <v>4.19</v>
+        <v>4.174</v>
       </c>
       <c r="E122" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="F122" t="n">
-        <v>1723.0301</v>
+        <v>581100</v>
       </c>
       <c r="G122" t="n">
-        <v>-8311880.217218213</v>
+        <v>-9636641.98601822</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="C123" t="n">
-        <v>4.171</v>
+        <v>4.173</v>
       </c>
       <c r="D123" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="E123" t="n">
-        <v>4.171</v>
+        <v>4.173</v>
       </c>
       <c r="F123" t="n">
-        <v>484389.2748</v>
+        <v>152007.3938</v>
       </c>
       <c r="G123" t="n">
-        <v>-8796269.492018213</v>
+        <v>-9484634.59221822</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.19</v>
+        <v>4.173</v>
       </c>
       <c r="C124" t="n">
-        <v>4.19</v>
+        <v>4.173</v>
       </c>
       <c r="D124" t="n">
-        <v>4.19</v>
+        <v>4.173</v>
       </c>
       <c r="E124" t="n">
-        <v>4.19</v>
+        <v>4.173</v>
       </c>
       <c r="F124" t="n">
-        <v>120</v>
+        <v>208273.2273</v>
       </c>
       <c r="G124" t="n">
-        <v>-8796149.492018213</v>
+        <v>-9484634.59221822</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,6 +4859,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4750,10 +4878,10 @@
         <v>4.172</v>
       </c>
       <c r="F125" t="n">
-        <v>94693.12179999999</v>
+        <v>89459.37940000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-8890842.613818213</v>
+        <v>-9574093.97161822</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="C126" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="D126" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="E126" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="F126" t="n">
-        <v>120368.3156</v>
+        <v>350000</v>
       </c>
       <c r="G126" t="n">
-        <v>-8890842.613818213</v>
+        <v>-9924093.97161822</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="C127" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="D127" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="E127" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="F127" t="n">
-        <v>45129.818</v>
+        <v>71728.63619999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-8845712.795818213</v>
+        <v>-9852365.335418221</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.2</v>
+        <v>4.172</v>
       </c>
       <c r="C128" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2</v>
+        <v>4.172</v>
       </c>
       <c r="E128" t="n">
-        <v>4.19</v>
+        <v>4.172</v>
       </c>
       <c r="F128" t="n">
-        <v>325115.5775</v>
+        <v>31860.0619</v>
       </c>
       <c r="G128" t="n">
-        <v>-8845712.795818213</v>
+        <v>-9852365.335418221</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="C129" t="n">
-        <v>4.197</v>
+        <v>4.168</v>
       </c>
       <c r="D129" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="E129" t="n">
-        <v>4.197</v>
+        <v>4.168</v>
       </c>
       <c r="F129" t="n">
-        <v>6898.3414</v>
+        <v>536232.0639</v>
       </c>
       <c r="G129" t="n">
-        <v>-8838814.454418214</v>
+        <v>-10388597.39931822</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.197</v>
+        <v>4.168</v>
       </c>
       <c r="C130" t="n">
-        <v>4.197</v>
+        <v>4.166</v>
       </c>
       <c r="D130" t="n">
-        <v>4.197</v>
+        <v>4.168</v>
       </c>
       <c r="E130" t="n">
-        <v>4.197</v>
+        <v>4.166</v>
       </c>
       <c r="F130" t="n">
-        <v>1939.5709</v>
+        <v>275966.7817</v>
       </c>
       <c r="G130" t="n">
-        <v>-8838814.454418214</v>
+        <v>-10664564.18101822</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.175</v>
+        <v>4.166</v>
       </c>
       <c r="C131" t="n">
-        <v>4.175</v>
+        <v>4.166</v>
       </c>
       <c r="D131" t="n">
-        <v>4.175</v>
+        <v>4.166</v>
       </c>
       <c r="E131" t="n">
-        <v>4.175</v>
+        <v>4.166</v>
       </c>
       <c r="F131" t="n">
-        <v>211961.1178</v>
+        <v>22253.3054</v>
       </c>
       <c r="G131" t="n">
-        <v>-9050775.572218213</v>
+        <v>-10664564.18101822</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.173</v>
+        <v>4.165</v>
       </c>
       <c r="C132" t="n">
-        <v>4.171</v>
+        <v>4.16</v>
       </c>
       <c r="D132" t="n">
-        <v>4.173</v>
+        <v>4.165</v>
       </c>
       <c r="E132" t="n">
-        <v>4.171</v>
+        <v>4.16</v>
       </c>
       <c r="F132" t="n">
-        <v>219713.1388</v>
+        <v>2870.9248</v>
       </c>
       <c r="G132" t="n">
-        <v>-9270488.711018214</v>
+        <v>-10667435.10581822</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.17</v>
+        <v>4.158</v>
       </c>
       <c r="C133" t="n">
-        <v>4.17</v>
+        <v>4.145</v>
       </c>
       <c r="D133" t="n">
-        <v>4.17</v>
+        <v>4.158</v>
       </c>
       <c r="E133" t="n">
-        <v>4.17</v>
+        <v>4.145</v>
       </c>
       <c r="F133" t="n">
-        <v>131601.2824</v>
+        <v>866448.0441000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-9402089.993418215</v>
+        <v>-11533883.14991822</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.173</v>
+        <v>4.145</v>
       </c>
       <c r="C134" t="n">
-        <v>4.173</v>
+        <v>4.12</v>
       </c>
       <c r="D134" t="n">
-        <v>4.173</v>
+        <v>4.145</v>
       </c>
       <c r="E134" t="n">
-        <v>4.173</v>
+        <v>4.12</v>
       </c>
       <c r="F134" t="n">
-        <v>217237.0061</v>
+        <v>186591.2302</v>
       </c>
       <c r="G134" t="n">
-        <v>-9184852.987318214</v>
+        <v>-11720474.38011822</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.176</v>
+        <v>4.166</v>
       </c>
       <c r="C135" t="n">
-        <v>4.176</v>
+        <v>4.166</v>
       </c>
       <c r="D135" t="n">
-        <v>4.176</v>
+        <v>4.166</v>
       </c>
       <c r="E135" t="n">
-        <v>4.176</v>
+        <v>4.166</v>
       </c>
       <c r="F135" t="n">
-        <v>351129.4749</v>
+        <v>161142.3682</v>
       </c>
       <c r="G135" t="n">
-        <v>-8833723.512418214</v>
+        <v>-11559332.01191822</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.176</v>
+        <v>4.13</v>
       </c>
       <c r="C136" t="n">
-        <v>4.173</v>
+        <v>4.12</v>
       </c>
       <c r="D136" t="n">
-        <v>4.176</v>
+        <v>4.13</v>
       </c>
       <c r="E136" t="n">
-        <v>4.173</v>
+        <v>4.12</v>
       </c>
       <c r="F136" t="n">
-        <v>333573.0011</v>
+        <v>161129.9317</v>
       </c>
       <c r="G136" t="n">
-        <v>-9167296.513518214</v>
+        <v>-11720461.94361822</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.179</v>
+        <v>4.12</v>
       </c>
       <c r="C137" t="n">
         <v>4.173</v>
       </c>
       <c r="D137" t="n">
-        <v>4.179</v>
+        <v>4.173</v>
       </c>
       <c r="E137" t="n">
-        <v>4.173</v>
+        <v>4.12</v>
       </c>
       <c r="F137" t="n">
-        <v>191405.3805</v>
+        <v>88871.103191924</v>
       </c>
       <c r="G137" t="n">
-        <v>-9167296.513518214</v>
+        <v>-11631590.8404263</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,67 +5327,65 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="C138" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="D138" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="E138" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="F138" t="n">
-        <v>406.608</v>
+        <v>23432.4234</v>
       </c>
       <c r="G138" t="n">
-        <v>-9166889.905518215</v>
+        <v>-11655023.2638263</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>4.173</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4.173</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.199</v>
+        <v>4.163</v>
       </c>
       <c r="C139" t="n">
-        <v>4.2</v>
+        <v>4.163</v>
       </c>
       <c r="D139" t="n">
-        <v>4.2</v>
+        <v>4.163</v>
       </c>
       <c r="E139" t="n">
-        <v>4.199</v>
+        <v>4.163</v>
       </c>
       <c r="F139" t="n">
-        <v>108968.8873</v>
+        <v>11710</v>
       </c>
       <c r="G139" t="n">
-        <v>-9057921.018218216</v>
+        <v>-11643313.2638263</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5256,39 +5394,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>4.173</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.175</v>
+        <v>4.163</v>
       </c>
       <c r="C140" t="n">
-        <v>4.175</v>
+        <v>4.163</v>
       </c>
       <c r="D140" t="n">
-        <v>4.175</v>
+        <v>4.163</v>
       </c>
       <c r="E140" t="n">
-        <v>4.175</v>
+        <v>4.163</v>
       </c>
       <c r="F140" t="n">
-        <v>700813.4941</v>
+        <v>11710</v>
       </c>
       <c r="G140" t="n">
-        <v>-9758734.512318216</v>
+        <v>-11643313.2638263</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5297,39 +5430,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>4.173</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.175</v>
+        <v>4.172</v>
       </c>
       <c r="C141" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="D141" t="n">
-        <v>4.175</v>
+        <v>4.172</v>
       </c>
       <c r="E141" t="n">
-        <v>4.173</v>
+        <v>4.172</v>
       </c>
       <c r="F141" t="n">
-        <v>160732.3343</v>
+        <v>120</v>
       </c>
       <c r="G141" t="n">
-        <v>-9919466.846618216</v>
+        <v>-11643193.2638263</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5343,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.196</v>
+        <v>4.172</v>
       </c>
       <c r="C142" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="D142" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="E142" t="n">
-        <v>4.196</v>
+        <v>4.172</v>
       </c>
       <c r="F142" t="n">
-        <v>448063.5823</v>
+        <v>43144.774688398</v>
       </c>
       <c r="G142" t="n">
-        <v>-9471403.264318217</v>
+        <v>-11643193.2638263</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5378,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="C143" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="D143" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="E143" t="n">
-        <v>4.197</v>
+        <v>4.172</v>
       </c>
       <c r="F143" t="n">
-        <v>665772.8194</v>
+        <v>525.1325000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-9471403.264318217</v>
+        <v>-11643193.2638263</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5413,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.197</v>
+        <v>4.155</v>
       </c>
       <c r="C144" t="n">
-        <v>4.197</v>
+        <v>4.155</v>
       </c>
       <c r="D144" t="n">
-        <v>4.197</v>
+        <v>4.155</v>
       </c>
       <c r="E144" t="n">
-        <v>4.197</v>
+        <v>4.155</v>
       </c>
       <c r="F144" t="n">
-        <v>1096358.6298</v>
+        <v>180000</v>
       </c>
       <c r="G144" t="n">
-        <v>-9471403.264318217</v>
+        <v>-11823193.2638263</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5448,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.197</v>
+        <v>4.15</v>
       </c>
       <c r="C145" t="n">
-        <v>4.197</v>
+        <v>4.15</v>
       </c>
       <c r="D145" t="n">
-        <v>4.197</v>
+        <v>4.15</v>
       </c>
       <c r="E145" t="n">
-        <v>4.197</v>
+        <v>4.15</v>
       </c>
       <c r="F145" t="n">
-        <v>453000</v>
+        <v>6219.3167</v>
       </c>
       <c r="G145" t="n">
-        <v>-9471403.264318217</v>
+        <v>-11829412.5805263</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5483,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.197</v>
+        <v>4.161</v>
       </c>
       <c r="C146" t="n">
-        <v>4.197</v>
+        <v>4.171</v>
       </c>
       <c r="D146" t="n">
-        <v>4.197</v>
+        <v>4.171</v>
       </c>
       <c r="E146" t="n">
-        <v>4.197</v>
+        <v>4.161</v>
       </c>
       <c r="F146" t="n">
-        <v>502.4847</v>
+        <v>83066.12940000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-9471403.264318217</v>
+        <v>-11746346.4511263</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5518,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.198</v>
+        <v>4.163</v>
       </c>
       <c r="C147" t="n">
-        <v>4.198</v>
+        <v>4.163</v>
       </c>
       <c r="D147" t="n">
-        <v>4.198</v>
+        <v>4.163</v>
       </c>
       <c r="E147" t="n">
-        <v>4.198</v>
+        <v>4.163</v>
       </c>
       <c r="F147" t="n">
-        <v>119441.2527</v>
+        <v>10530</v>
       </c>
       <c r="G147" t="n">
-        <v>-9351962.011618217</v>
+        <v>-11756876.4511263</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5553,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="C148" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="D148" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="E148" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="F148" t="n">
-        <v>106651.9688</v>
+        <v>120</v>
       </c>
       <c r="G148" t="n">
-        <v>-9351962.011618217</v>
+        <v>-11756756.4511263</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5588,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="C149" t="n">
-        <v>4.2</v>
+        <v>4.173</v>
       </c>
       <c r="D149" t="n">
-        <v>4.2</v>
+        <v>4.173</v>
       </c>
       <c r="E149" t="n">
-        <v>4.198</v>
+        <v>4.173</v>
       </c>
       <c r="F149" t="n">
-        <v>666722.3108</v>
+        <v>750</v>
       </c>
       <c r="G149" t="n">
-        <v>-8685239.700818218</v>
+        <v>-11756756.4511263</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5623,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="C150" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="D150" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="E150" t="n">
-        <v>4.18</v>
+        <v>4.173</v>
       </c>
       <c r="F150" t="n">
-        <v>132489.2824</v>
+        <v>64584.606</v>
       </c>
       <c r="G150" t="n">
-        <v>-8817728.983218219</v>
+        <v>-11756756.4511263</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5658,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.18</v>
+        <v>4.163</v>
       </c>
       <c r="C151" t="n">
-        <v>4.18</v>
+        <v>4.163</v>
       </c>
       <c r="D151" t="n">
-        <v>4.18</v>
+        <v>4.163</v>
       </c>
       <c r="E151" t="n">
-        <v>4.18</v>
+        <v>4.163</v>
       </c>
       <c r="F151" t="n">
-        <v>444</v>
+        <v>70090.3836</v>
       </c>
       <c r="G151" t="n">
-        <v>-8817728.983218219</v>
+        <v>-11826846.8347263</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5693,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="C152" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="D152" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="E152" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="F152" t="n">
-        <v>663632.3367</v>
+        <v>50000</v>
       </c>
       <c r="G152" t="n">
-        <v>-8817728.983218219</v>
+        <v>-11876846.8347263</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5728,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="C153" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="D153" t="n">
-        <v>4.18</v>
+        <v>4.125</v>
       </c>
       <c r="E153" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="F153" t="n">
-        <v>12266.2112</v>
+        <v>615587.3035</v>
       </c>
       <c r="G153" t="n">
-        <v>-8817728.983218219</v>
+        <v>-12492434.1382263</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5763,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.2</v>
+        <v>4.125</v>
       </c>
       <c r="C154" t="n">
-        <v>4.2</v>
+        <v>4.115</v>
       </c>
       <c r="D154" t="n">
-        <v>4.2</v>
+        <v>4.125</v>
       </c>
       <c r="E154" t="n">
-        <v>4.2</v>
+        <v>4.115</v>
       </c>
       <c r="F154" t="n">
-        <v>252001.4083</v>
+        <v>16021</v>
       </c>
       <c r="G154" t="n">
-        <v>-8565727.57491822</v>
+        <v>-12476413.1382263</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5798,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.2</v>
+        <v>4.045</v>
       </c>
       <c r="C155" t="n">
-        <v>4.2</v>
+        <v>4.045</v>
       </c>
       <c r="D155" t="n">
-        <v>4.2</v>
+        <v>4.045</v>
       </c>
       <c r="E155" t="n">
-        <v>4.2</v>
+        <v>4.045</v>
       </c>
       <c r="F155" t="n">
-        <v>116714.9338</v>
+        <v>173532.0607</v>
       </c>
       <c r="G155" t="n">
-        <v>-8565727.57491822</v>
+        <v>-12649945.1989263</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5833,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.18</v>
+        <v>4.105</v>
       </c>
       <c r="C156" t="n">
-        <v>4.18</v>
+        <v>4.105</v>
       </c>
       <c r="D156" t="n">
-        <v>4.18</v>
+        <v>4.105</v>
       </c>
       <c r="E156" t="n">
-        <v>4.18</v>
+        <v>4.105</v>
       </c>
       <c r="F156" t="n">
-        <v>7388.8888</v>
+        <v>123</v>
       </c>
       <c r="G156" t="n">
-        <v>-8573116.463718221</v>
+        <v>-12649822.1989263</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5868,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C157" t="n">
-        <v>4.172</v>
+        <v>4.043</v>
       </c>
       <c r="D157" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E157" t="n">
-        <v>4.172</v>
+        <v>4.043</v>
       </c>
       <c r="F157" t="n">
-        <v>271748.6562</v>
+        <v>705147.1588</v>
       </c>
       <c r="G157" t="n">
-        <v>-8844865.11991822</v>
+        <v>-13354969.3577263</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5903,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.172</v>
+        <v>4.105</v>
       </c>
       <c r="C158" t="n">
-        <v>4.172</v>
+        <v>4.095</v>
       </c>
       <c r="D158" t="n">
-        <v>4.172</v>
+        <v>4.105</v>
       </c>
       <c r="E158" t="n">
-        <v>4.172</v>
+        <v>4.095</v>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>149135.2807</v>
       </c>
       <c r="G158" t="n">
-        <v>-8844865.11991822</v>
+        <v>-13205834.0770263</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5938,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.173</v>
+        <v>4.105</v>
       </c>
       <c r="C159" t="n">
-        <v>4.172</v>
+        <v>4.105</v>
       </c>
       <c r="D159" t="n">
-        <v>4.173</v>
+        <v>4.105</v>
       </c>
       <c r="E159" t="n">
-        <v>4.172</v>
+        <v>4.105</v>
       </c>
       <c r="F159" t="n">
-        <v>280363.7299</v>
+        <v>122143.9687</v>
       </c>
       <c r="G159" t="n">
-        <v>-8844865.11991822</v>
+        <v>-13083690.1083263</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5973,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.2</v>
+        <v>4.105</v>
       </c>
       <c r="C160" t="n">
-        <v>4.2</v>
+        <v>4.128</v>
       </c>
       <c r="D160" t="n">
-        <v>4.2</v>
+        <v>4.128</v>
       </c>
       <c r="E160" t="n">
-        <v>4.2</v>
+        <v>4.105</v>
       </c>
       <c r="F160" t="n">
-        <v>276030.8015</v>
+        <v>241543.8336</v>
       </c>
       <c r="G160" t="n">
-        <v>-8568834.31841822</v>
+        <v>-12842146.2747263</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6008,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.2</v>
+        <v>4.128</v>
       </c>
       <c r="C161" t="n">
-        <v>4.2</v>
+        <v>4.162</v>
       </c>
       <c r="D161" t="n">
-        <v>4.2</v>
+        <v>4.162</v>
       </c>
       <c r="E161" t="n">
-        <v>4.2</v>
+        <v>4.128</v>
       </c>
       <c r="F161" t="n">
-        <v>11267.9634</v>
+        <v>20749.996912878</v>
       </c>
       <c r="G161" t="n">
-        <v>-8568834.31841822</v>
+        <v>-12821396.27781342</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6043,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.175</v>
+        <v>4.115</v>
       </c>
       <c r="C162" t="n">
-        <v>4.174</v>
+        <v>4.115</v>
       </c>
       <c r="D162" t="n">
-        <v>4.175</v>
+        <v>4.115</v>
       </c>
       <c r="E162" t="n">
-        <v>4.174</v>
+        <v>4.115</v>
       </c>
       <c r="F162" t="n">
-        <v>486707.6676</v>
+        <v>22387.673277588</v>
       </c>
       <c r="G162" t="n">
-        <v>-9055541.98601822</v>
+        <v>-12843783.95109101</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6078,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.174</v>
+        <v>4.161</v>
       </c>
       <c r="C163" t="n">
-        <v>4.174</v>
+        <v>4.161</v>
       </c>
       <c r="D163" t="n">
-        <v>4.174</v>
+        <v>4.161</v>
       </c>
       <c r="E163" t="n">
-        <v>4.174</v>
+        <v>4.161</v>
       </c>
       <c r="F163" t="n">
-        <v>50000</v>
+        <v>121</v>
       </c>
       <c r="G163" t="n">
-        <v>-9055541.98601822</v>
+        <v>-12843662.95109101</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6113,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.174</v>
+        <v>4.161</v>
       </c>
       <c r="C164" t="n">
-        <v>4.172</v>
+        <v>4.162</v>
       </c>
       <c r="D164" t="n">
-        <v>4.174</v>
+        <v>4.162</v>
       </c>
       <c r="E164" t="n">
-        <v>4.172</v>
+        <v>4.161</v>
       </c>
       <c r="F164" t="n">
-        <v>581100</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="n">
-        <v>-9636641.98601822</v>
+        <v>-12833662.95109101</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6148,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.173</v>
+        <v>4.08</v>
       </c>
       <c r="C165" t="n">
-        <v>4.173</v>
+        <v>4.151</v>
       </c>
       <c r="D165" t="n">
-        <v>4.173</v>
+        <v>4.151</v>
       </c>
       <c r="E165" t="n">
-        <v>4.173</v>
+        <v>4.08</v>
       </c>
       <c r="F165" t="n">
-        <v>152007.3938</v>
+        <v>3450.5187</v>
       </c>
       <c r="G165" t="n">
-        <v>-9484634.59221822</v>
+        <v>-12837113.46979101</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6183,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.173</v>
+        <v>4.152</v>
       </c>
       <c r="C166" t="n">
-        <v>4.173</v>
+        <v>4.152</v>
       </c>
       <c r="D166" t="n">
-        <v>4.173</v>
+        <v>4.152</v>
       </c>
       <c r="E166" t="n">
-        <v>4.173</v>
+        <v>4.152</v>
       </c>
       <c r="F166" t="n">
-        <v>208273.2273</v>
+        <v>121</v>
       </c>
       <c r="G166" t="n">
-        <v>-9484634.59221822</v>
+        <v>-12836992.46979101</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6218,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.172</v>
+        <v>4.152</v>
       </c>
       <c r="C167" t="n">
-        <v>4.172</v>
+        <v>4.162</v>
       </c>
       <c r="D167" t="n">
-        <v>4.172</v>
+        <v>4.162</v>
       </c>
       <c r="E167" t="n">
-        <v>4.172</v>
+        <v>4.152</v>
       </c>
       <c r="F167" t="n">
-        <v>89459.37940000001</v>
+        <v>3210</v>
       </c>
       <c r="G167" t="n">
-        <v>-9574093.97161822</v>
+        <v>-12833782.46979101</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6253,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.17</v>
+        <v>4.116</v>
       </c>
       <c r="C168" t="n">
-        <v>4.17</v>
+        <v>4.116</v>
       </c>
       <c r="D168" t="n">
-        <v>4.17</v>
+        <v>4.116</v>
       </c>
       <c r="E168" t="n">
-        <v>4.17</v>
+        <v>4.116</v>
       </c>
       <c r="F168" t="n">
-        <v>350000</v>
+        <v>398389.19</v>
       </c>
       <c r="G168" t="n">
-        <v>-9924093.97161822</v>
+        <v>-13232171.65979101</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6288,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.172</v>
+        <v>4.116</v>
       </c>
       <c r="C169" t="n">
-        <v>4.172</v>
+        <v>4.11</v>
       </c>
       <c r="D169" t="n">
-        <v>4.172</v>
+        <v>4.116</v>
       </c>
       <c r="E169" t="n">
-        <v>4.172</v>
+        <v>4.11</v>
       </c>
       <c r="F169" t="n">
-        <v>71728.63619999999</v>
+        <v>43894.7746</v>
       </c>
       <c r="G169" t="n">
-        <v>-9852365.335418221</v>
+        <v>-13276066.43439101</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6323,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.172</v>
+        <v>4.13</v>
       </c>
       <c r="C170" t="n">
-        <v>4.172</v>
+        <v>4.13</v>
       </c>
       <c r="D170" t="n">
-        <v>4.172</v>
+        <v>4.13</v>
       </c>
       <c r="E170" t="n">
-        <v>4.172</v>
+        <v>4.13</v>
       </c>
       <c r="F170" t="n">
-        <v>31860.0619</v>
+        <v>121</v>
       </c>
       <c r="G170" t="n">
-        <v>-9852365.335418221</v>
+        <v>-13275945.43439101</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6358,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.172</v>
+        <v>4.14</v>
       </c>
       <c r="C171" t="n">
-        <v>4.168</v>
+        <v>4.14</v>
       </c>
       <c r="D171" t="n">
-        <v>4.172</v>
+        <v>4.14</v>
       </c>
       <c r="E171" t="n">
-        <v>4.168</v>
+        <v>4.14</v>
       </c>
       <c r="F171" t="n">
-        <v>536232.0639</v>
+        <v>121</v>
       </c>
       <c r="G171" t="n">
-        <v>-10388597.39931822</v>
+        <v>-13275824.43439101</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6393,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.168</v>
+        <v>4.081</v>
       </c>
       <c r="C172" t="n">
-        <v>4.166</v>
+        <v>4.107</v>
       </c>
       <c r="D172" t="n">
-        <v>4.168</v>
+        <v>4.107</v>
       </c>
       <c r="E172" t="n">
-        <v>4.166</v>
+        <v>4.081</v>
       </c>
       <c r="F172" t="n">
-        <v>275966.7817</v>
+        <v>42500</v>
       </c>
       <c r="G172" t="n">
-        <v>-10664564.18101822</v>
+        <v>-13318324.43439101</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6428,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.166</v>
+        <v>4.081</v>
       </c>
       <c r="C173" t="n">
-        <v>4.166</v>
+        <v>4.081</v>
       </c>
       <c r="D173" t="n">
-        <v>4.166</v>
+        <v>4.081</v>
       </c>
       <c r="E173" t="n">
-        <v>4.166</v>
+        <v>4.081</v>
       </c>
       <c r="F173" t="n">
-        <v>22253.3054</v>
+        <v>42491.3851</v>
       </c>
       <c r="G173" t="n">
-        <v>-10664564.18101822</v>
+        <v>-13360815.81949101</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6463,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.165</v>
+        <v>4.092</v>
       </c>
       <c r="C174" t="n">
-        <v>4.16</v>
+        <v>4.071</v>
       </c>
       <c r="D174" t="n">
-        <v>4.165</v>
+        <v>4.092</v>
       </c>
       <c r="E174" t="n">
-        <v>4.16</v>
+        <v>4.071</v>
       </c>
       <c r="F174" t="n">
-        <v>2870.9248</v>
+        <v>1807242.5375</v>
       </c>
       <c r="G174" t="n">
-        <v>-10667435.10581822</v>
+        <v>-15168058.35699101</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6498,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.158</v>
+        <v>4.106</v>
       </c>
       <c r="C175" t="n">
-        <v>4.145</v>
+        <v>4.106</v>
       </c>
       <c r="D175" t="n">
-        <v>4.158</v>
+        <v>4.106</v>
       </c>
       <c r="E175" t="n">
-        <v>4.145</v>
+        <v>4.106</v>
       </c>
       <c r="F175" t="n">
-        <v>866448.0441000001</v>
+        <v>422.9149</v>
       </c>
       <c r="G175" t="n">
-        <v>-11533883.14991822</v>
+        <v>-15167635.44209101</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6533,28 +6695,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.145</v>
+        <v>4.106</v>
       </c>
       <c r="C176" t="n">
-        <v>4.12</v>
+        <v>4.106</v>
       </c>
       <c r="D176" t="n">
-        <v>4.145</v>
+        <v>4.106</v>
       </c>
       <c r="E176" t="n">
-        <v>4.12</v>
+        <v>4.106</v>
       </c>
       <c r="F176" t="n">
-        <v>186591.2302</v>
+        <v>90545.834</v>
       </c>
       <c r="G176" t="n">
-        <v>-11720474.38011822</v>
+        <v>-15167635.44209101</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6568,67 +6731,65 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.166</v>
+        <v>4.107</v>
       </c>
       <c r="C177" t="n">
-        <v>4.166</v>
+        <v>4.107</v>
       </c>
       <c r="D177" t="n">
-        <v>4.166</v>
+        <v>4.107</v>
       </c>
       <c r="E177" t="n">
-        <v>4.166</v>
+        <v>4.107</v>
       </c>
       <c r="F177" t="n">
-        <v>161142.3682</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="n">
-        <v>-11559332.01191822</v>
+        <v>-15157635.44209101</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.13</v>
+        <v>4.125</v>
       </c>
       <c r="C178" t="n">
-        <v>4.12</v>
+        <v>4.107</v>
       </c>
       <c r="D178" t="n">
-        <v>4.13</v>
+        <v>4.125</v>
       </c>
       <c r="E178" t="n">
-        <v>4.12</v>
+        <v>4.107</v>
       </c>
       <c r="F178" t="n">
-        <v>161129.9317</v>
+        <v>172490.5576</v>
       </c>
       <c r="G178" t="n">
-        <v>-11720461.94361822</v>
+        <v>-15157635.44209101</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6637,419 +6798,375 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F179" t="n">
+        <v>108337.442</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25602.7258</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-15291575.60989101</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="F182" t="n">
+        <v>398916.1809</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-15690491.79079101</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F183" t="n">
+        <v>123</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F184" t="n">
+        <v>518.669</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F185" t="n">
+        <v>270.8299</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F186" t="n">
+        <v>151.507</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-15690520.29779101</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F187" t="n">
+        <v>577903.8021</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-15690520.29779101</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.173</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4.173</v>
-      </c>
-      <c r="E179" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F179" t="n">
-        <v>88871.103191924</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-11631590.8404263</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F180" t="n">
-        <v>23432.4234</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-11655023.2638263</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11710</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-11643313.2638263</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.163</v>
-      </c>
-      <c r="F182" t="n">
-        <v>11710</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-11643313.2638263</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="D183" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="F183" t="n">
-        <v>120</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="F184" t="n">
-        <v>43144.774688398</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.172</v>
-      </c>
-      <c r="F185" t="n">
-        <v>525.1325000000001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.155</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.155</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.155</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.155</v>
-      </c>
-      <c r="F186" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-11823193.2638263</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6219.3167</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-11829412.5805263</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.161</v>
+        <v>4.06</v>
       </c>
       <c r="C188" t="n">
-        <v>4.171</v>
+        <v>4.056</v>
       </c>
       <c r="D188" t="n">
-        <v>4.171</v>
+        <v>4.06</v>
       </c>
       <c r="E188" t="n">
-        <v>4.161</v>
+        <v>4.056</v>
       </c>
       <c r="F188" t="n">
-        <v>83066.12940000001</v>
+        <v>186124.4167</v>
       </c>
       <c r="G188" t="n">
-        <v>-11746346.4511263</v>
+        <v>-15876644.71449101</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J188" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,39 +7175,40 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.163</v>
+        <v>4.056</v>
       </c>
       <c r="C189" t="n">
-        <v>4.163</v>
+        <v>4.056</v>
       </c>
       <c r="D189" t="n">
-        <v>4.163</v>
+        <v>4.056</v>
       </c>
       <c r="E189" t="n">
-        <v>4.163</v>
+        <v>4.056</v>
       </c>
       <c r="F189" t="n">
-        <v>10530</v>
+        <v>237778.3265</v>
       </c>
       <c r="G189" t="n">
-        <v>-11756876.4511263</v>
+        <v>-15876644.71449101</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J189" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,39 +7217,40 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="C190" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="D190" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="E190" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="F190" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G190" t="n">
-        <v>-11756756.4511263</v>
+        <v>-15876521.71449101</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J190" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,39 +7259,40 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="C191" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="D191" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="E191" t="n">
-        <v>4.173</v>
+        <v>4.081</v>
       </c>
       <c r="F191" t="n">
-        <v>750</v>
+        <v>21906.5905</v>
       </c>
       <c r="G191" t="n">
-        <v>-11756756.4511263</v>
+        <v>-15876521.71449101</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J191" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,39 +7301,40 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.173</v>
+        <v>4.091</v>
       </c>
       <c r="C192" t="n">
-        <v>4.173</v>
+        <v>4.091</v>
       </c>
       <c r="D192" t="n">
-        <v>4.173</v>
+        <v>4.091</v>
       </c>
       <c r="E192" t="n">
-        <v>4.173</v>
+        <v>4.091</v>
       </c>
       <c r="F192" t="n">
-        <v>64584.606</v>
+        <v>49999.8968</v>
       </c>
       <c r="G192" t="n">
-        <v>-11756756.4511263</v>
+        <v>-15826521.81769101</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J192" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7222,39 +7343,40 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.163</v>
+        <v>4.095</v>
       </c>
       <c r="C193" t="n">
-        <v>4.163</v>
+        <v>4.105</v>
       </c>
       <c r="D193" t="n">
-        <v>4.163</v>
+        <v>4.105</v>
       </c>
       <c r="E193" t="n">
-        <v>4.163</v>
+        <v>4.095</v>
       </c>
       <c r="F193" t="n">
-        <v>70090.3836</v>
+        <v>94920</v>
       </c>
       <c r="G193" t="n">
-        <v>-11826846.8347263</v>
+        <v>-15731601.81769101</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J193" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,39 +7385,40 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.125</v>
+        <v>4.104</v>
       </c>
       <c r="C194" t="n">
-        <v>4.125</v>
+        <v>4.104</v>
       </c>
       <c r="D194" t="n">
-        <v>4.125</v>
+        <v>4.104</v>
       </c>
       <c r="E194" t="n">
-        <v>4.125</v>
+        <v>4.104</v>
       </c>
       <c r="F194" t="n">
-        <v>50000</v>
+        <v>108270</v>
       </c>
       <c r="G194" t="n">
-        <v>-11876846.8347263</v>
+        <v>-15839871.81769101</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J194" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,39 +7427,40 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.125</v>
+        <v>4.105</v>
       </c>
       <c r="C195" t="n">
-        <v>4.04</v>
+        <v>4.105</v>
       </c>
       <c r="D195" t="n">
-        <v>4.125</v>
+        <v>4.105</v>
       </c>
       <c r="E195" t="n">
-        <v>4.04</v>
+        <v>4.105</v>
       </c>
       <c r="F195" t="n">
-        <v>615587.3035</v>
+        <v>15000</v>
       </c>
       <c r="G195" t="n">
-        <v>-12492434.1382263</v>
+        <v>-15824871.81769101</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J195" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7345,39 +7469,40 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.125</v>
+        <v>4.105</v>
       </c>
       <c r="C196" t="n">
-        <v>4.115</v>
+        <v>4.105</v>
       </c>
       <c r="D196" t="n">
-        <v>4.125</v>
+        <v>4.105</v>
       </c>
       <c r="E196" t="n">
-        <v>4.115</v>
+        <v>4.105</v>
       </c>
       <c r="F196" t="n">
-        <v>16021</v>
+        <v>60749.4054</v>
       </c>
       <c r="G196" t="n">
-        <v>-12476413.1382263</v>
+        <v>-15824871.81769101</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J196" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,39 +7511,40 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.045</v>
+        <v>4.105</v>
       </c>
       <c r="C197" t="n">
-        <v>4.045</v>
+        <v>4.105</v>
       </c>
       <c r="D197" t="n">
-        <v>4.045</v>
+        <v>4.105</v>
       </c>
       <c r="E197" t="n">
-        <v>4.045</v>
+        <v>4.105</v>
       </c>
       <c r="F197" t="n">
-        <v>173532.0607</v>
+        <v>235223.1838</v>
       </c>
       <c r="G197" t="n">
-        <v>-12649945.1989263</v>
+        <v>-15824871.81769101</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J197" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,6 +7553,7 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7445,21 +7572,21 @@
         <v>4.105</v>
       </c>
       <c r="F198" t="n">
-        <v>123</v>
+        <v>3322.9016</v>
       </c>
       <c r="G198" t="n">
-        <v>-12649822.1989263</v>
+        <v>-15824871.81769101</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J198" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,39 +7595,40 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.05</v>
+        <v>4.105</v>
       </c>
       <c r="C199" t="n">
-        <v>4.043</v>
+        <v>4.105</v>
       </c>
       <c r="D199" t="n">
-        <v>4.05</v>
+        <v>4.105</v>
       </c>
       <c r="E199" t="n">
-        <v>4.043</v>
+        <v>4.105</v>
       </c>
       <c r="F199" t="n">
-        <v>705147.1588</v>
+        <v>3997.1285</v>
       </c>
       <c r="G199" t="n">
-        <v>-13354969.3577263</v>
+        <v>-15824871.81769101</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J199" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,6 +7637,7 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7518,30 +7647,30 @@
         <v>4.105</v>
       </c>
       <c r="C200" t="n">
-        <v>4.095</v>
+        <v>4.12</v>
       </c>
       <c r="D200" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E200" t="n">
         <v>4.105</v>
       </c>
-      <c r="E200" t="n">
-        <v>4.095</v>
-      </c>
       <c r="F200" t="n">
-        <v>149135.2807</v>
+        <v>471503.2378</v>
       </c>
       <c r="G200" t="n">
-        <v>-13205834.0770263</v>
+        <v>-15353368.57989101</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J200" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,1760 +7679,7 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F201" t="n">
-        <v>122143.9687</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-13083690.1083263</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F202" t="n">
-        <v>241543.8336</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-12842146.2747263</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="F203" t="n">
-        <v>20749.996912878</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-12821396.27781342</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="K203" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="F204" t="n">
-        <v>22387.673277588</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-12843783.95109101</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K204" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="F205" t="n">
-        <v>121</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-12843662.95109101</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="K205" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="F206" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-12833662.95109101</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.161</v>
-      </c>
-      <c r="K206" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.151</v>
-      </c>
-      <c r="D207" t="n">
-        <v>4.151</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3450.5187</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-12837113.46979101</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="F208" t="n">
-        <v>121</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-12836992.46979101</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3210</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12833782.46979101</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="F210" t="n">
-        <v>398389.19</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-13232171.65979101</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F211" t="n">
-        <v>43894.7746</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-13276066.43439101</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F212" t="n">
-        <v>121</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-13275945.43439101</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D213" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F213" t="n">
-        <v>121</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-13275824.43439101</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F214" t="n">
-        <v>42500</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-13318324.43439101</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K214" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F215" t="n">
-        <v>42491.3851</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-13360815.81949101</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1807242.5375</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-15168058.35699101</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="F217" t="n">
-        <v>422.9149</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="E218" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="F218" t="n">
-        <v>90545.834</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F220" t="n">
-        <v>172490.5576</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="D221" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="E221" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="F221" t="n">
-        <v>108337.442</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="D222" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.1032</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D223" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E223" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F223" t="n">
-        <v>25602.7258</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-15291575.60989101</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="D224" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="F224" t="n">
-        <v>398916.1809</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-15690491.79079101</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K224" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C225" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D225" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F225" t="n">
-        <v>123</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="K225" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E226" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F226" t="n">
-        <v>518.669</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K226" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C227" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E227" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F227" t="n">
-        <v>270.8299</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K227" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C228" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E228" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F228" t="n">
-        <v>151.507</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>577903.8021</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K229" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="D230" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="F230" t="n">
-        <v>186124.4167</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-15876644.71449101</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K230" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="E231" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="F231" t="n">
-        <v>237778.3265</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-15876644.71449101</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="K231" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C232" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D232" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E232" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F232" t="n">
-        <v>123</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-15876521.71449101</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="K232" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C233" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D233" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E233" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F233" t="n">
-        <v>21906.5905</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-15876521.71449101</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K233" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="C234" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="D234" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="E234" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="F234" t="n">
-        <v>49999.8968</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-15826521.81769101</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K234" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="C235" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D235" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E235" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="F235" t="n">
-        <v>94920</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-15731601.81769101</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="D236" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="F236" t="n">
-        <v>108270</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-15839871.81769101</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F237" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F238" t="n">
-        <v>60749.4054</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F239" t="n">
-        <v>235223.1838</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F240" t="n">
-        <v>3322.9016</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="D241" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E241" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F241" t="n">
-        <v>3997.1285</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D242" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E242" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="F242" t="n">
-        <v>471503.2378</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-15353368.57989101</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.224</v>
+        <v>4.296</v>
       </c>
       <c r="C2" t="n">
-        <v>4.224</v>
+        <v>4.29</v>
       </c>
       <c r="D2" t="n">
-        <v>4.224</v>
+        <v>4.296</v>
       </c>
       <c r="E2" t="n">
-        <v>4.224</v>
+        <v>4.29</v>
       </c>
       <c r="F2" t="n">
-        <v>94460.8129</v>
+        <v>91540.4955</v>
       </c>
       <c r="G2" t="n">
-        <v>-6670592.369600004</v>
+        <v>-3466267.6749</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.223</v>
+        <v>4.29</v>
       </c>
       <c r="C3" t="n">
-        <v>4.223</v>
+        <v>4.284</v>
       </c>
       <c r="D3" t="n">
-        <v>4.223</v>
+        <v>4.29</v>
       </c>
       <c r="E3" t="n">
-        <v>4.223</v>
+        <v>4.284</v>
       </c>
       <c r="F3" t="n">
-        <v>131.4232</v>
+        <v>171086.11</v>
       </c>
       <c r="G3" t="n">
-        <v>-6670723.792800004</v>
+        <v>-3637353.7849</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.222</v>
+        <v>4.333</v>
       </c>
       <c r="C4" t="n">
-        <v>4.212</v>
+        <v>4.333</v>
       </c>
       <c r="D4" t="n">
-        <v>4.222</v>
+        <v>4.333</v>
       </c>
       <c r="E4" t="n">
-        <v>4.212</v>
+        <v>4.333</v>
       </c>
       <c r="F4" t="n">
-        <v>16700</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>-6687423.792800004</v>
+        <v>-3637233.7849</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.223</v>
+        <v>4.285</v>
       </c>
       <c r="C5" t="n">
-        <v>4.297</v>
+        <v>4.285</v>
       </c>
       <c r="D5" t="n">
-        <v>4.297</v>
+        <v>4.285</v>
       </c>
       <c r="E5" t="n">
-        <v>4.223</v>
+        <v>4.285</v>
       </c>
       <c r="F5" t="n">
-        <v>546743.047108353</v>
+        <v>6426.6397</v>
       </c>
       <c r="G5" t="n">
-        <v>-6140680.745691651</v>
+        <v>-3643660.4246</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.293</v>
+        <v>4.345</v>
       </c>
       <c r="C6" t="n">
-        <v>4.293</v>
+        <v>4.345</v>
       </c>
       <c r="D6" t="n">
-        <v>4.293</v>
+        <v>4.345</v>
       </c>
       <c r="E6" t="n">
-        <v>4.293</v>
+        <v>4.345</v>
       </c>
       <c r="F6" t="n">
-        <v>57655.6884</v>
+        <v>116</v>
       </c>
       <c r="G6" t="n">
-        <v>-6198336.434091651</v>
+        <v>-3643544.4246</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.289</v>
+        <v>4.345</v>
       </c>
       <c r="C7" t="n">
-        <v>4.289</v>
+        <v>4.345</v>
       </c>
       <c r="D7" t="n">
-        <v>4.289</v>
+        <v>4.345</v>
       </c>
       <c r="E7" t="n">
-        <v>4.289</v>
+        <v>4.345</v>
       </c>
       <c r="F7" t="n">
-        <v>47000</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="n">
-        <v>-6245336.434091651</v>
+        <v>-3643544.4246</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.28</v>
+        <v>4.295</v>
       </c>
       <c r="C8" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="D8" t="n">
-        <v>4.28</v>
+        <v>4.295</v>
       </c>
       <c r="E8" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="F8" t="n">
-        <v>116773.9925</v>
+        <v>139553.4628</v>
       </c>
       <c r="G8" t="n">
-        <v>-6362110.426591651</v>
+        <v>-3783097.8874</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="C9" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="D9" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="E9" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="F9" t="n">
-        <v>2680.199</v>
+        <v>6748.2306</v>
       </c>
       <c r="G9" t="n">
-        <v>-6362110.426591651</v>
+        <v>-3783097.8874</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.241</v>
+        <v>4.285</v>
       </c>
       <c r="C10" t="n">
-        <v>4.24</v>
+        <v>4.284</v>
       </c>
       <c r="D10" t="n">
-        <v>4.241</v>
+        <v>4.285</v>
       </c>
       <c r="E10" t="n">
-        <v>4.24</v>
+        <v>4.284</v>
       </c>
       <c r="F10" t="n">
-        <v>235069.151</v>
+        <v>247589.7393</v>
       </c>
       <c r="G10" t="n">
-        <v>-6597179.57759165</v>
+        <v>-3783097.8874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.239</v>
+        <v>4.342</v>
       </c>
       <c r="C11" t="n">
-        <v>4.285</v>
+        <v>4.342</v>
       </c>
       <c r="D11" t="n">
-        <v>4.285</v>
+        <v>4.342</v>
       </c>
       <c r="E11" t="n">
-        <v>4.239</v>
+        <v>4.342</v>
       </c>
       <c r="F11" t="n">
-        <v>161145.839996686</v>
+        <v>116</v>
       </c>
       <c r="G11" t="n">
-        <v>-6436033.737594964</v>
+        <v>-3782981.8874</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.227</v>
+        <v>4.3</v>
       </c>
       <c r="C12" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="E12" t="n">
-        <v>4.227</v>
+        <v>4.3</v>
       </c>
       <c r="F12" t="n">
-        <v>297121.544208514</v>
+        <v>69506.425</v>
       </c>
       <c r="G12" t="n">
-        <v>-6733155.281803478</v>
+        <v>-3852488.3124</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.224</v>
+        <v>4.301</v>
       </c>
       <c r="C13" t="n">
-        <v>4.283</v>
+        <v>4.301</v>
       </c>
       <c r="D13" t="n">
-        <v>4.283</v>
+        <v>4.301</v>
       </c>
       <c r="E13" t="n">
-        <v>4.224</v>
+        <v>4.301</v>
       </c>
       <c r="F13" t="n">
-        <v>175286.943272659</v>
+        <v>51637.9567</v>
       </c>
       <c r="G13" t="n">
-        <v>-6557868.338530819</v>
+        <v>-3800850.3557</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.285</v>
+        <v>4.3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.29</v>
+        <v>4.284</v>
       </c>
       <c r="D14" t="n">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="E14" t="n">
-        <v>4.285</v>
+        <v>4.284</v>
       </c>
       <c r="F14" t="n">
-        <v>163291.7165</v>
+        <v>244763.8638</v>
       </c>
       <c r="G14" t="n">
-        <v>-6394576.622030819</v>
+        <v>-4045614.2195</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29</v>
+        <v>4.284</v>
       </c>
       <c r="C15" t="n">
-        <v>4.301</v>
+        <v>4.28</v>
       </c>
       <c r="D15" t="n">
-        <v>4.301</v>
+        <v>4.284</v>
       </c>
       <c r="E15" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="F15" t="n">
-        <v>122184.8842</v>
+        <v>723972.0379</v>
       </c>
       <c r="G15" t="n">
-        <v>-6272391.737830819</v>
+        <v>-4769586.2574</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="C16" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="D16" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="E16" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="F16" t="n">
-        <v>17071.6961</v>
+        <v>57835.7534</v>
       </c>
       <c r="G16" t="n">
-        <v>-6289463.433930819</v>
+        <v>-4711750.504000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.3</v>
+        <v>4.283</v>
       </c>
       <c r="C17" t="n">
-        <v>4.3</v>
+        <v>4.283</v>
       </c>
       <c r="D17" t="n">
-        <v>4.3</v>
+        <v>4.283</v>
       </c>
       <c r="E17" t="n">
-        <v>4.3</v>
+        <v>4.283</v>
       </c>
       <c r="F17" t="n">
-        <v>29669.4421</v>
+        <v>52146.8864</v>
       </c>
       <c r="G17" t="n">
-        <v>-6259793.991830819</v>
+        <v>-4711750.504000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.299</v>
+        <v>4.283</v>
       </c>
       <c r="C18" t="n">
-        <v>4.299</v>
+        <v>4.283</v>
       </c>
       <c r="D18" t="n">
-        <v>4.299</v>
+        <v>4.283</v>
       </c>
       <c r="E18" t="n">
-        <v>4.299</v>
+        <v>4.283</v>
       </c>
       <c r="F18" t="n">
-        <v>117</v>
+        <v>62136.2539</v>
       </c>
       <c r="G18" t="n">
-        <v>-6259910.991830819</v>
+        <v>-4711750.504000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="C19" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="D19" t="n">
-        <v>4.226</v>
+        <v>4.283</v>
       </c>
       <c r="E19" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="F19" t="n">
-        <v>133844.1421</v>
+        <v>49057.7257</v>
       </c>
       <c r="G19" t="n">
-        <v>-6393755.133930819</v>
+        <v>-4760808.229700001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="C20" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="D20" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="E20" t="n">
-        <v>4.226</v>
+        <v>4.28</v>
       </c>
       <c r="F20" t="n">
-        <v>742025.6029000001</v>
+        <v>371.3159</v>
       </c>
       <c r="G20" t="n">
-        <v>-6393755.133930819</v>
+        <v>-4760808.229700001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="C21" t="n">
-        <v>4.272</v>
+        <v>4.273</v>
       </c>
       <c r="D21" t="n">
-        <v>4.273</v>
+        <v>4.28</v>
       </c>
       <c r="E21" t="n">
         <v>4.27</v>
       </c>
       <c r="F21" t="n">
-        <v>94688.3015</v>
+        <v>1394928.7596</v>
       </c>
       <c r="G21" t="n">
-        <v>-6299066.832430819</v>
+        <v>-6155736.989300001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.227</v>
+        <v>4.278</v>
       </c>
       <c r="C22" t="n">
-        <v>4.227</v>
+        <v>4.278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.227</v>
+        <v>4.278</v>
       </c>
       <c r="E22" t="n">
-        <v>4.227</v>
+        <v>4.278</v>
       </c>
       <c r="F22" t="n">
-        <v>16149.0501</v>
+        <v>12257.7951</v>
       </c>
       <c r="G22" t="n">
-        <v>-6315215.882530819</v>
+        <v>-6143479.194200002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="C23" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="D23" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="E23" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="F23" t="n">
-        <v>244347.9393</v>
+        <v>116</v>
       </c>
       <c r="G23" t="n">
-        <v>-6315215.882530819</v>
+        <v>-6143363.194200002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="C24" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="D24" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="E24" t="n">
-        <v>4.227</v>
+        <v>4.343</v>
       </c>
       <c r="F24" t="n">
-        <v>156810.12</v>
+        <v>2616.946</v>
       </c>
       <c r="G24" t="n">
-        <v>-6315215.882530819</v>
+        <v>-6143363.194200002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.226</v>
+        <v>4.34</v>
       </c>
       <c r="C25" t="n">
-        <v>4.226</v>
+        <v>4.34</v>
       </c>
       <c r="D25" t="n">
-        <v>4.226</v>
+        <v>4.34</v>
       </c>
       <c r="E25" t="n">
-        <v>4.226</v>
+        <v>4.34</v>
       </c>
       <c r="F25" t="n">
-        <v>28130.8993</v>
+        <v>35722.82</v>
       </c>
       <c r="G25" t="n">
-        <v>-6343346.781830818</v>
+        <v>-6179086.014200002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="C26" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="E26" t="n">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="F26" t="n">
-        <v>4427.8902</v>
+        <v>92277.17999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-6338918.891630818</v>
+        <v>-6179086.014200002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="C27" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="D27" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="E27" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="F27" t="n">
-        <v>35294.2001</v>
+        <v>151327.5167</v>
       </c>
       <c r="G27" t="n">
-        <v>-6374213.091730818</v>
+        <v>-6330413.530900002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.231</v>
+        <v>4.28</v>
       </c>
       <c r="C28" t="n">
-        <v>4.231</v>
+        <v>4.3</v>
       </c>
       <c r="D28" t="n">
-        <v>4.231</v>
+        <v>4.3</v>
       </c>
       <c r="E28" t="n">
-        <v>4.231</v>
+        <v>4.28</v>
       </c>
       <c r="F28" t="n">
-        <v>305693.0441</v>
+        <v>172562.6524</v>
       </c>
       <c r="G28" t="n">
-        <v>-6679906.135830818</v>
+        <v>-6157850.878500002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.231</v>
+        <v>4.28</v>
       </c>
       <c r="C29" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="D29" t="n">
-        <v>4.231</v>
+        <v>4.28</v>
       </c>
       <c r="E29" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="F29" t="n">
-        <v>317665.3108</v>
+        <v>39451.999</v>
       </c>
       <c r="G29" t="n">
-        <v>-6679906.135830818</v>
+        <v>-6197302.877500001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="C30" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="D30" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="E30" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="F30" t="n">
-        <v>151279.8164</v>
+        <v>66109.6188</v>
       </c>
       <c r="G30" t="n">
-        <v>-6679906.135830818</v>
+        <v>-6197302.877500001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.232</v>
+        <v>4.3</v>
       </c>
       <c r="C31" t="n">
-        <v>4.232</v>
+        <v>4.3</v>
       </c>
       <c r="D31" t="n">
-        <v>4.232</v>
+        <v>4.3</v>
       </c>
       <c r="E31" t="n">
-        <v>4.232</v>
+        <v>4.3</v>
       </c>
       <c r="F31" t="n">
-        <v>109464.371</v>
+        <v>6981.9149</v>
       </c>
       <c r="G31" t="n">
-        <v>-6570441.764830817</v>
+        <v>-6190320.962600001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.298</v>
+        <v>4.279</v>
       </c>
       <c r="C32" t="n">
-        <v>4.298</v>
+        <v>4.279</v>
       </c>
       <c r="D32" t="n">
-        <v>4.298</v>
+        <v>4.279</v>
       </c>
       <c r="E32" t="n">
-        <v>4.298</v>
+        <v>4.279</v>
       </c>
       <c r="F32" t="n">
-        <v>158.7667</v>
+        <v>105769.8829</v>
       </c>
       <c r="G32" t="n">
-        <v>-6570282.998130818</v>
+        <v>-6296090.845500001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.257</v>
+        <v>4.344</v>
       </c>
       <c r="C33" t="n">
-        <v>4.257</v>
+        <v>4.344</v>
       </c>
       <c r="D33" t="n">
-        <v>4.257</v>
+        <v>4.344</v>
       </c>
       <c r="E33" t="n">
-        <v>4.257</v>
+        <v>4.344</v>
       </c>
       <c r="F33" t="n">
-        <v>80909.538</v>
+        <v>116</v>
       </c>
       <c r="G33" t="n">
-        <v>-6651192.536130818</v>
+        <v>-6295974.845500001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.265</v>
+        <v>4.28</v>
       </c>
       <c r="C34" t="n">
-        <v>4.265</v>
+        <v>4.28</v>
       </c>
       <c r="D34" t="n">
-        <v>4.265</v>
+        <v>4.28</v>
       </c>
       <c r="E34" t="n">
-        <v>4.265</v>
+        <v>4.28</v>
       </c>
       <c r="F34" t="n">
-        <v>136.8204</v>
+        <v>68145.9727</v>
       </c>
       <c r="G34" t="n">
-        <v>-6651055.715730818</v>
+        <v>-6364120.818200001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.232</v>
+        <v>4.343</v>
       </c>
       <c r="C35" t="n">
-        <v>4.232</v>
+        <v>4.343</v>
       </c>
       <c r="D35" t="n">
-        <v>4.232</v>
+        <v>4.343</v>
       </c>
       <c r="E35" t="n">
-        <v>4.232</v>
+        <v>4.343</v>
       </c>
       <c r="F35" t="n">
-        <v>10543.9446</v>
+        <v>116</v>
       </c>
       <c r="G35" t="n">
-        <v>-6661599.660330818</v>
+        <v>-6364004.818200001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.231</v>
+        <v>4.28</v>
       </c>
       <c r="C36" t="n">
-        <v>4.232</v>
+        <v>4.279</v>
       </c>
       <c r="D36" t="n">
-        <v>4.232</v>
+        <v>4.28</v>
       </c>
       <c r="E36" t="n">
-        <v>4.231</v>
+        <v>4.279</v>
       </c>
       <c r="F36" t="n">
-        <v>437998.3923</v>
+        <v>59644.6363</v>
       </c>
       <c r="G36" t="n">
-        <v>-6661599.660330818</v>
+        <v>-6423649.454500001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.265</v>
+        <v>4.343</v>
       </c>
       <c r="C37" t="n">
-        <v>4.265</v>
+        <v>4.343</v>
       </c>
       <c r="D37" t="n">
-        <v>4.265</v>
+        <v>4.343</v>
       </c>
       <c r="E37" t="n">
-        <v>4.265</v>
+        <v>4.343</v>
       </c>
       <c r="F37" t="n">
-        <v>235.4748</v>
+        <v>116</v>
       </c>
       <c r="G37" t="n">
-        <v>-6661364.185530818</v>
+        <v>-6423533.454500001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="C38" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="D38" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="E38" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="F38" t="n">
-        <v>54510.4315</v>
+        <v>57515.3474</v>
       </c>
       <c r="G38" t="n">
-        <v>-6715874.617030818</v>
+        <v>-6481048.801900001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="C39" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="D39" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="E39" t="n">
-        <v>4.231</v>
+        <v>4.278</v>
       </c>
       <c r="F39" t="n">
-        <v>90000</v>
+        <v>165140.4494</v>
       </c>
       <c r="G39" t="n">
-        <v>-6715874.617030818</v>
+        <v>-6481048.801900001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.23</v>
+        <v>4.273</v>
       </c>
       <c r="C40" t="n">
-        <v>4.231</v>
+        <v>4.27</v>
       </c>
       <c r="D40" t="n">
-        <v>4.231</v>
+        <v>4.273</v>
       </c>
       <c r="E40" t="n">
-        <v>4.226</v>
+        <v>4.27</v>
       </c>
       <c r="F40" t="n">
-        <v>185802.8545</v>
+        <v>364485.557</v>
       </c>
       <c r="G40" t="n">
-        <v>-6715874.617030818</v>
+        <v>-6845534.358900001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.231</v>
+        <v>4.27</v>
       </c>
       <c r="C41" t="n">
-        <v>4.231</v>
+        <v>4.269</v>
       </c>
       <c r="D41" t="n">
-        <v>4.231</v>
+        <v>4.27</v>
       </c>
       <c r="E41" t="n">
-        <v>4.231</v>
+        <v>4.269</v>
       </c>
       <c r="F41" t="n">
-        <v>746639.3672</v>
+        <v>62491.5817</v>
       </c>
       <c r="G41" t="n">
-        <v>-6715874.617030818</v>
+        <v>-6908025.940600001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.265</v>
+        <v>4.27</v>
       </c>
       <c r="C42" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="E42" t="n">
         <v>4.27</v>
       </c>
-      <c r="D42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.265</v>
-      </c>
       <c r="F42" t="n">
-        <v>11369.8876</v>
+        <v>1068218.6841</v>
       </c>
       <c r="G42" t="n">
-        <v>-6704504.729430818</v>
+        <v>-5839807.256500001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.272</v>
+        <v>4.269</v>
       </c>
       <c r="C43" t="n">
-        <v>4.272</v>
+        <v>4.269</v>
       </c>
       <c r="D43" t="n">
-        <v>4.272</v>
+        <v>4.269</v>
       </c>
       <c r="E43" t="n">
-        <v>4.272</v>
+        <v>4.269</v>
       </c>
       <c r="F43" t="n">
-        <v>10000</v>
+        <v>73876.42690000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-6694504.729430818</v>
+        <v>-5913683.683400001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="C44" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="D44" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="E44" t="n">
-        <v>4.226</v>
+        <v>4.269</v>
       </c>
       <c r="F44" t="n">
-        <v>1369.8876</v>
+        <v>65520.1283</v>
       </c>
       <c r="G44" t="n">
-        <v>-6695874.617030818</v>
+        <v>-5913683.683400001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.226</v>
+        <v>4.265</v>
       </c>
       <c r="C45" t="n">
-        <v>4.226</v>
+        <v>4.242</v>
       </c>
       <c r="D45" t="n">
-        <v>4.226</v>
+        <v>4.265</v>
       </c>
       <c r="E45" t="n">
-        <v>4.226</v>
+        <v>4.242</v>
       </c>
       <c r="F45" t="n">
-        <v>72220.323</v>
+        <v>213175.2437</v>
       </c>
       <c r="G45" t="n">
-        <v>-6695874.617030818</v>
+        <v>-6126858.927100001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="C46" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="D46" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="E46" t="n">
-        <v>4.275</v>
+        <v>4.3</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2884</v>
+        <v>117</v>
       </c>
       <c r="G46" t="n">
-        <v>-6695684.328630818</v>
+        <v>-6126741.927100001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.226</v>
+        <v>4.241</v>
       </c>
       <c r="C47" t="n">
-        <v>4.226</v>
+        <v>4.23</v>
       </c>
       <c r="D47" t="n">
-        <v>4.226</v>
+        <v>4.241</v>
       </c>
       <c r="E47" t="n">
-        <v>4.226</v>
+        <v>4.23</v>
       </c>
       <c r="F47" t="n">
-        <v>53870.0426</v>
+        <v>708127.1565</v>
       </c>
       <c r="G47" t="n">
-        <v>-6749554.371230818</v>
+        <v>-6834869.083600001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.27</v>
+        <v>4.224</v>
       </c>
       <c r="C48" t="n">
-        <v>4.27</v>
+        <v>4.223</v>
       </c>
       <c r="D48" t="n">
-        <v>4.27</v>
+        <v>4.224</v>
       </c>
       <c r="E48" t="n">
-        <v>4.27</v>
+        <v>4.223</v>
       </c>
       <c r="F48" t="n">
-        <v>171.4603</v>
+        <v>286599.3068</v>
       </c>
       <c r="G48" t="n">
-        <v>-6749382.910930818</v>
+        <v>-7121468.390400002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.226</v>
+        <v>4.224</v>
       </c>
       <c r="C49" t="n">
-        <v>4.226</v>
+        <v>4.225</v>
       </c>
       <c r="D49" t="n">
-        <v>4.226</v>
+        <v>4.225</v>
       </c>
       <c r="E49" t="n">
-        <v>4.226</v>
+        <v>4.224</v>
       </c>
       <c r="F49" t="n">
-        <v>38773.9616</v>
+        <v>47027.0256</v>
       </c>
       <c r="G49" t="n">
-        <v>-6788156.872530818</v>
+        <v>-7074441.364800001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="C50" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="D50" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="E50" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="F50" t="n">
-        <v>7801.2072</v>
+        <v>21548.744</v>
       </c>
       <c r="G50" t="n">
-        <v>-6780355.665330818</v>
+        <v>-7095990.108800001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.269</v>
+        <v>4.222</v>
       </c>
       <c r="C51" t="n">
-        <v>4.217</v>
+        <v>4.222</v>
       </c>
       <c r="D51" t="n">
-        <v>4.269</v>
+        <v>4.222</v>
       </c>
       <c r="E51" t="n">
-        <v>4.217</v>
+        <v>4.222</v>
       </c>
       <c r="F51" t="n">
-        <v>53069.4156</v>
+        <v>131.4543</v>
       </c>
       <c r="G51" t="n">
-        <v>-6833425.080930818</v>
+        <v>-7096121.563100002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.269</v>
+        <v>4.22</v>
       </c>
       <c r="C52" t="n">
-        <v>4.283</v>
+        <v>4.22</v>
       </c>
       <c r="D52" t="n">
-        <v>4.283</v>
+        <v>4.22</v>
       </c>
       <c r="E52" t="n">
-        <v>4.269</v>
+        <v>4.22</v>
       </c>
       <c r="F52" t="n">
-        <v>25117.732712607</v>
+        <v>306568.693</v>
       </c>
       <c r="G52" t="n">
-        <v>-6808307.348218211</v>
+        <v>-7402690.256100002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.22</v>
+        <v>4.222</v>
       </c>
       <c r="C53" t="n">
-        <v>4.282</v>
+        <v>4.222</v>
       </c>
       <c r="D53" t="n">
-        <v>4.282</v>
+        <v>4.222</v>
       </c>
       <c r="E53" t="n">
-        <v>4.22</v>
+        <v>4.222</v>
       </c>
       <c r="F53" t="n">
-        <v>429342.7655</v>
+        <v>189683.9907</v>
       </c>
       <c r="G53" t="n">
-        <v>-7237650.113718211</v>
+        <v>-7213006.265400002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.281</v>
+        <v>4.279</v>
       </c>
       <c r="C54" t="n">
-        <v>4.281</v>
+        <v>4.279</v>
       </c>
       <c r="D54" t="n">
-        <v>4.281</v>
+        <v>4.279</v>
       </c>
       <c r="E54" t="n">
-        <v>4.281</v>
+        <v>4.279</v>
       </c>
       <c r="F54" t="n">
-        <v>41015.087</v>
+        <v>117</v>
       </c>
       <c r="G54" t="n">
-        <v>-7278665.200718211</v>
+        <v>-7212889.265400002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.217</v>
+        <v>4.279</v>
       </c>
       <c r="C55" t="n">
-        <v>4.215</v>
+        <v>4.3</v>
       </c>
       <c r="D55" t="n">
-        <v>4.217</v>
+        <v>4.3</v>
       </c>
       <c r="E55" t="n">
-        <v>4.215</v>
+        <v>4.279</v>
       </c>
       <c r="F55" t="n">
-        <v>513036.9949</v>
+        <v>1151600.2196</v>
       </c>
       <c r="G55" t="n">
-        <v>-7791702.195618211</v>
+        <v>-6061289.045800002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.282</v>
+        <v>4.308</v>
       </c>
       <c r="C56" t="n">
-        <v>4.282</v>
+        <v>4.308</v>
       </c>
       <c r="D56" t="n">
-        <v>4.282</v>
+        <v>4.308</v>
       </c>
       <c r="E56" t="n">
-        <v>4.282</v>
+        <v>4.308</v>
       </c>
       <c r="F56" t="n">
-        <v>124.6442</v>
+        <v>117</v>
       </c>
       <c r="G56" t="n">
-        <v>-7791577.551418211</v>
+        <v>-6061172.045800002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.28</v>
+        <v>4.224</v>
       </c>
       <c r="C57" t="n">
-        <v>4.28</v>
+        <v>4.224</v>
       </c>
       <c r="D57" t="n">
-        <v>4.28</v>
+        <v>4.224</v>
       </c>
       <c r="E57" t="n">
-        <v>4.28</v>
+        <v>4.224</v>
       </c>
       <c r="F57" t="n">
-        <v>11964.5612</v>
+        <v>30313.9581</v>
       </c>
       <c r="G57" t="n">
-        <v>-7803542.112618212</v>
+        <v>-6091486.003900003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.216</v>
+        <v>4.231</v>
       </c>
       <c r="C58" t="n">
-        <v>4.299</v>
+        <v>4.23</v>
       </c>
       <c r="D58" t="n">
-        <v>4.299</v>
+        <v>4.231</v>
       </c>
       <c r="E58" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="F58" t="n">
-        <v>23666.134</v>
+        <v>293769.3512</v>
       </c>
       <c r="G58" t="n">
-        <v>-7779875.978618212</v>
+        <v>-5797716.652700002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.261</v>
+        <v>4.231</v>
       </c>
       <c r="C59" t="n">
-        <v>4.261</v>
+        <v>4.223</v>
       </c>
       <c r="D59" t="n">
-        <v>4.261</v>
+        <v>4.231</v>
       </c>
       <c r="E59" t="n">
-        <v>4.261</v>
+        <v>4.223</v>
       </c>
       <c r="F59" t="n">
-        <v>1538.5212</v>
+        <v>342031.6724</v>
       </c>
       <c r="G59" t="n">
-        <v>-7781414.499818212</v>
+        <v>-6139748.325100002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.259</v>
+        <v>4.226</v>
       </c>
       <c r="C60" t="n">
-        <v>4.259</v>
+        <v>4.226</v>
       </c>
       <c r="D60" t="n">
-        <v>4.259</v>
+        <v>4.226</v>
       </c>
       <c r="E60" t="n">
-        <v>4.259</v>
+        <v>4.226</v>
       </c>
       <c r="F60" t="n">
-        <v>7313.1886</v>
+        <v>252507.5451</v>
       </c>
       <c r="G60" t="n">
-        <v>-7788727.688418212</v>
+        <v>-5887240.780000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.216</v>
+        <v>4.299</v>
       </c>
       <c r="C61" t="n">
-        <v>4.216</v>
+        <v>4.299</v>
       </c>
       <c r="D61" t="n">
-        <v>4.216</v>
+        <v>4.299</v>
       </c>
       <c r="E61" t="n">
-        <v>4.216</v>
+        <v>4.299</v>
       </c>
       <c r="F61" t="n">
-        <v>896.1783</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
-        <v>-7789623.866718212</v>
+        <v>-5887121.780000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.269</v>
+        <v>4.297</v>
       </c>
       <c r="C62" t="n">
-        <v>4.269</v>
+        <v>4.298</v>
       </c>
       <c r="D62" t="n">
-        <v>4.269</v>
+        <v>4.298</v>
       </c>
       <c r="E62" t="n">
-        <v>4.269</v>
+        <v>4.297</v>
       </c>
       <c r="F62" t="n">
-        <v>125.0223</v>
+        <v>134292.8371</v>
       </c>
       <c r="G62" t="n">
-        <v>-7789498.844418212</v>
+        <v>-6021414.617100002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.267</v>
+        <v>4.228</v>
       </c>
       <c r="C63" t="n">
-        <v>4.267</v>
+        <v>4.228</v>
       </c>
       <c r="D63" t="n">
-        <v>4.267</v>
+        <v>4.228</v>
       </c>
       <c r="E63" t="n">
-        <v>4.267</v>
+        <v>4.228</v>
       </c>
       <c r="F63" t="n">
-        <v>125.0223</v>
+        <v>115787.1171</v>
       </c>
       <c r="G63" t="n">
-        <v>-7789623.866718212</v>
+        <v>-6137201.734200003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="C64" t="n">
-        <v>4.216</v>
+        <v>4.228</v>
       </c>
       <c r="D64" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="E64" t="n">
-        <v>4.216</v>
+        <v>4.228</v>
       </c>
       <c r="F64" t="n">
-        <v>1600</v>
+        <v>242027.8266</v>
       </c>
       <c r="G64" t="n">
-        <v>-7791223.866718212</v>
+        <v>-6137201.734200003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="C65" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="D65" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="E65" t="n">
-        <v>4.268</v>
+        <v>4.228</v>
       </c>
       <c r="F65" t="n">
-        <v>2596.4185</v>
+        <v>322033.4493</v>
       </c>
       <c r="G65" t="n">
-        <v>-7788627.448218212</v>
+        <v>-6137201.734200003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.259</v>
+        <v>4.23</v>
       </c>
       <c r="C66" t="n">
-        <v>4.259</v>
+        <v>4.23</v>
       </c>
       <c r="D66" t="n">
-        <v>4.259</v>
+        <v>4.23</v>
       </c>
       <c r="E66" t="n">
-        <v>4.259</v>
+        <v>4.23</v>
       </c>
       <c r="F66" t="n">
-        <v>22978.925</v>
+        <v>264562.6209</v>
       </c>
       <c r="G66" t="n">
-        <v>-7811606.373218212</v>
+        <v>-5872639.113300003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="C67" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="D67" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="E67" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="F67" t="n">
-        <v>236.9545</v>
+        <v>25267.4835</v>
       </c>
       <c r="G67" t="n">
-        <v>-7811843.327718212</v>
+        <v>-5872639.113300003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="C68" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="D68" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="E68" t="n">
-        <v>4.216</v>
+        <v>4.23</v>
       </c>
       <c r="F68" t="n">
-        <v>2416.8803</v>
+        <v>244772.7866</v>
       </c>
       <c r="G68" t="n">
-        <v>-7811843.327718212</v>
+        <v>-5872639.113300003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.277</v>
+        <v>4.23</v>
       </c>
       <c r="C69" t="n">
-        <v>4.277</v>
+        <v>4.227</v>
       </c>
       <c r="D69" t="n">
-        <v>4.277</v>
+        <v>4.23</v>
       </c>
       <c r="E69" t="n">
-        <v>4.277</v>
+        <v>4.227</v>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>121812.794</v>
       </c>
       <c r="G69" t="n">
-        <v>-7811723.327718212</v>
+        <v>-5994451.907300003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.219</v>
+        <v>4.227</v>
       </c>
       <c r="C70" t="n">
-        <v>4.215</v>
+        <v>4.227</v>
       </c>
       <c r="D70" t="n">
-        <v>4.219</v>
+        <v>4.227</v>
       </c>
       <c r="E70" t="n">
-        <v>4.215</v>
+        <v>4.227</v>
       </c>
       <c r="F70" t="n">
-        <v>212487.9824</v>
+        <v>110365.4113</v>
       </c>
       <c r="G70" t="n">
-        <v>-8024211.310118212</v>
+        <v>-5994451.907300003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.214</v>
+        <v>4.226</v>
       </c>
       <c r="C71" t="n">
-        <v>4.213</v>
+        <v>4.226</v>
       </c>
       <c r="D71" t="n">
-        <v>4.214</v>
+        <v>4.226</v>
       </c>
       <c r="E71" t="n">
-        <v>4.213</v>
+        <v>4.226</v>
       </c>
       <c r="F71" t="n">
-        <v>141447.1751</v>
+        <v>151600.2196</v>
       </c>
       <c r="G71" t="n">
-        <v>-8165658.485218212</v>
+        <v>-6146052.126900003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.212</v>
+        <v>4.226</v>
       </c>
       <c r="C72" t="n">
-        <v>4.21</v>
+        <v>4.225</v>
       </c>
       <c r="D72" t="n">
-        <v>4.212</v>
+        <v>4.226</v>
       </c>
       <c r="E72" t="n">
-        <v>4.21</v>
+        <v>4.225</v>
       </c>
       <c r="F72" t="n">
-        <v>23738.8269</v>
+        <v>430079.4298</v>
       </c>
       <c r="G72" t="n">
-        <v>-8189397.312118212</v>
+        <v>-6576131.556700003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="C73" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="D73" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="E73" t="n">
-        <v>4.269</v>
+        <v>4.224</v>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>94460.8129</v>
       </c>
       <c r="G73" t="n">
-        <v>-8189277.312118212</v>
+        <v>-6670592.369600004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.21</v>
+        <v>4.223</v>
       </c>
       <c r="C74" t="n">
-        <v>4.204</v>
+        <v>4.223</v>
       </c>
       <c r="D74" t="n">
-        <v>4.21</v>
+        <v>4.223</v>
       </c>
       <c r="E74" t="n">
-        <v>4.204</v>
+        <v>4.223</v>
       </c>
       <c r="F74" t="n">
-        <v>107240.953</v>
+        <v>131.4232</v>
       </c>
       <c r="G74" t="n">
-        <v>-8296518.265118212</v>
+        <v>-6670723.792800004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.265</v>
+        <v>4.222</v>
       </c>
       <c r="C75" t="n">
-        <v>4.265</v>
+        <v>4.212</v>
       </c>
       <c r="D75" t="n">
-        <v>4.265</v>
+        <v>4.222</v>
       </c>
       <c r="E75" t="n">
-        <v>4.265</v>
+        <v>4.212</v>
       </c>
       <c r="F75" t="n">
-        <v>118</v>
+        <v>16700</v>
       </c>
       <c r="G75" t="n">
-        <v>-8296400.265118212</v>
+        <v>-6687423.792800004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.204</v>
+        <v>4.223</v>
       </c>
       <c r="C76" t="n">
-        <v>4.204</v>
+        <v>4.297</v>
       </c>
       <c r="D76" t="n">
-        <v>4.204</v>
+        <v>4.297</v>
       </c>
       <c r="E76" t="n">
-        <v>4.204</v>
+        <v>4.223</v>
       </c>
       <c r="F76" t="n">
-        <v>38246.8885</v>
+        <v>546743.047108353</v>
       </c>
       <c r="G76" t="n">
-        <v>-8334647.153618212</v>
+        <v>-6140680.745691651</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.205</v>
+        <v>4.293</v>
       </c>
       <c r="C77" t="n">
-        <v>4.205</v>
+        <v>4.293</v>
       </c>
       <c r="D77" t="n">
-        <v>4.205</v>
+        <v>4.293</v>
       </c>
       <c r="E77" t="n">
-        <v>4.205</v>
+        <v>4.293</v>
       </c>
       <c r="F77" t="n">
-        <v>374790.0731</v>
+        <v>57655.6884</v>
       </c>
       <c r="G77" t="n">
-        <v>-7959857.080518212</v>
+        <v>-6198336.434091651</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.204</v>
+        <v>4.289</v>
       </c>
       <c r="C78" t="n">
-        <v>4.201</v>
+        <v>4.289</v>
       </c>
       <c r="D78" t="n">
-        <v>4.204</v>
+        <v>4.289</v>
       </c>
       <c r="E78" t="n">
-        <v>4.201</v>
+        <v>4.289</v>
       </c>
       <c r="F78" t="n">
-        <v>268126.8546</v>
+        <v>47000</v>
       </c>
       <c r="G78" t="n">
-        <v>-8227983.935118212</v>
+        <v>-6245336.434091651</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="C79" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="D79" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="E79" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="F79" t="n">
-        <v>82173.25199999999</v>
+        <v>116773.9925</v>
       </c>
       <c r="G79" t="n">
-        <v>-8310157.187118213</v>
+        <v>-6362110.426591651</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.19</v>
+        <v>4.28</v>
       </c>
       <c r="C80" t="n">
-        <v>4.19</v>
+        <v>4.28</v>
       </c>
       <c r="D80" t="n">
-        <v>4.19</v>
+        <v>4.28</v>
       </c>
       <c r="E80" t="n">
-        <v>4.19</v>
+        <v>4.28</v>
       </c>
       <c r="F80" t="n">
-        <v>1723.0301</v>
+        <v>2680.199</v>
       </c>
       <c r="G80" t="n">
-        <v>-8311880.217218213</v>
+        <v>-6362110.426591651</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.18</v>
+        <v>4.241</v>
       </c>
       <c r="C81" t="n">
-        <v>4.171</v>
+        <v>4.24</v>
       </c>
       <c r="D81" t="n">
-        <v>4.18</v>
+        <v>4.241</v>
       </c>
       <c r="E81" t="n">
-        <v>4.171</v>
+        <v>4.24</v>
       </c>
       <c r="F81" t="n">
-        <v>484389.2748</v>
+        <v>235069.151</v>
       </c>
       <c r="G81" t="n">
-        <v>-8796269.492018213</v>
+        <v>-6597179.57759165</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.19</v>
+        <v>4.239</v>
       </c>
       <c r="C82" t="n">
-        <v>4.19</v>
+        <v>4.285</v>
       </c>
       <c r="D82" t="n">
-        <v>4.19</v>
+        <v>4.285</v>
       </c>
       <c r="E82" t="n">
-        <v>4.19</v>
+        <v>4.239</v>
       </c>
       <c r="F82" t="n">
-        <v>120</v>
+        <v>161145.839996686</v>
       </c>
       <c r="G82" t="n">
-        <v>-8796149.492018213</v>
+        <v>-6436033.737594964</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.172</v>
+        <v>4.227</v>
       </c>
       <c r="C83" t="n">
-        <v>4.172</v>
+        <v>4.275</v>
       </c>
       <c r="D83" t="n">
-        <v>4.172</v>
+        <v>4.275</v>
       </c>
       <c r="E83" t="n">
-        <v>4.172</v>
+        <v>4.227</v>
       </c>
       <c r="F83" t="n">
-        <v>94693.12179999999</v>
+        <v>297121.544208514</v>
       </c>
       <c r="G83" t="n">
-        <v>-8890842.613818213</v>
+        <v>-6733155.281803478</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.172</v>
+        <v>4.224</v>
       </c>
       <c r="C84" t="n">
-        <v>4.172</v>
+        <v>4.283</v>
       </c>
       <c r="D84" t="n">
-        <v>4.172</v>
+        <v>4.283</v>
       </c>
       <c r="E84" t="n">
-        <v>4.172</v>
+        <v>4.224</v>
       </c>
       <c r="F84" t="n">
-        <v>120368.3156</v>
+        <v>175286.943272659</v>
       </c>
       <c r="G84" t="n">
-        <v>-8890842.613818213</v>
+        <v>-6557868.338530819</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.19</v>
+        <v>4.285</v>
       </c>
       <c r="C85" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="D85" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="E85" t="n">
-        <v>4.19</v>
+        <v>4.285</v>
       </c>
       <c r="F85" t="n">
-        <v>45129.818</v>
+        <v>163291.7165</v>
       </c>
       <c r="G85" t="n">
-        <v>-8845712.795818213</v>
+        <v>-6394576.622030819</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="C86" t="n">
-        <v>4.19</v>
+        <v>4.301</v>
       </c>
       <c r="D86" t="n">
-        <v>4.2</v>
+        <v>4.301</v>
       </c>
       <c r="E86" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="F86" t="n">
-        <v>325115.5775</v>
+        <v>122184.8842</v>
       </c>
       <c r="G86" t="n">
-        <v>-8845712.795818213</v>
+        <v>-6272391.737830819</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.197</v>
+        <v>4.226</v>
       </c>
       <c r="C87" t="n">
-        <v>4.197</v>
+        <v>4.226</v>
       </c>
       <c r="D87" t="n">
-        <v>4.197</v>
+        <v>4.226</v>
       </c>
       <c r="E87" t="n">
-        <v>4.197</v>
+        <v>4.226</v>
       </c>
       <c r="F87" t="n">
-        <v>6898.3414</v>
+        <v>17071.6961</v>
       </c>
       <c r="G87" t="n">
-        <v>-8838814.454418214</v>
+        <v>-6289463.433930819</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.197</v>
+        <v>4.3</v>
       </c>
       <c r="C88" t="n">
-        <v>4.197</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="n">
-        <v>4.197</v>
+        <v>4.3</v>
       </c>
       <c r="E88" t="n">
-        <v>4.197</v>
+        <v>4.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1939.5709</v>
+        <v>29669.4421</v>
       </c>
       <c r="G88" t="n">
-        <v>-8838814.454418214</v>
+        <v>-6259793.991830819</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="C89" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="D89" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="E89" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="F89" t="n">
-        <v>211961.1178</v>
+        <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>-9050775.572218213</v>
+        <v>-6259910.991830819</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.173</v>
+        <v>4.226</v>
       </c>
       <c r="C90" t="n">
-        <v>4.171</v>
+        <v>4.226</v>
       </c>
       <c r="D90" t="n">
-        <v>4.173</v>
+        <v>4.226</v>
       </c>
       <c r="E90" t="n">
-        <v>4.171</v>
+        <v>4.226</v>
       </c>
       <c r="F90" t="n">
-        <v>219713.1388</v>
+        <v>133844.1421</v>
       </c>
       <c r="G90" t="n">
-        <v>-9270488.711018214</v>
+        <v>-6393755.133930819</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.17</v>
+        <v>4.226</v>
       </c>
       <c r="C91" t="n">
-        <v>4.17</v>
+        <v>4.226</v>
       </c>
       <c r="D91" t="n">
-        <v>4.17</v>
+        <v>4.226</v>
       </c>
       <c r="E91" t="n">
-        <v>4.17</v>
+        <v>4.226</v>
       </c>
       <c r="F91" t="n">
-        <v>131601.2824</v>
+        <v>742025.6029000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-9402089.993418215</v>
+        <v>-6393755.133930819</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.173</v>
+        <v>4.27</v>
       </c>
       <c r="C92" t="n">
-        <v>4.173</v>
+        <v>4.272</v>
       </c>
       <c r="D92" t="n">
-        <v>4.173</v>
+        <v>4.273</v>
       </c>
       <c r="E92" t="n">
-        <v>4.173</v>
+        <v>4.27</v>
       </c>
       <c r="F92" t="n">
-        <v>217237.0061</v>
+        <v>94688.3015</v>
       </c>
       <c r="G92" t="n">
-        <v>-9184852.987318214</v>
+        <v>-6299066.832430819</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="C93" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="D93" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="E93" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="F93" t="n">
-        <v>351129.4749</v>
+        <v>16149.0501</v>
       </c>
       <c r="G93" t="n">
-        <v>-8833723.512418214</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="C94" t="n">
-        <v>4.173</v>
+        <v>4.227</v>
       </c>
       <c r="D94" t="n">
-        <v>4.176</v>
+        <v>4.227</v>
       </c>
       <c r="E94" t="n">
-        <v>4.173</v>
+        <v>4.227</v>
       </c>
       <c r="F94" t="n">
-        <v>333573.0011</v>
+        <v>244347.9393</v>
       </c>
       <c r="G94" t="n">
-        <v>-9167296.513518214</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.179</v>
+        <v>4.227</v>
       </c>
       <c r="C95" t="n">
-        <v>4.173</v>
+        <v>4.227</v>
       </c>
       <c r="D95" t="n">
-        <v>4.179</v>
+        <v>4.227</v>
       </c>
       <c r="E95" t="n">
-        <v>4.173</v>
+        <v>4.227</v>
       </c>
       <c r="F95" t="n">
-        <v>191405.3805</v>
+        <v>156810.12</v>
       </c>
       <c r="G95" t="n">
-        <v>-9167296.513518214</v>
+        <v>-6315215.882530819</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="C96" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="D96" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="E96" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="F96" t="n">
-        <v>406.608</v>
+        <v>28130.8993</v>
       </c>
       <c r="G96" t="n">
-        <v>-9166889.905518215</v>
+        <v>-6343346.781830818</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.199</v>
+        <v>4.3</v>
       </c>
       <c r="C97" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E97" t="n">
-        <v>4.199</v>
+        <v>4.3</v>
       </c>
       <c r="F97" t="n">
-        <v>108968.8873</v>
+        <v>4427.8902</v>
       </c>
       <c r="G97" t="n">
-        <v>-9057921.018218216</v>
+        <v>-6338918.891630818</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="C98" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="D98" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="E98" t="n">
-        <v>4.175</v>
+        <v>4.299</v>
       </c>
       <c r="F98" t="n">
-        <v>700813.4941</v>
+        <v>35294.2001</v>
       </c>
       <c r="G98" t="n">
-        <v>-9758734.512318216</v>
+        <v>-6374213.091730818</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.175</v>
+        <v>4.231</v>
       </c>
       <c r="C99" t="n">
-        <v>4.173</v>
+        <v>4.231</v>
       </c>
       <c r="D99" t="n">
-        <v>4.175</v>
+        <v>4.231</v>
       </c>
       <c r="E99" t="n">
-        <v>4.173</v>
+        <v>4.231</v>
       </c>
       <c r="F99" t="n">
-        <v>160732.3343</v>
+        <v>305693.0441</v>
       </c>
       <c r="G99" t="n">
-        <v>-9919466.846618216</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.196</v>
+        <v>4.231</v>
       </c>
       <c r="C100" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="D100" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="E100" t="n">
-        <v>4.196</v>
+        <v>4.231</v>
       </c>
       <c r="F100" t="n">
-        <v>448063.5823</v>
+        <v>317665.3108</v>
       </c>
       <c r="G100" t="n">
-        <v>-9471403.264318217</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="C101" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="D101" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="E101" t="n">
-        <v>4.197</v>
+        <v>4.231</v>
       </c>
       <c r="F101" t="n">
-        <v>665772.8194</v>
+        <v>151279.8164</v>
       </c>
       <c r="G101" t="n">
-        <v>-9471403.264318217</v>
+        <v>-6679906.135830818</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.197</v>
+        <v>4.232</v>
       </c>
       <c r="C102" t="n">
-        <v>4.197</v>
+        <v>4.232</v>
       </c>
       <c r="D102" t="n">
-        <v>4.197</v>
+        <v>4.232</v>
       </c>
       <c r="E102" t="n">
-        <v>4.197</v>
+        <v>4.232</v>
       </c>
       <c r="F102" t="n">
-        <v>1096358.6298</v>
+        <v>109464.371</v>
       </c>
       <c r="G102" t="n">
-        <v>-9471403.264318217</v>
+        <v>-6570441.764830817</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.197</v>
+        <v>4.298</v>
       </c>
       <c r="C103" t="n">
-        <v>4.197</v>
+        <v>4.298</v>
       </c>
       <c r="D103" t="n">
-        <v>4.197</v>
+        <v>4.298</v>
       </c>
       <c r="E103" t="n">
-        <v>4.197</v>
+        <v>4.298</v>
       </c>
       <c r="F103" t="n">
-        <v>453000</v>
+        <v>158.7667</v>
       </c>
       <c r="G103" t="n">
-        <v>-9471403.264318217</v>
+        <v>-6570282.998130818</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.197</v>
+        <v>4.257</v>
       </c>
       <c r="C104" t="n">
-        <v>4.197</v>
+        <v>4.257</v>
       </c>
       <c r="D104" t="n">
-        <v>4.197</v>
+        <v>4.257</v>
       </c>
       <c r="E104" t="n">
-        <v>4.197</v>
+        <v>4.257</v>
       </c>
       <c r="F104" t="n">
-        <v>502.4847</v>
+        <v>80909.538</v>
       </c>
       <c r="G104" t="n">
-        <v>-9471403.264318217</v>
+        <v>-6651192.536130818</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.198</v>
+        <v>4.265</v>
       </c>
       <c r="C105" t="n">
-        <v>4.198</v>
+        <v>4.265</v>
       </c>
       <c r="D105" t="n">
-        <v>4.198</v>
+        <v>4.265</v>
       </c>
       <c r="E105" t="n">
-        <v>4.198</v>
+        <v>4.265</v>
       </c>
       <c r="F105" t="n">
-        <v>119441.2527</v>
+        <v>136.8204</v>
       </c>
       <c r="G105" t="n">
-        <v>-9351962.011618217</v>
+        <v>-6651055.715730818</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.198</v>
+        <v>4.232</v>
       </c>
       <c r="C106" t="n">
-        <v>4.198</v>
+        <v>4.232</v>
       </c>
       <c r="D106" t="n">
-        <v>4.198</v>
+        <v>4.232</v>
       </c>
       <c r="E106" t="n">
-        <v>4.198</v>
+        <v>4.232</v>
       </c>
       <c r="F106" t="n">
-        <v>106651.9688</v>
+        <v>10543.9446</v>
       </c>
       <c r="G106" t="n">
-        <v>-9351962.011618217</v>
+        <v>-6661599.660330818</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.198</v>
+        <v>4.231</v>
       </c>
       <c r="C107" t="n">
-        <v>4.2</v>
+        <v>4.232</v>
       </c>
       <c r="D107" t="n">
-        <v>4.2</v>
+        <v>4.232</v>
       </c>
       <c r="E107" t="n">
-        <v>4.198</v>
+        <v>4.231</v>
       </c>
       <c r="F107" t="n">
-        <v>666722.3108</v>
+        <v>437998.3923</v>
       </c>
       <c r="G107" t="n">
-        <v>-8685239.700818218</v>
+        <v>-6661599.660330818</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.18</v>
+        <v>4.265</v>
       </c>
       <c r="C108" t="n">
-        <v>4.18</v>
+        <v>4.265</v>
       </c>
       <c r="D108" t="n">
-        <v>4.18</v>
+        <v>4.265</v>
       </c>
       <c r="E108" t="n">
-        <v>4.18</v>
+        <v>4.265</v>
       </c>
       <c r="F108" t="n">
-        <v>132489.2824</v>
+        <v>235.4748</v>
       </c>
       <c r="G108" t="n">
-        <v>-8817728.983218219</v>
+        <v>-6661364.185530818</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="C109" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="D109" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="E109" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="F109" t="n">
-        <v>444</v>
+        <v>54510.4315</v>
       </c>
       <c r="G109" t="n">
-        <v>-8817728.983218219</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="C110" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="D110" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="E110" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="F110" t="n">
-        <v>663632.3367</v>
+        <v>90000</v>
       </c>
       <c r="G110" t="n">
-        <v>-8817728.983218219</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.18</v>
+        <v>4.23</v>
       </c>
       <c r="C111" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="D111" t="n">
-        <v>4.18</v>
+        <v>4.231</v>
       </c>
       <c r="E111" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="F111" t="n">
-        <v>12266.2112</v>
+        <v>185802.8545</v>
       </c>
       <c r="G111" t="n">
-        <v>-8817728.983218219</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.2</v>
+        <v>4.231</v>
       </c>
       <c r="C112" t="n">
-        <v>4.2</v>
+        <v>4.231</v>
       </c>
       <c r="D112" t="n">
-        <v>4.2</v>
+        <v>4.231</v>
       </c>
       <c r="E112" t="n">
-        <v>4.2</v>
+        <v>4.231</v>
       </c>
       <c r="F112" t="n">
-        <v>252001.4083</v>
+        <v>746639.3672</v>
       </c>
       <c r="G112" t="n">
-        <v>-8565727.57491822</v>
+        <v>-6715874.617030818</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.2</v>
+        <v>4.265</v>
       </c>
       <c r="C113" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="D113" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="E113" t="n">
-        <v>4.2</v>
+        <v>4.265</v>
       </c>
       <c r="F113" t="n">
-        <v>116714.9338</v>
+        <v>11369.8876</v>
       </c>
       <c r="G113" t="n">
-        <v>-8565727.57491822</v>
+        <v>-6704504.729430818</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.18</v>
+        <v>4.272</v>
       </c>
       <c r="C114" t="n">
-        <v>4.18</v>
+        <v>4.272</v>
       </c>
       <c r="D114" t="n">
-        <v>4.18</v>
+        <v>4.272</v>
       </c>
       <c r="E114" t="n">
-        <v>4.18</v>
+        <v>4.272</v>
       </c>
       <c r="F114" t="n">
-        <v>7388.8888</v>
+        <v>10000</v>
       </c>
       <c r="G114" t="n">
-        <v>-8573116.463718221</v>
+        <v>-6694504.729430818</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="C115" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="D115" t="n">
-        <v>4.18</v>
+        <v>4.226</v>
       </c>
       <c r="E115" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="F115" t="n">
-        <v>271748.6562</v>
+        <v>1369.8876</v>
       </c>
       <c r="G115" t="n">
-        <v>-8844865.11991822</v>
+        <v>-6695874.617030818</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="C116" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="D116" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="E116" t="n">
-        <v>4.172</v>
+        <v>4.226</v>
       </c>
       <c r="F116" t="n">
-        <v>25000</v>
+        <v>72220.323</v>
       </c>
       <c r="G116" t="n">
-        <v>-8844865.11991822</v>
+        <v>-6695874.617030818</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.173</v>
+        <v>4.275</v>
       </c>
       <c r="C117" t="n">
-        <v>4.172</v>
+        <v>4.275</v>
       </c>
       <c r="D117" t="n">
-        <v>4.173</v>
+        <v>4.275</v>
       </c>
       <c r="E117" t="n">
-        <v>4.172</v>
+        <v>4.275</v>
       </c>
       <c r="F117" t="n">
-        <v>280363.7299</v>
+        <v>190.2884</v>
       </c>
       <c r="G117" t="n">
-        <v>-8844865.11991822</v>
+        <v>-6695684.328630818</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.2</v>
+        <v>4.226</v>
       </c>
       <c r="C118" t="n">
-        <v>4.2</v>
+        <v>4.226</v>
       </c>
       <c r="D118" t="n">
-        <v>4.2</v>
+        <v>4.226</v>
       </c>
       <c r="E118" t="n">
-        <v>4.2</v>
+        <v>4.226</v>
       </c>
       <c r="F118" t="n">
-        <v>276030.8015</v>
+        <v>53870.0426</v>
       </c>
       <c r="G118" t="n">
-        <v>-8568834.31841822</v>
+        <v>-6749554.371230818</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="C119" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="D119" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="E119" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="F119" t="n">
-        <v>11267.9634</v>
+        <v>171.4603</v>
       </c>
       <c r="G119" t="n">
-        <v>-8568834.31841822</v>
+        <v>-6749382.910930818</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,28 +4686,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.175</v>
+        <v>4.226</v>
       </c>
       <c r="C120" t="n">
-        <v>4.174</v>
+        <v>4.226</v>
       </c>
       <c r="D120" t="n">
-        <v>4.175</v>
+        <v>4.226</v>
       </c>
       <c r="E120" t="n">
-        <v>4.174</v>
+        <v>4.226</v>
       </c>
       <c r="F120" t="n">
-        <v>486707.6676</v>
+        <v>38773.9616</v>
       </c>
       <c r="G120" t="n">
-        <v>-9055541.98601822</v>
+        <v>-6788156.872530818</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="C121" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="D121" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="E121" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="F121" t="n">
-        <v>50000</v>
+        <v>7801.2072</v>
       </c>
       <c r="G121" t="n">
-        <v>-9055541.98601822</v>
+        <v>-6780355.665330818</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,28 +4758,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="C122" t="n">
-        <v>4.172</v>
+        <v>4.217</v>
       </c>
       <c r="D122" t="n">
-        <v>4.174</v>
+        <v>4.269</v>
       </c>
       <c r="E122" t="n">
-        <v>4.172</v>
+        <v>4.217</v>
       </c>
       <c r="F122" t="n">
-        <v>581100</v>
+        <v>53069.4156</v>
       </c>
       <c r="G122" t="n">
-        <v>-9636641.98601822</v>
+        <v>-6833425.080930818</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.173</v>
+        <v>4.269</v>
       </c>
       <c r="C123" t="n">
-        <v>4.173</v>
+        <v>4.283</v>
       </c>
       <c r="D123" t="n">
-        <v>4.173</v>
+        <v>4.283</v>
       </c>
       <c r="E123" t="n">
-        <v>4.173</v>
+        <v>4.269</v>
       </c>
       <c r="F123" t="n">
-        <v>152007.3938</v>
+        <v>25117.732712607</v>
       </c>
       <c r="G123" t="n">
-        <v>-9484634.59221822</v>
+        <v>-6808307.348218211</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,28 +4830,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.173</v>
+        <v>4.22</v>
       </c>
       <c r="C124" t="n">
-        <v>4.173</v>
+        <v>4.282</v>
       </c>
       <c r="D124" t="n">
-        <v>4.173</v>
+        <v>4.282</v>
       </c>
       <c r="E124" t="n">
-        <v>4.173</v>
+        <v>4.22</v>
       </c>
       <c r="F124" t="n">
-        <v>208273.2273</v>
+        <v>429342.7655</v>
       </c>
       <c r="G124" t="n">
-        <v>-9484634.59221822</v>
+        <v>-7237650.113718211</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.172</v>
+        <v>4.281</v>
       </c>
       <c r="C125" t="n">
-        <v>4.172</v>
+        <v>4.281</v>
       </c>
       <c r="D125" t="n">
-        <v>4.172</v>
+        <v>4.281</v>
       </c>
       <c r="E125" t="n">
-        <v>4.172</v>
+        <v>4.281</v>
       </c>
       <c r="F125" t="n">
-        <v>89459.37940000001</v>
+        <v>41015.087</v>
       </c>
       <c r="G125" t="n">
-        <v>-9574093.97161822</v>
+        <v>-7278665.200718211</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,28 +4902,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.17</v>
+        <v>4.217</v>
       </c>
       <c r="C126" t="n">
-        <v>4.17</v>
+        <v>4.215</v>
       </c>
       <c r="D126" t="n">
-        <v>4.17</v>
+        <v>4.217</v>
       </c>
       <c r="E126" t="n">
-        <v>4.17</v>
+        <v>4.215</v>
       </c>
       <c r="F126" t="n">
-        <v>350000</v>
+        <v>513036.9949</v>
       </c>
       <c r="G126" t="n">
-        <v>-9924093.97161822</v>
+        <v>-7791702.195618211</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.172</v>
+        <v>4.282</v>
       </c>
       <c r="C127" t="n">
-        <v>4.172</v>
+        <v>4.282</v>
       </c>
       <c r="D127" t="n">
-        <v>4.172</v>
+        <v>4.282</v>
       </c>
       <c r="E127" t="n">
-        <v>4.172</v>
+        <v>4.282</v>
       </c>
       <c r="F127" t="n">
-        <v>71728.63619999999</v>
+        <v>124.6442</v>
       </c>
       <c r="G127" t="n">
-        <v>-9852365.335418221</v>
+        <v>-7791577.551418211</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,28 +4974,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.172</v>
+        <v>4.28</v>
       </c>
       <c r="C128" t="n">
-        <v>4.172</v>
+        <v>4.28</v>
       </c>
       <c r="D128" t="n">
-        <v>4.172</v>
+        <v>4.28</v>
       </c>
       <c r="E128" t="n">
-        <v>4.172</v>
+        <v>4.28</v>
       </c>
       <c r="F128" t="n">
-        <v>31860.0619</v>
+        <v>11964.5612</v>
       </c>
       <c r="G128" t="n">
-        <v>-9852365.335418221</v>
+        <v>-7803542.112618212</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.172</v>
+        <v>4.216</v>
       </c>
       <c r="C129" t="n">
-        <v>4.168</v>
+        <v>4.299</v>
       </c>
       <c r="D129" t="n">
-        <v>4.172</v>
+        <v>4.299</v>
       </c>
       <c r="E129" t="n">
-        <v>4.168</v>
+        <v>4.216</v>
       </c>
       <c r="F129" t="n">
-        <v>536232.0639</v>
+        <v>23666.134</v>
       </c>
       <c r="G129" t="n">
-        <v>-10388597.39931822</v>
+        <v>-7779875.978618212</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.168</v>
+        <v>4.261</v>
       </c>
       <c r="C130" t="n">
-        <v>4.166</v>
+        <v>4.261</v>
       </c>
       <c r="D130" t="n">
-        <v>4.168</v>
+        <v>4.261</v>
       </c>
       <c r="E130" t="n">
-        <v>4.166</v>
+        <v>4.261</v>
       </c>
       <c r="F130" t="n">
-        <v>275966.7817</v>
+        <v>1538.5212</v>
       </c>
       <c r="G130" t="n">
-        <v>-10664564.18101822</v>
+        <v>-7781414.499818212</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.166</v>
+        <v>4.259</v>
       </c>
       <c r="C131" t="n">
-        <v>4.166</v>
+        <v>4.259</v>
       </c>
       <c r="D131" t="n">
-        <v>4.166</v>
+        <v>4.259</v>
       </c>
       <c r="E131" t="n">
-        <v>4.166</v>
+        <v>4.259</v>
       </c>
       <c r="F131" t="n">
-        <v>22253.3054</v>
+        <v>7313.1886</v>
       </c>
       <c r="G131" t="n">
-        <v>-10664564.18101822</v>
+        <v>-7788727.688418212</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.165</v>
+        <v>4.216</v>
       </c>
       <c r="C132" t="n">
-        <v>4.16</v>
+        <v>4.216</v>
       </c>
       <c r="D132" t="n">
-        <v>4.165</v>
+        <v>4.216</v>
       </c>
       <c r="E132" t="n">
-        <v>4.16</v>
+        <v>4.216</v>
       </c>
       <c r="F132" t="n">
-        <v>2870.9248</v>
+        <v>896.1783</v>
       </c>
       <c r="G132" t="n">
-        <v>-10667435.10581822</v>
+        <v>-7789623.866718212</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.158</v>
+        <v>4.269</v>
       </c>
       <c r="C133" t="n">
-        <v>4.145</v>
+        <v>4.269</v>
       </c>
       <c r="D133" t="n">
-        <v>4.158</v>
+        <v>4.269</v>
       </c>
       <c r="E133" t="n">
-        <v>4.145</v>
+        <v>4.269</v>
       </c>
       <c r="F133" t="n">
-        <v>866448.0441000001</v>
+        <v>125.0223</v>
       </c>
       <c r="G133" t="n">
-        <v>-11533883.14991822</v>
+        <v>-7789498.844418212</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.145</v>
+        <v>4.267</v>
       </c>
       <c r="C134" t="n">
-        <v>4.12</v>
+        <v>4.267</v>
       </c>
       <c r="D134" t="n">
-        <v>4.145</v>
+        <v>4.267</v>
       </c>
       <c r="E134" t="n">
-        <v>4.12</v>
+        <v>4.267</v>
       </c>
       <c r="F134" t="n">
-        <v>186591.2302</v>
+        <v>125.0223</v>
       </c>
       <c r="G134" t="n">
-        <v>-11720474.38011822</v>
+        <v>-7789623.866718212</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.166</v>
+        <v>4.268</v>
       </c>
       <c r="C135" t="n">
-        <v>4.166</v>
+        <v>4.216</v>
       </c>
       <c r="D135" t="n">
-        <v>4.166</v>
+        <v>4.268</v>
       </c>
       <c r="E135" t="n">
-        <v>4.166</v>
+        <v>4.216</v>
       </c>
       <c r="F135" t="n">
-        <v>161142.3682</v>
+        <v>1600</v>
       </c>
       <c r="G135" t="n">
-        <v>-11559332.01191822</v>
+        <v>-7791223.866718212</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.13</v>
+        <v>4.268</v>
       </c>
       <c r="C136" t="n">
-        <v>4.12</v>
+        <v>4.268</v>
       </c>
       <c r="D136" t="n">
-        <v>4.13</v>
+        <v>4.268</v>
       </c>
       <c r="E136" t="n">
-        <v>4.12</v>
+        <v>4.268</v>
       </c>
       <c r="F136" t="n">
-        <v>161129.9317</v>
+        <v>2596.4185</v>
       </c>
       <c r="G136" t="n">
-        <v>-11720461.94361822</v>
+        <v>-7788627.448218212</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.12</v>
+        <v>4.259</v>
       </c>
       <c r="C137" t="n">
-        <v>4.173</v>
+        <v>4.259</v>
       </c>
       <c r="D137" t="n">
-        <v>4.173</v>
+        <v>4.259</v>
       </c>
       <c r="E137" t="n">
-        <v>4.12</v>
+        <v>4.259</v>
       </c>
       <c r="F137" t="n">
-        <v>88871.103191924</v>
+        <v>22978.925</v>
       </c>
       <c r="G137" t="n">
-        <v>-11631590.8404263</v>
+        <v>-7811606.373218212</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.12</v>
+        <v>4.216</v>
       </c>
       <c r="C138" t="n">
-        <v>4.12</v>
+        <v>4.216</v>
       </c>
       <c r="D138" t="n">
-        <v>4.12</v>
+        <v>4.216</v>
       </c>
       <c r="E138" t="n">
-        <v>4.12</v>
+        <v>4.216</v>
       </c>
       <c r="F138" t="n">
-        <v>23432.4234</v>
+        <v>236.9545</v>
       </c>
       <c r="G138" t="n">
-        <v>-11655023.2638263</v>
+        <v>-7811843.327718212</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.163</v>
+        <v>4.216</v>
       </c>
       <c r="C139" t="n">
-        <v>4.163</v>
+        <v>4.216</v>
       </c>
       <c r="D139" t="n">
-        <v>4.163</v>
+        <v>4.216</v>
       </c>
       <c r="E139" t="n">
-        <v>4.163</v>
+        <v>4.216</v>
       </c>
       <c r="F139" t="n">
-        <v>11710</v>
+        <v>2416.8803</v>
       </c>
       <c r="G139" t="n">
-        <v>-11643313.2638263</v>
+        <v>-7811843.327718212</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.163</v>
+        <v>4.277</v>
       </c>
       <c r="C140" t="n">
-        <v>4.163</v>
+        <v>4.277</v>
       </c>
       <c r="D140" t="n">
-        <v>4.163</v>
+        <v>4.277</v>
       </c>
       <c r="E140" t="n">
-        <v>4.163</v>
+        <v>4.277</v>
       </c>
       <c r="F140" t="n">
-        <v>11710</v>
+        <v>120</v>
       </c>
       <c r="G140" t="n">
-        <v>-11643313.2638263</v>
+        <v>-7811723.327718212</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.172</v>
+        <v>4.219</v>
       </c>
       <c r="C141" t="n">
-        <v>4.172</v>
+        <v>4.215</v>
       </c>
       <c r="D141" t="n">
-        <v>4.172</v>
+        <v>4.219</v>
       </c>
       <c r="E141" t="n">
-        <v>4.172</v>
+        <v>4.215</v>
       </c>
       <c r="F141" t="n">
-        <v>120</v>
+        <v>212487.9824</v>
       </c>
       <c r="G141" t="n">
-        <v>-11643193.2638263</v>
+        <v>-8024211.310118212</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.172</v>
+        <v>4.214</v>
       </c>
       <c r="C142" t="n">
-        <v>4.172</v>
+        <v>4.213</v>
       </c>
       <c r="D142" t="n">
-        <v>4.172</v>
+        <v>4.214</v>
       </c>
       <c r="E142" t="n">
-        <v>4.172</v>
+        <v>4.213</v>
       </c>
       <c r="F142" t="n">
-        <v>43144.774688398</v>
+        <v>141447.1751</v>
       </c>
       <c r="G142" t="n">
-        <v>-11643193.2638263</v>
+        <v>-8165658.485218212</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.172</v>
+        <v>4.212</v>
       </c>
       <c r="C143" t="n">
-        <v>4.172</v>
+        <v>4.21</v>
       </c>
       <c r="D143" t="n">
-        <v>4.172</v>
+        <v>4.212</v>
       </c>
       <c r="E143" t="n">
-        <v>4.172</v>
+        <v>4.21</v>
       </c>
       <c r="F143" t="n">
-        <v>525.1325000000001</v>
+        <v>23738.8269</v>
       </c>
       <c r="G143" t="n">
-        <v>-11643193.2638263</v>
+        <v>-8189397.312118212</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.155</v>
+        <v>4.269</v>
       </c>
       <c r="C144" t="n">
-        <v>4.155</v>
+        <v>4.269</v>
       </c>
       <c r="D144" t="n">
-        <v>4.155</v>
+        <v>4.269</v>
       </c>
       <c r="E144" t="n">
-        <v>4.155</v>
+        <v>4.269</v>
       </c>
       <c r="F144" t="n">
-        <v>180000</v>
+        <v>120</v>
       </c>
       <c r="G144" t="n">
-        <v>-11823193.2638263</v>
+        <v>-8189277.312118212</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
       <c r="C145" t="n">
-        <v>4.15</v>
+        <v>4.204</v>
       </c>
       <c r="D145" t="n">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
       <c r="E145" t="n">
-        <v>4.15</v>
+        <v>4.204</v>
       </c>
       <c r="F145" t="n">
-        <v>6219.3167</v>
+        <v>107240.953</v>
       </c>
       <c r="G145" t="n">
-        <v>-11829412.5805263</v>
+        <v>-8296518.265118212</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.161</v>
+        <v>4.265</v>
       </c>
       <c r="C146" t="n">
-        <v>4.171</v>
+        <v>4.265</v>
       </c>
       <c r="D146" t="n">
-        <v>4.171</v>
+        <v>4.265</v>
       </c>
       <c r="E146" t="n">
-        <v>4.161</v>
+        <v>4.265</v>
       </c>
       <c r="F146" t="n">
-        <v>83066.12940000001</v>
+        <v>118</v>
       </c>
       <c r="G146" t="n">
-        <v>-11746346.4511263</v>
+        <v>-8296400.265118212</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.163</v>
+        <v>4.204</v>
       </c>
       <c r="C147" t="n">
-        <v>4.163</v>
+        <v>4.204</v>
       </c>
       <c r="D147" t="n">
-        <v>4.163</v>
+        <v>4.204</v>
       </c>
       <c r="E147" t="n">
-        <v>4.163</v>
+        <v>4.204</v>
       </c>
       <c r="F147" t="n">
-        <v>10530</v>
+        <v>38246.8885</v>
       </c>
       <c r="G147" t="n">
-        <v>-11756876.4511263</v>
+        <v>-8334647.153618212</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.173</v>
+        <v>4.205</v>
       </c>
       <c r="C148" t="n">
-        <v>4.173</v>
+        <v>4.205</v>
       </c>
       <c r="D148" t="n">
-        <v>4.173</v>
+        <v>4.205</v>
       </c>
       <c r="E148" t="n">
-        <v>4.173</v>
+        <v>4.205</v>
       </c>
       <c r="F148" t="n">
-        <v>120</v>
+        <v>374790.0731</v>
       </c>
       <c r="G148" t="n">
-        <v>-11756756.4511263</v>
+        <v>-7959857.080518212</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.173</v>
+        <v>4.204</v>
       </c>
       <c r="C149" t="n">
-        <v>4.173</v>
+        <v>4.201</v>
       </c>
       <c r="D149" t="n">
-        <v>4.173</v>
+        <v>4.204</v>
       </c>
       <c r="E149" t="n">
-        <v>4.173</v>
+        <v>4.201</v>
       </c>
       <c r="F149" t="n">
-        <v>750</v>
+        <v>268126.8546</v>
       </c>
       <c r="G149" t="n">
-        <v>-11756756.4511263</v>
+        <v>-8227983.935118212</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.173</v>
+        <v>4.2</v>
       </c>
       <c r="C150" t="n">
-        <v>4.173</v>
+        <v>4.2</v>
       </c>
       <c r="D150" t="n">
-        <v>4.173</v>
+        <v>4.2</v>
       </c>
       <c r="E150" t="n">
-        <v>4.173</v>
+        <v>4.2</v>
       </c>
       <c r="F150" t="n">
-        <v>64584.606</v>
+        <v>82173.25199999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-11756756.4511263</v>
+        <v>-8310157.187118213</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.163</v>
+        <v>4.19</v>
       </c>
       <c r="C151" t="n">
-        <v>4.163</v>
+        <v>4.19</v>
       </c>
       <c r="D151" t="n">
-        <v>4.163</v>
+        <v>4.19</v>
       </c>
       <c r="E151" t="n">
-        <v>4.163</v>
+        <v>4.19</v>
       </c>
       <c r="F151" t="n">
-        <v>70090.3836</v>
+        <v>1723.0301</v>
       </c>
       <c r="G151" t="n">
-        <v>-11826846.8347263</v>
+        <v>-8311880.217218213</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +5838,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.125</v>
+        <v>4.18</v>
       </c>
       <c r="C152" t="n">
-        <v>4.125</v>
+        <v>4.171</v>
       </c>
       <c r="D152" t="n">
-        <v>4.125</v>
+        <v>4.18</v>
       </c>
       <c r="E152" t="n">
-        <v>4.125</v>
+        <v>4.171</v>
       </c>
       <c r="F152" t="n">
-        <v>50000</v>
+        <v>484389.2748</v>
       </c>
       <c r="G152" t="n">
-        <v>-11876846.8347263</v>
+        <v>-8796269.492018213</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +5874,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.125</v>
+        <v>4.19</v>
       </c>
       <c r="C153" t="n">
-        <v>4.04</v>
+        <v>4.19</v>
       </c>
       <c r="D153" t="n">
-        <v>4.125</v>
+        <v>4.19</v>
       </c>
       <c r="E153" t="n">
-        <v>4.04</v>
+        <v>4.19</v>
       </c>
       <c r="F153" t="n">
-        <v>615587.3035</v>
+        <v>120</v>
       </c>
       <c r="G153" t="n">
-        <v>-12492434.1382263</v>
+        <v>-8796149.492018213</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +5910,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.125</v>
+        <v>4.172</v>
       </c>
       <c r="C154" t="n">
-        <v>4.115</v>
+        <v>4.172</v>
       </c>
       <c r="D154" t="n">
-        <v>4.125</v>
+        <v>4.172</v>
       </c>
       <c r="E154" t="n">
-        <v>4.115</v>
+        <v>4.172</v>
       </c>
       <c r="F154" t="n">
-        <v>16021</v>
+        <v>94693.12179999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-12476413.1382263</v>
+        <v>-8890842.613818213</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +5946,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.045</v>
+        <v>4.172</v>
       </c>
       <c r="C155" t="n">
-        <v>4.045</v>
+        <v>4.172</v>
       </c>
       <c r="D155" t="n">
-        <v>4.045</v>
+        <v>4.172</v>
       </c>
       <c r="E155" t="n">
-        <v>4.045</v>
+        <v>4.172</v>
       </c>
       <c r="F155" t="n">
-        <v>173532.0607</v>
+        <v>120368.3156</v>
       </c>
       <c r="G155" t="n">
-        <v>-12649945.1989263</v>
+        <v>-8890842.613818213</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +5982,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.105</v>
+        <v>4.19</v>
       </c>
       <c r="C156" t="n">
-        <v>4.105</v>
+        <v>4.19</v>
       </c>
       <c r="D156" t="n">
-        <v>4.105</v>
+        <v>4.19</v>
       </c>
       <c r="E156" t="n">
-        <v>4.105</v>
+        <v>4.19</v>
       </c>
       <c r="F156" t="n">
-        <v>123</v>
+        <v>45129.818</v>
       </c>
       <c r="G156" t="n">
-        <v>-12649822.1989263</v>
+        <v>-8845712.795818213</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6018,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="C157" t="n">
-        <v>4.043</v>
+        <v>4.19</v>
       </c>
       <c r="D157" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="E157" t="n">
-        <v>4.043</v>
+        <v>4.19</v>
       </c>
       <c r="F157" t="n">
-        <v>705147.1588</v>
+        <v>325115.5775</v>
       </c>
       <c r="G157" t="n">
-        <v>-13354969.3577263</v>
+        <v>-8845712.795818213</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6054,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="C158" t="n">
-        <v>4.095</v>
+        <v>4.197</v>
       </c>
       <c r="D158" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="E158" t="n">
-        <v>4.095</v>
+        <v>4.197</v>
       </c>
       <c r="F158" t="n">
-        <v>149135.2807</v>
+        <v>6898.3414</v>
       </c>
       <c r="G158" t="n">
-        <v>-13205834.0770263</v>
+        <v>-8838814.454418214</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6090,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="C159" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="D159" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="E159" t="n">
-        <v>4.105</v>
+        <v>4.197</v>
       </c>
       <c r="F159" t="n">
-        <v>122143.9687</v>
+        <v>1939.5709</v>
       </c>
       <c r="G159" t="n">
-        <v>-13083690.1083263</v>
+        <v>-8838814.454418214</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6126,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.105</v>
+        <v>4.175</v>
       </c>
       <c r="C160" t="n">
-        <v>4.128</v>
+        <v>4.175</v>
       </c>
       <c r="D160" t="n">
-        <v>4.128</v>
+        <v>4.175</v>
       </c>
       <c r="E160" t="n">
-        <v>4.105</v>
+        <v>4.175</v>
       </c>
       <c r="F160" t="n">
-        <v>241543.8336</v>
+        <v>211961.1178</v>
       </c>
       <c r="G160" t="n">
-        <v>-12842146.2747263</v>
+        <v>-9050775.572218213</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6162,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.128</v>
+        <v>4.173</v>
       </c>
       <c r="C161" t="n">
-        <v>4.162</v>
+        <v>4.171</v>
       </c>
       <c r="D161" t="n">
-        <v>4.162</v>
+        <v>4.173</v>
       </c>
       <c r="E161" t="n">
-        <v>4.128</v>
+        <v>4.171</v>
       </c>
       <c r="F161" t="n">
-        <v>20749.996912878</v>
+        <v>219713.1388</v>
       </c>
       <c r="G161" t="n">
-        <v>-12821396.27781342</v>
+        <v>-9270488.711018214</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.115</v>
+        <v>4.17</v>
       </c>
       <c r="C162" t="n">
-        <v>4.115</v>
+        <v>4.17</v>
       </c>
       <c r="D162" t="n">
-        <v>4.115</v>
+        <v>4.17</v>
       </c>
       <c r="E162" t="n">
-        <v>4.115</v>
+        <v>4.17</v>
       </c>
       <c r="F162" t="n">
-        <v>22387.673277588</v>
+        <v>131601.2824</v>
       </c>
       <c r="G162" t="n">
-        <v>-12843783.95109101</v>
+        <v>-9402089.993418215</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.161</v>
+        <v>4.173</v>
       </c>
       <c r="C163" t="n">
-        <v>4.161</v>
+        <v>4.173</v>
       </c>
       <c r="D163" t="n">
-        <v>4.161</v>
+        <v>4.173</v>
       </c>
       <c r="E163" t="n">
-        <v>4.161</v>
+        <v>4.173</v>
       </c>
       <c r="F163" t="n">
-        <v>121</v>
+        <v>217237.0061</v>
       </c>
       <c r="G163" t="n">
-        <v>-12843662.95109101</v>
+        <v>-9184852.987318214</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.161</v>
+        <v>4.176</v>
       </c>
       <c r="C164" t="n">
-        <v>4.162</v>
+        <v>4.176</v>
       </c>
       <c r="D164" t="n">
-        <v>4.162</v>
+        <v>4.176</v>
       </c>
       <c r="E164" t="n">
-        <v>4.161</v>
+        <v>4.176</v>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>351129.4749</v>
       </c>
       <c r="G164" t="n">
-        <v>-12833662.95109101</v>
+        <v>-8833723.512418214</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.08</v>
+        <v>4.176</v>
       </c>
       <c r="C165" t="n">
-        <v>4.151</v>
+        <v>4.173</v>
       </c>
       <c r="D165" t="n">
-        <v>4.151</v>
+        <v>4.176</v>
       </c>
       <c r="E165" t="n">
-        <v>4.08</v>
+        <v>4.173</v>
       </c>
       <c r="F165" t="n">
-        <v>3450.5187</v>
+        <v>333573.0011</v>
       </c>
       <c r="G165" t="n">
-        <v>-12837113.46979101</v>
+        <v>-9167296.513518214</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6342,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.152</v>
+        <v>4.179</v>
       </c>
       <c r="C166" t="n">
-        <v>4.152</v>
+        <v>4.173</v>
       </c>
       <c r="D166" t="n">
-        <v>4.152</v>
+        <v>4.179</v>
       </c>
       <c r="E166" t="n">
-        <v>4.152</v>
+        <v>4.173</v>
       </c>
       <c r="F166" t="n">
-        <v>121</v>
+        <v>191405.3805</v>
       </c>
       <c r="G166" t="n">
-        <v>-12836992.46979101</v>
+        <v>-9167296.513518214</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6378,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.152</v>
+        <v>4.18</v>
       </c>
       <c r="C167" t="n">
-        <v>4.162</v>
+        <v>4.18</v>
       </c>
       <c r="D167" t="n">
-        <v>4.162</v>
+        <v>4.18</v>
       </c>
       <c r="E167" t="n">
-        <v>4.152</v>
+        <v>4.18</v>
       </c>
       <c r="F167" t="n">
-        <v>3210</v>
+        <v>406.608</v>
       </c>
       <c r="G167" t="n">
-        <v>-12833782.46979101</v>
+        <v>-9166889.905518215</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6414,22 +6414,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.116</v>
+        <v>4.199</v>
       </c>
       <c r="C168" t="n">
-        <v>4.116</v>
+        <v>4.2</v>
       </c>
       <c r="D168" t="n">
-        <v>4.116</v>
+        <v>4.2</v>
       </c>
       <c r="E168" t="n">
-        <v>4.116</v>
+        <v>4.199</v>
       </c>
       <c r="F168" t="n">
-        <v>398389.19</v>
+        <v>108968.8873</v>
       </c>
       <c r="G168" t="n">
-        <v>-13232171.65979101</v>
+        <v>-9057921.018218216</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6450,22 +6450,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.116</v>
+        <v>4.175</v>
       </c>
       <c r="C169" t="n">
-        <v>4.11</v>
+        <v>4.175</v>
       </c>
       <c r="D169" t="n">
-        <v>4.116</v>
+        <v>4.175</v>
       </c>
       <c r="E169" t="n">
-        <v>4.11</v>
+        <v>4.175</v>
       </c>
       <c r="F169" t="n">
-        <v>43894.7746</v>
+        <v>700813.4941</v>
       </c>
       <c r="G169" t="n">
-        <v>-13276066.43439101</v>
+        <v>-9758734.512318216</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6486,22 +6486,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.13</v>
+        <v>4.175</v>
       </c>
       <c r="C170" t="n">
-        <v>4.13</v>
+        <v>4.173</v>
       </c>
       <c r="D170" t="n">
-        <v>4.13</v>
+        <v>4.175</v>
       </c>
       <c r="E170" t="n">
-        <v>4.13</v>
+        <v>4.173</v>
       </c>
       <c r="F170" t="n">
-        <v>121</v>
+        <v>160732.3343</v>
       </c>
       <c r="G170" t="n">
-        <v>-13275945.43439101</v>
+        <v>-9919466.846618216</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6522,22 +6522,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.14</v>
+        <v>4.196</v>
       </c>
       <c r="C171" t="n">
-        <v>4.14</v>
+        <v>4.197</v>
       </c>
       <c r="D171" t="n">
-        <v>4.14</v>
+        <v>4.197</v>
       </c>
       <c r="E171" t="n">
-        <v>4.14</v>
+        <v>4.196</v>
       </c>
       <c r="F171" t="n">
-        <v>121</v>
+        <v>448063.5823</v>
       </c>
       <c r="G171" t="n">
-        <v>-13275824.43439101</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="C172" t="n">
-        <v>4.107</v>
+        <v>4.197</v>
       </c>
       <c r="D172" t="n">
-        <v>4.107</v>
+        <v>4.197</v>
       </c>
       <c r="E172" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="F172" t="n">
-        <v>42500</v>
+        <v>665772.8194</v>
       </c>
       <c r="G172" t="n">
-        <v>-13318324.43439101</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,22 +6594,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="C173" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="D173" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="E173" t="n">
-        <v>4.081</v>
+        <v>4.197</v>
       </c>
       <c r="F173" t="n">
-        <v>42491.3851</v>
+        <v>1096358.6298</v>
       </c>
       <c r="G173" t="n">
-        <v>-13360815.81949101</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6630,22 +6630,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.092</v>
+        <v>4.197</v>
       </c>
       <c r="C174" t="n">
-        <v>4.071</v>
+        <v>4.197</v>
       </c>
       <c r="D174" t="n">
-        <v>4.092</v>
+        <v>4.197</v>
       </c>
       <c r="E174" t="n">
-        <v>4.071</v>
+        <v>4.197</v>
       </c>
       <c r="F174" t="n">
-        <v>1807242.5375</v>
+        <v>453000</v>
       </c>
       <c r="G174" t="n">
-        <v>-15168058.35699101</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6666,22 +6666,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.106</v>
+        <v>4.197</v>
       </c>
       <c r="C175" t="n">
-        <v>4.106</v>
+        <v>4.197</v>
       </c>
       <c r="D175" t="n">
-        <v>4.106</v>
+        <v>4.197</v>
       </c>
       <c r="E175" t="n">
-        <v>4.106</v>
+        <v>4.197</v>
       </c>
       <c r="F175" t="n">
-        <v>422.9149</v>
+        <v>502.4847</v>
       </c>
       <c r="G175" t="n">
-        <v>-15167635.44209101</v>
+        <v>-9471403.264318217</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,22 +6702,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.106</v>
+        <v>4.198</v>
       </c>
       <c r="C176" t="n">
-        <v>4.106</v>
+        <v>4.198</v>
       </c>
       <c r="D176" t="n">
-        <v>4.106</v>
+        <v>4.198</v>
       </c>
       <c r="E176" t="n">
-        <v>4.106</v>
+        <v>4.198</v>
       </c>
       <c r="F176" t="n">
-        <v>90545.834</v>
+        <v>119441.2527</v>
       </c>
       <c r="G176" t="n">
-        <v>-15167635.44209101</v>
+        <v>-9351962.011618217</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6738,22 +6738,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.107</v>
+        <v>4.198</v>
       </c>
       <c r="C177" t="n">
-        <v>4.107</v>
+        <v>4.198</v>
       </c>
       <c r="D177" t="n">
-        <v>4.107</v>
+        <v>4.198</v>
       </c>
       <c r="E177" t="n">
-        <v>4.107</v>
+        <v>4.198</v>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>106651.9688</v>
       </c>
       <c r="G177" t="n">
-        <v>-15157635.44209101</v>
+        <v>-9351962.011618217</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6774,22 +6774,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.125</v>
+        <v>4.198</v>
       </c>
       <c r="C178" t="n">
-        <v>4.107</v>
+        <v>4.2</v>
       </c>
       <c r="D178" t="n">
-        <v>4.125</v>
+        <v>4.2</v>
       </c>
       <c r="E178" t="n">
-        <v>4.107</v>
+        <v>4.198</v>
       </c>
       <c r="F178" t="n">
-        <v>172490.5576</v>
+        <v>666722.3108</v>
       </c>
       <c r="G178" t="n">
-        <v>-15157635.44209101</v>
+        <v>-8685239.700818218</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6810,22 +6810,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="C179" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="D179" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="E179" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="F179" t="n">
-        <v>108337.442</v>
+        <v>132489.2824</v>
       </c>
       <c r="G179" t="n">
-        <v>-15265972.88409101</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6846,22 +6846,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="C180" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="D180" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="E180" t="n">
-        <v>4.091</v>
+        <v>4.18</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1032</v>
+        <v>444</v>
       </c>
       <c r="G180" t="n">
-        <v>-15265972.88409101</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6882,22 +6882,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="C181" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="D181" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="E181" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="F181" t="n">
-        <v>25602.7258</v>
+        <v>663632.3367</v>
       </c>
       <c r="G181" t="n">
-        <v>-15291575.60989101</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="C182" t="n">
-        <v>4.056</v>
+        <v>4.18</v>
       </c>
       <c r="D182" t="n">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="E182" t="n">
-        <v>4.056</v>
+        <v>4.18</v>
       </c>
       <c r="F182" t="n">
-        <v>398916.1809</v>
+        <v>12266.2112</v>
       </c>
       <c r="G182" t="n">
-        <v>-15690491.79079101</v>
+        <v>-8817728.983218219</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6954,22 +6954,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="C183" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="D183" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="E183" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="F183" t="n">
-        <v>123</v>
+        <v>252001.4083</v>
       </c>
       <c r="G183" t="n">
-        <v>-15690368.79079101</v>
+        <v>-8565727.57491822</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6990,22 +6990,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="C184" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="D184" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="E184" t="n">
-        <v>4.081</v>
+        <v>4.2</v>
       </c>
       <c r="F184" t="n">
-        <v>518.669</v>
+        <v>116714.9338</v>
       </c>
       <c r="G184" t="n">
-        <v>-15690368.79079101</v>
+        <v>-8565727.57491822</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7026,22 +7026,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="C185" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="D185" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="E185" t="n">
-        <v>4.081</v>
+        <v>4.18</v>
       </c>
       <c r="F185" t="n">
-        <v>270.8299</v>
+        <v>7388.8888</v>
       </c>
       <c r="G185" t="n">
-        <v>-15690368.79079101</v>
+        <v>-8573116.463718221</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7062,22 +7062,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.06</v>
+        <v>4.18</v>
       </c>
       <c r="C186" t="n">
-        <v>4.06</v>
+        <v>4.172</v>
       </c>
       <c r="D186" t="n">
-        <v>4.06</v>
+        <v>4.18</v>
       </c>
       <c r="E186" t="n">
-        <v>4.06</v>
+        <v>4.172</v>
       </c>
       <c r="F186" t="n">
-        <v>151.507</v>
+        <v>271748.6562</v>
       </c>
       <c r="G186" t="n">
-        <v>-15690520.29779101</v>
+        <v>-8844865.11991822</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7098,588 +7098,3170 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F187" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-8844865.11991822</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F188" t="n">
+        <v>280363.7299</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-8844865.11991822</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>276030.8015</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-8568834.31841822</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11267.9634</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-8568834.31841822</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.175</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.175</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="F191" t="n">
+        <v>486707.6676</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-9055541.98601822</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="F192" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-9055541.98601822</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F193" t="n">
+        <v>581100</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-9636641.98601822</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="F194" t="n">
+        <v>152007.3938</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-9484634.59221822</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="F195" t="n">
+        <v>208273.2273</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-9484634.59221822</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F196" t="n">
+        <v>89459.37940000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-9574093.97161822</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F197" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-9924093.97161822</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F198" t="n">
+        <v>71728.63619999999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-9852365.335418221</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F199" t="n">
+        <v>31860.0619</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-9852365.335418221</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="F200" t="n">
+        <v>536232.0639</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-10388597.39931822</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="F201" t="n">
+        <v>275966.7817</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-10664564.18101822</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22253.3054</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-10664564.18101822</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.165</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.165</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2870.9248</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-10667435.10581822</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="F204" t="n">
+        <v>866448.0441000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-11533883.14991822</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F205" t="n">
+        <v>186591.2302</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-11720474.38011822</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="F206" t="n">
+        <v>161142.3682</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-11559332.01191822</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F207" t="n">
+        <v>161129.9317</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-11720461.94361822</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F208" t="n">
+        <v>88871.103191924</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-11631590.8404263</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F209" t="n">
+        <v>23432.4234</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-11655023.2638263</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11710</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-11643313.2638263</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11710</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-11643313.2638263</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F212" t="n">
+        <v>120</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-11643193.2638263</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F213" t="n">
+        <v>43144.774688398</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-11643193.2638263</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.172</v>
+      </c>
+      <c r="F214" t="n">
+        <v>525.1325000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-11643193.2638263</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="F215" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-11823193.2638263</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6219.3167</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-11829412.5805263</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="F217" t="n">
+        <v>83066.12940000001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-11746346.4511263</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="F218" t="n">
+        <v>10530</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-11756876.4511263</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="F219" t="n">
+        <v>120</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-11756756.4511263</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="F220" t="n">
+        <v>750</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-11756756.4511263</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="F221" t="n">
+        <v>64584.606</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-11756756.4511263</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="F222" t="n">
+        <v>70090.3836</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-11826846.8347263</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="F223" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-11876846.8347263</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F224" t="n">
+        <v>615587.3035</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-12492434.1382263</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="F225" t="n">
+        <v>16021</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-12476413.1382263</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="F226" t="n">
+        <v>173532.0607</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-12649945.1989263</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="F227" t="n">
+        <v>123</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-12649822.1989263</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="F228" t="n">
+        <v>705147.1588</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-13354969.3577263</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="F229" t="n">
+        <v>149135.2807</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-13205834.0770263</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="F230" t="n">
+        <v>122143.9687</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-13083690.1083263</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="F231" t="n">
+        <v>241543.8336</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-12842146.2747263</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20749.996912878</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-12821396.27781342</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="F233" t="n">
+        <v>22387.673277588</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-12843783.95109101</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="F234" t="n">
+        <v>121</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-12843662.95109101</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="F235" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-12833662.95109101</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3450.5187</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-12837113.46979101</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="F237" t="n">
+        <v>121</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-12836992.46979101</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3210</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-12833782.46979101</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="F239" t="n">
+        <v>398389.19</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-13232171.65979101</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F240" t="n">
+        <v>43894.7746</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-13276066.43439101</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>121</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-13275945.43439101</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F242" t="n">
+        <v>121</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-13275824.43439101</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F243" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-13318324.43439101</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F244" t="n">
+        <v>42491.3851</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-13360815.81949101</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1807242.5375</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-15168058.35699101</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F246" t="n">
+        <v>422.9149</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-15167635.44209101</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F247" t="n">
+        <v>90545.834</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-15167635.44209101</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F248" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-15157635.44209101</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F249" t="n">
+        <v>172490.5576</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-15157635.44209101</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F250" t="n">
+        <v>108337.442</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F252" t="n">
+        <v>25602.7258</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-15291575.60989101</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="F253" t="n">
+        <v>398916.1809</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-15690491.79079101</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F254" t="n">
+        <v>123</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F255" t="n">
+        <v>518.669</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F256" t="n">
+        <v>270.8299</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F257" t="n">
+        <v>151.507</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-15690520.29779101</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="K257" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
         <v>4.062</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C258" t="n">
         <v>4.06</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D258" t="n">
         <v>4.062</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E258" t="n">
         <v>4.06</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F258" t="n">
         <v>577903.8021</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G258" t="n">
         <v>-15690520.29779101</v>
       </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
         <v>4.06</v>
       </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="K258" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
         <v>4.06</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C259" t="n">
         <v>4.056</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D259" t="n">
         <v>4.06</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E259" t="n">
         <v>4.056</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F259" t="n">
         <v>186124.4167</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G259" t="n">
         <v>-15876644.71449101</v>
       </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
         <v>4.06</v>
       </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="K259" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
         <v>4.056</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C260" t="n">
         <v>4.056</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D260" t="n">
         <v>4.056</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E260" t="n">
         <v>4.056</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F260" t="n">
         <v>237778.3265</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G260" t="n">
         <v>-15876644.71449101</v>
       </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
         <v>4.056</v>
       </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="K260" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
         <v>4.081</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C261" t="n">
         <v>4.081</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D261" t="n">
         <v>4.081</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E261" t="n">
         <v>4.081</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F261" t="n">
         <v>123</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G261" t="n">
         <v>-15876521.71449101</v>
       </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
         <v>4.056</v>
       </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="K261" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
         <v>4.081</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C262" t="n">
         <v>4.081</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D262" t="n">
         <v>4.081</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E262" t="n">
         <v>4.081</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F262" t="n">
         <v>21906.5905</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G262" t="n">
         <v>-15876521.71449101</v>
       </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
         <v>4.081</v>
       </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="K262" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
         <v>4.091</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C263" t="n">
         <v>4.091</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D263" t="n">
         <v>4.091</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E263" t="n">
         <v>4.091</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F263" t="n">
         <v>49999.8968</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G263" t="n">
         <v>-15826521.81769101</v>
       </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
         <v>4.081</v>
       </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="K263" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
         <v>4.095</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C264" t="n">
         <v>4.105</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D264" t="n">
         <v>4.105</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E264" t="n">
         <v>4.095</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F264" t="n">
         <v>94920</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G264" t="n">
         <v>-15731601.81769101</v>
       </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
         <v>4.091</v>
       </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="K264" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
         <v>4.104</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C265" t="n">
         <v>4.104</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D265" t="n">
         <v>4.104</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E265" t="n">
         <v>4.104</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F265" t="n">
         <v>108270</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G265" t="n">
         <v>-15839871.81769101</v>
       </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
         <v>4.105</v>
       </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="K265" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
         <v>4.105</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C266" t="n">
         <v>4.105</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D266" t="n">
         <v>4.105</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E266" t="n">
         <v>4.105</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F266" t="n">
         <v>15000</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G266" t="n">
         <v>-15824871.81769101</v>
       </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
         <v>4.104</v>
       </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="K266" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
         <v>4.105</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C267" t="n">
         <v>4.105</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D267" t="n">
         <v>4.105</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E267" t="n">
         <v>4.105</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F267" t="n">
         <v>60749.4054</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G267" t="n">
         <v>-15824871.81769101</v>
       </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
         <v>4.105</v>
       </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="K267" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
         <v>4.105</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C268" t="n">
         <v>4.105</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D268" t="n">
         <v>4.105</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E268" t="n">
         <v>4.105</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F268" t="n">
         <v>235223.1838</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G268" t="n">
         <v>-15824871.81769101</v>
       </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
         <v>4.105</v>
       </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="K268" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
         <v>4.105</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C269" t="n">
         <v>4.105</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D269" t="n">
         <v>4.105</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E269" t="n">
         <v>4.105</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F269" t="n">
         <v>3322.9016</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G269" t="n">
         <v>-15824871.81769101</v>
       </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
         <v>4.105</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C270" t="n">
         <v>4.105</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D270" t="n">
         <v>4.105</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E270" t="n">
         <v>4.105</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F270" t="n">
         <v>3997.1285</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G270" t="n">
         <v>-15824871.81769101</v>
       </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
         <v>4.105</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C271" t="n">
         <v>4.12</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D271" t="n">
         <v>4.12</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E271" t="n">
         <v>4.105</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F271" t="n">
         <v>471503.2378</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G271" t="n">
         <v>-15353368.57989101</v>
       </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-3466267.6749</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-3637233.7849</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-3782981.8874</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-4760808.229700001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-6143363.194200002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-6179086.014200002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-6330413.530900002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-6190320.962600001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-6296090.845500001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-6295974.845500001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-6364004.818200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-6423649.454500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-7212889.265400002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-6061172.045800002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-6021414.617100002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-6362110.426591651</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-6597179.57759165</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-6343346.781830818</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-6651055.715730818</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-6661599.660330818</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>-6715874.617030818</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-6715874.617030818</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-7237650.113718211</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-7278665.200718211</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>-7791702.195618211</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-7803542.112618212</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>-7779875.978618212</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>-7781414.499818212</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-7788727.688418212</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>-7789623.866718212</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>-7789498.844418212</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>-7791223.866718212</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>-7811606.373218212</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>-7811843.327718212</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-7811843.327718212</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,15 @@
         <v>-8024211.310118212</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-8189397.312118212</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>-8296518.265118212</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>-8334647.153618212</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,15 @@
         <v>-7959857.080518212</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-8227983.935118212</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>-8311880.217218213</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>-9270488.711018214</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6864,18 +6325,15 @@
         <v>-8817728.983218219</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9492,18 +8734,21 @@
         <v>-15690491.79079101</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>4.081</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9528,18 +8773,21 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>4.056</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9564,18 +8812,21 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>4.081</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9600,18 +8851,21 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>4.081</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9636,22 +8890,21 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
         <v>4.081</v>
       </c>
-      <c r="K257" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9676,26 +8929,21 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
         <v>4.06</v>
       </c>
-      <c r="K258" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9720,26 +8968,21 @@
         <v>-15876644.71449101</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
         <v>4.06</v>
       </c>
-      <c r="K259" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9764,26 +9007,19 @@
         <v>-15876644.71449101</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="K260" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L260" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9808,26 +9044,21 @@
         <v>-15876521.71449101</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
         <v>4.056</v>
       </c>
-      <c r="K261" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9852,26 +9083,21 @@
         <v>-15876521.71449101</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
         <v>4.081</v>
       </c>
-      <c r="K262" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9896,26 +9122,21 @@
         <v>-15826521.81769101</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
         <v>4.081</v>
       </c>
-      <c r="K263" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9940,26 +9161,21 @@
         <v>-15731601.81769101</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
         <v>4.091</v>
       </c>
-      <c r="K264" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9984,26 +9200,19 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K265" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L265" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10028,26 +9237,21 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
         <v>4.104</v>
       </c>
-      <c r="K266" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10072,26 +9276,19 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K267" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L267" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10116,26 +9313,19 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="K268" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L268" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10160,24 +9350,21 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>4.105</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10204,22 +9391,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10246,24 +9428,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3466267.6749</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3637233.7849</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3782981.8874</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3800850.3557</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4045614.2195</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4760808.229700001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4760808.229700001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6155736.989300001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6143479.194200002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6143363.194200002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6143363.194200002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6179086.014200002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-6179086.014200002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6330413.530900002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6157850.878500002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6190320.962600001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6296090.845500001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6295974.845500001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6364120.818200001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6364004.818200001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6423649.454500001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6481048.801900001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5839807.256500001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5913683.683400001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5913683.683400001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6126741.927100001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7074441.364800001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-7095990.108800001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-7212889.265400002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6061172.045800002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6021414.617100002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6362110.426591651</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6597179.57759165</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6343346.781830818</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-6651055.715730818</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-6661599.660330818</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6715874.617030818</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-6715874.617030818</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-7237650.113718211</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7278665.200718211</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7791702.195618211</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7803542.112618212</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7779875.978618212</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7781414.499818212</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7788727.688418212</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7789623.866718212</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7789498.844418212</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7791223.866718212</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-7811606.373218212</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-7811843.327718212</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-7811843.327718212</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-8024211.310118212</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-8189397.312118212</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-8296518.265118212</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-8334647.153618212</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-7959857.080518212</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8227983.935118212</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8311880.217218213</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-9270488.711018214</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-8817728.983218219</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -8074,10 +8074,14 @@
         <v>-12843783.95109101</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="J233" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8110,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8153,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8192,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8231,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8270,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8348,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8387,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8426,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8504,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8540,19 @@
         <v>-15168058.35699101</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="J245" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8584,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8662,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8818,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,15 +8854,17 @@
         <v>-15690491.79079101</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>4.081</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8773,12 +8895,14 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>4.056</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,12 +8936,14 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>4.081</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8851,12 +8977,14 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>4.081</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,12 +9018,14 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>4.081</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,12 +9059,14 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>4.06</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,12 +9100,14 @@
         <v>-15876644.71449101</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>4.06</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,10 +9141,14 @@
         <v>-15876644.71449101</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="J260" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9044,12 +9182,14 @@
         <v>-15876521.71449101</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>4.056</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9083,12 +9223,14 @@
         <v>-15876521.71449101</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>4.081</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9122,12 +9264,14 @@
         <v>-15826521.81769101</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>4.081</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9161,12 +9305,14 @@
         <v>-15731601.81769101</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>4.091</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9200,10 +9346,14 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J265" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,12 +9387,12 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,10 +9426,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9316,7 +9470,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,12 +9506,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>4.105</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,10 +9547,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J270" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,7 +9591,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4.162</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,6 +9605,6 @@
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3466267.6749</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3637233.7849</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3782981.8874</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3800850.3557</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4045614.2195</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4760808.229700001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4760808.229700001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6155736.989300001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6143479.194200002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6143363.194200002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6143363.194200002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6179086.014200002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-6179086.014200002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6330413.530900002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6157850.878500002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6190320.962600001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6296090.845500001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6295974.845500001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6364120.818200001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6364004.818200001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6423649.454500001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6481048.801900001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5839807.256500001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5913683.683400001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6126741.927100001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7074441.364800001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-7095990.108800001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6137201.734200003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-6289463.433930819</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6570441.764830817</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-6570282.998130818</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-6694504.729430818</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-6749554.371230818</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-6749382.910930818</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6788156.872530818</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6780355.665330818</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6833425.080930818</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -8074,14 +8074,10 @@
         <v>-12843783.95109101</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8114,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8153,925 +8143,773 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3450.5187</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-12837113.46979101</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="F237" t="n">
+        <v>121</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-12836992.46979101</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="C238" t="n">
         <v>4.162</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="D238" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3210</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-12833782.46979101</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="F239" t="n">
+        <v>398389.19</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-13232171.65979101</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F240" t="n">
+        <v>43894.7746</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-13276066.43439101</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>121</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-13275945.43439101</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F242" t="n">
+        <v>121</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-13275824.43439101</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F243" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-13318324.43439101</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F244" t="n">
+        <v>42491.3851</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-13360815.81949101</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1807242.5375</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-15168058.35699101</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F246" t="n">
+        <v>422.9149</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-15167635.44209101</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F247" t="n">
+        <v>90545.834</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-15167635.44209101</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F248" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-15157635.44209101</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F249" t="n">
+        <v>172490.5576</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-15157635.44209101</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F250" t="n">
+        <v>108337.442</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-15265972.88409101</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F252" t="n">
+        <v>25602.7258</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-15291575.60989101</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="F253" t="n">
+        <v>398916.1809</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-15690491.79079101</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E254" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F254" t="n">
+        <v>123</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E255" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F255" t="n">
+        <v>518.669</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F256" t="n">
+        <v>270.8299</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-15690368.79079101</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F257" t="n">
+        <v>151.507</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-15690520.29779101</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D258" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F258" t="n">
+        <v>577903.8021</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-15690520.29779101</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.151</v>
-      </c>
-      <c r="D236" t="n">
-        <v>4.151</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3450.5187</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-12837113.46979101</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="F237" t="n">
-        <v>121</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-12836992.46979101</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="F238" t="n">
-        <v>3210</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-12833782.46979101</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="F239" t="n">
-        <v>398389.19</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-13232171.65979101</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F240" t="n">
-        <v>43894.7746</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-13276066.43439101</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D241" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E241" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F241" t="n">
-        <v>121</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-13275945.43439101</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D242" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E242" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F242" t="n">
-        <v>121</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-13275824.43439101</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C243" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D243" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="E243" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F243" t="n">
-        <v>42500</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-13318324.43439101</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C244" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D244" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E244" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F244" t="n">
-        <v>42491.3851</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-13360815.81949101</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="C245" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="D245" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="E245" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1807242.5375</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-15168058.35699101</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J245" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="C246" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="D246" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="E246" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="F246" t="n">
-        <v>422.9149</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="C247" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="D247" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="E247" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="F247" t="n">
-        <v>90545.834</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="C248" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="E248" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F248" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D249" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="E249" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F249" t="n">
-        <v>172490.5576</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="C250" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="D250" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="E250" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="F250" t="n">
-        <v>108337.442</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="C251" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="D251" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="E251" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0.1032</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D252" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E252" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F252" t="n">
-        <v>25602.7258</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-15291575.60989101</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C253" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="D253" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E253" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="F253" t="n">
-        <v>398916.1809</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-15690491.79079101</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J253" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C254" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D254" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E254" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F254" t="n">
-        <v>123</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="J254" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D255" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E255" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F255" t="n">
-        <v>518.669</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J255" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="D256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="E256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F256" t="n">
-        <v>270.8299</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C257" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D257" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E257" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F257" t="n">
-        <v>151.507</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J257" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="C258" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D258" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="E258" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F258" t="n">
-        <v>577903.8021</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J258" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9105,9 +8943,7 @@
       <c r="I259" t="n">
         <v>4.06</v>
       </c>
-      <c r="J259" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,9 +8982,7 @@
       <c r="I260" t="n">
         <v>4.056</v>
       </c>
-      <c r="J260" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9187,9 +9021,7 @@
       <c r="I261" t="n">
         <v>4.056</v>
       </c>
-      <c r="J261" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,9 +9060,7 @@
       <c r="I262" t="n">
         <v>4.081</v>
       </c>
-      <c r="J262" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,9 +9099,7 @@
       <c r="I263" t="n">
         <v>4.081</v>
       </c>
-      <c r="J263" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9310,9 +9138,7 @@
       <c r="I264" t="n">
         <v>4.091</v>
       </c>
-      <c r="J264" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,14 +9172,10 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J265" t="n">
-        <v>4.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,14 +9246,10 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J267" t="n">
-        <v>4.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,9 +9286,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9506,14 +9320,10 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J269" t="n">
-        <v>4.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9547,14 +9357,10 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J270" t="n">
-        <v>4.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9591,9 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>4.162</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,6 +9409,6 @@
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -484,7 +484,7 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3782981.8874</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3800850.3557</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4045614.2195</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6143479.194200002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6330413.530900002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6364120.818200001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6364004.818200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6423649.454500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6137201.734200003</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-6289463.433930819</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6570441.764830817</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-6570282.998130818</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-6694504.729430818</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-6749554.371230818</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-6749382.910930818</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6788156.872530818</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6780355.665330818</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6833425.080930818</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -8833,10 +8833,14 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="J256" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -8866,11 +8870,19 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="J257" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8904,7 +8916,9 @@
       <c r="I258" t="n">
         <v>4.06</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8943,7 +8957,9 @@
       <c r="I259" t="n">
         <v>4.06</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,7 +8998,9 @@
       <c r="I260" t="n">
         <v>4.056</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,7 +9039,9 @@
       <c r="I261" t="n">
         <v>4.056</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9060,7 +9080,9 @@
       <c r="I262" t="n">
         <v>4.081</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,7 +9121,9 @@
       <c r="I263" t="n">
         <v>4.081</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9138,7 +9162,9 @@
       <c r="I264" t="n">
         <v>4.091</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,10 +9198,14 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J265" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,10 +9239,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J266" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,10 +9280,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,10 +9321,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J268" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9320,10 +9362,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J269" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,10 +9403,14 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J270" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9394,10 +9444,14 @@
         <v>-15353368.57989101</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J271" t="n">
+        <v>4.081</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest PLY.xlsx
+++ b/BackTest/2020-01-15 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>91540.4955</v>
       </c>
       <c r="G2" t="n">
-        <v>-3466267.6749</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>171086.11</v>
       </c>
       <c r="G3" t="n">
-        <v>-3637353.7849</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>-3637233.7849</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>6426.6397</v>
       </c>
       <c r="G5" t="n">
-        <v>-3643660.4246</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>116</v>
       </c>
       <c r="G6" t="n">
-        <v>-3643544.4246</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12000</v>
       </c>
       <c r="G7" t="n">
-        <v>-3643544.4246</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>139553.4628</v>
       </c>
       <c r="G8" t="n">
-        <v>-3783097.8874</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6748.2306</v>
       </c>
       <c r="G9" t="n">
-        <v>-3783097.8874</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>247589.7393</v>
       </c>
       <c r="G10" t="n">
-        <v>-3783097.8874</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>116</v>
       </c>
       <c r="G11" t="n">
-        <v>-3782981.8874</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>69506.425</v>
       </c>
       <c r="G12" t="n">
-        <v>-3852488.3124</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>51637.9567</v>
       </c>
       <c r="G13" t="n">
-        <v>-3800850.3557</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>244763.8638</v>
       </c>
       <c r="G14" t="n">
-        <v>-4045614.2195</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>723972.0379</v>
       </c>
       <c r="G15" t="n">
-        <v>-4769586.2574</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>57835.7534</v>
       </c>
       <c r="G16" t="n">
-        <v>-4711750.504000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>52146.8864</v>
       </c>
       <c r="G17" t="n">
-        <v>-4711750.504000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>62136.2539</v>
       </c>
       <c r="G18" t="n">
-        <v>-4711750.504000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>49057.7257</v>
       </c>
       <c r="G19" t="n">
-        <v>-4760808.229700001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>371.3159</v>
       </c>
       <c r="G20" t="n">
-        <v>-4760808.229700001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1394928.7596</v>
       </c>
       <c r="G21" t="n">
-        <v>-6155736.989300001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>12257.7951</v>
       </c>
       <c r="G22" t="n">
-        <v>-6143479.194200002</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>116</v>
       </c>
       <c r="G23" t="n">
-        <v>-6143363.194200002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2616.946</v>
       </c>
       <c r="G24" t="n">
-        <v>-6143363.194200002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>35722.82</v>
       </c>
       <c r="G25" t="n">
-        <v>-6179086.014200002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>92277.17999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-6179086.014200002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>151327.5167</v>
       </c>
       <c r="G27" t="n">
-        <v>-6330413.530900002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>172562.6524</v>
       </c>
       <c r="G28" t="n">
-        <v>-6157850.878500002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>39451.999</v>
       </c>
       <c r="G29" t="n">
-        <v>-6197302.877500001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>66109.6188</v>
       </c>
       <c r="G30" t="n">
-        <v>-6197302.877500001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>6981.9149</v>
       </c>
       <c r="G31" t="n">
-        <v>-6190320.962600001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>105769.8829</v>
       </c>
       <c r="G32" t="n">
-        <v>-6296090.845500001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>116</v>
       </c>
       <c r="G33" t="n">
-        <v>-6295974.845500001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>68145.9727</v>
       </c>
       <c r="G34" t="n">
-        <v>-6364120.818200001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>116</v>
       </c>
       <c r="G35" t="n">
-        <v>-6364004.818200001</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>59644.6363</v>
       </c>
       <c r="G36" t="n">
-        <v>-6423649.454500001</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>116</v>
       </c>
       <c r="G37" t="n">
-        <v>-6423533.454500001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>57515.3474</v>
       </c>
       <c r="G38" t="n">
-        <v>-6481048.801900001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>165140.4494</v>
       </c>
       <c r="G39" t="n">
-        <v>-6481048.801900001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>364485.557</v>
       </c>
       <c r="G40" t="n">
-        <v>-6845534.358900001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>62491.5817</v>
       </c>
       <c r="G41" t="n">
-        <v>-6908025.940600001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1068218.6841</v>
       </c>
       <c r="G42" t="n">
-        <v>-5839807.256500001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>73876.42690000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-5913683.683400001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>65520.1283</v>
       </c>
       <c r="G44" t="n">
-        <v>-5913683.683400001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>213175.2437</v>
       </c>
       <c r="G45" t="n">
-        <v>-6126858.927100001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>117</v>
       </c>
       <c r="G46" t="n">
-        <v>-6126741.927100001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>708127.1565</v>
       </c>
       <c r="G47" t="n">
-        <v>-6834869.083600001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>286599.3068</v>
       </c>
       <c r="G48" t="n">
-        <v>-7121468.390400002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>47027.0256</v>
       </c>
       <c r="G49" t="n">
-        <v>-7074441.364800001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>21548.744</v>
       </c>
       <c r="G50" t="n">
-        <v>-7095990.108800001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>131.4543</v>
       </c>
       <c r="G51" t="n">
-        <v>-7096121.563100002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>306568.693</v>
       </c>
       <c r="G52" t="n">
-        <v>-7402690.256100002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>189683.9907</v>
       </c>
       <c r="G53" t="n">
-        <v>-7213006.265400002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>117</v>
       </c>
       <c r="G54" t="n">
-        <v>-7212889.265400002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1151600.2196</v>
       </c>
       <c r="G55" t="n">
-        <v>-6061289.045800002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>117</v>
       </c>
       <c r="G56" t="n">
-        <v>-6061172.045800002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>30313.9581</v>
       </c>
       <c r="G57" t="n">
-        <v>-6091486.003900003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>293769.3512</v>
       </c>
       <c r="G58" t="n">
-        <v>-5797716.652700002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>342031.6724</v>
       </c>
       <c r="G59" t="n">
-        <v>-6139748.325100002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>252507.5451</v>
       </c>
       <c r="G60" t="n">
-        <v>-5887240.780000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>119</v>
       </c>
       <c r="G61" t="n">
-        <v>-5887121.780000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>134292.8371</v>
       </c>
       <c r="G62" t="n">
-        <v>-6021414.617100002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>115787.1171</v>
       </c>
       <c r="G63" t="n">
-        <v>-6137201.734200003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>242027.8266</v>
       </c>
       <c r="G64" t="n">
-        <v>-6137201.734200003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>322033.4493</v>
       </c>
       <c r="G65" t="n">
-        <v>-6137201.734200003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>264562.6209</v>
       </c>
       <c r="G66" t="n">
-        <v>-5872639.113300003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>25267.4835</v>
       </c>
       <c r="G67" t="n">
-        <v>-5872639.113300003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>244772.7866</v>
       </c>
       <c r="G68" t="n">
-        <v>-5872639.113300003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>121812.794</v>
       </c>
       <c r="G69" t="n">
-        <v>-5994451.907300003</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>110365.4113</v>
       </c>
       <c r="G70" t="n">
-        <v>-5994451.907300003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>151600.2196</v>
       </c>
       <c r="G71" t="n">
-        <v>-6146052.126900003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>430079.4298</v>
       </c>
       <c r="G72" t="n">
-        <v>-6576131.556700003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>94460.8129</v>
       </c>
       <c r="G73" t="n">
-        <v>-6670592.369600004</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>131.4232</v>
       </c>
       <c r="G74" t="n">
-        <v>-6670723.792800004</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>16700</v>
       </c>
       <c r="G75" t="n">
-        <v>-6687423.792800004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>546743.047108353</v>
       </c>
       <c r="G76" t="n">
-        <v>-6140680.745691651</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>57655.6884</v>
       </c>
       <c r="G77" t="n">
-        <v>-6198336.434091651</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>47000</v>
       </c>
       <c r="G78" t="n">
-        <v>-6245336.434091651</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>116773.9925</v>
       </c>
       <c r="G79" t="n">
-        <v>-6362110.426591651</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2680.199</v>
       </c>
       <c r="G80" t="n">
-        <v>-6362110.426591651</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>235069.151</v>
       </c>
       <c r="G81" t="n">
-        <v>-6597179.57759165</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>161145.839996686</v>
       </c>
       <c r="G82" t="n">
-        <v>-6436033.737594964</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>297121.544208514</v>
       </c>
       <c r="G83" t="n">
-        <v>-6733155.281803478</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>175286.943272659</v>
       </c>
       <c r="G84" t="n">
-        <v>-6557868.338530819</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>163291.7165</v>
       </c>
       <c r="G85" t="n">
-        <v>-6394576.622030819</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>122184.8842</v>
       </c>
       <c r="G86" t="n">
-        <v>-6272391.737830819</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>17071.6961</v>
       </c>
       <c r="G87" t="n">
-        <v>-6289463.433930819</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>29669.4421</v>
       </c>
       <c r="G88" t="n">
-        <v>-6259793.991830819</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>-6259910.991830819</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>133844.1421</v>
       </c>
       <c r="G90" t="n">
-        <v>-6393755.133930819</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>742025.6029000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-6393755.133930819</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>94688.3015</v>
       </c>
       <c r="G92" t="n">
-        <v>-6299066.832430819</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>16149.0501</v>
       </c>
       <c r="G93" t="n">
-        <v>-6315215.882530819</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>244347.9393</v>
       </c>
       <c r="G94" t="n">
-        <v>-6315215.882530819</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>156810.12</v>
       </c>
       <c r="G95" t="n">
-        <v>-6315215.882530819</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>28130.8993</v>
       </c>
       <c r="G96" t="n">
-        <v>-6343346.781830818</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4427.8902</v>
       </c>
       <c r="G97" t="n">
-        <v>-6338918.891630818</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>35294.2001</v>
       </c>
       <c r="G98" t="n">
-        <v>-6374213.091730818</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>305693.0441</v>
       </c>
       <c r="G99" t="n">
-        <v>-6679906.135830818</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>317665.3108</v>
       </c>
       <c r="G100" t="n">
-        <v>-6679906.135830818</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>151279.8164</v>
       </c>
       <c r="G101" t="n">
-        <v>-6679906.135830818</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>109464.371</v>
       </c>
       <c r="G102" t="n">
-        <v>-6570441.764830817</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>158.7667</v>
       </c>
       <c r="G103" t="n">
-        <v>-6570282.998130818</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>80909.538</v>
       </c>
       <c r="G104" t="n">
-        <v>-6651192.536130818</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>136.8204</v>
       </c>
       <c r="G105" t="n">
-        <v>-6651055.715730818</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>10543.9446</v>
       </c>
       <c r="G106" t="n">
-        <v>-6661599.660330818</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>437998.3923</v>
       </c>
       <c r="G107" t="n">
-        <v>-6661599.660330818</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>235.4748</v>
       </c>
       <c r="G108" t="n">
-        <v>-6661364.185530818</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>54510.4315</v>
       </c>
       <c r="G109" t="n">
-        <v>-6715874.617030818</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>90000</v>
       </c>
       <c r="G110" t="n">
-        <v>-6715874.617030818</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>185802.8545</v>
       </c>
       <c r="G111" t="n">
-        <v>-6715874.617030818</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>746639.3672</v>
       </c>
       <c r="G112" t="n">
-        <v>-6715874.617030818</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>11369.8876</v>
       </c>
       <c r="G113" t="n">
-        <v>-6704504.729430818</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>10000</v>
       </c>
       <c r="G114" t="n">
-        <v>-6694504.729430818</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1369.8876</v>
       </c>
       <c r="G115" t="n">
-        <v>-6695874.617030818</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>72220.323</v>
       </c>
       <c r="G116" t="n">
-        <v>-6695874.617030818</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>190.2884</v>
       </c>
       <c r="G117" t="n">
-        <v>-6695684.328630818</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>53870.0426</v>
       </c>
       <c r="G118" t="n">
-        <v>-6749554.371230818</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>171.4603</v>
       </c>
       <c r="G119" t="n">
-        <v>-6749382.910930818</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>38773.9616</v>
       </c>
       <c r="G120" t="n">
-        <v>-6788156.872530818</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>7801.2072</v>
       </c>
       <c r="G121" t="n">
-        <v>-6780355.665330818</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>53069.4156</v>
       </c>
       <c r="G122" t="n">
-        <v>-6833425.080930818</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>25117.732712607</v>
       </c>
       <c r="G123" t="n">
-        <v>-6808307.348218211</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>429342.7655</v>
       </c>
       <c r="G124" t="n">
-        <v>-7237650.113718211</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>41015.087</v>
       </c>
       <c r="G125" t="n">
-        <v>-7278665.200718211</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>513036.9949</v>
       </c>
       <c r="G126" t="n">
-        <v>-7791702.195618211</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>124.6442</v>
       </c>
       <c r="G127" t="n">
-        <v>-7791577.551418211</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>11964.5612</v>
       </c>
       <c r="G128" t="n">
-        <v>-7803542.112618212</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>23666.134</v>
       </c>
       <c r="G129" t="n">
-        <v>-7779875.978618212</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1538.5212</v>
       </c>
       <c r="G130" t="n">
-        <v>-7781414.499818212</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>7313.1886</v>
       </c>
       <c r="G131" t="n">
-        <v>-7788727.688418212</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>896.1783</v>
       </c>
       <c r="G132" t="n">
-        <v>-7789623.866718212</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>125.0223</v>
       </c>
       <c r="G133" t="n">
-        <v>-7789498.844418212</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>125.0223</v>
       </c>
       <c r="G134" t="n">
-        <v>-7789623.866718212</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>1600</v>
       </c>
       <c r="G135" t="n">
-        <v>-7791223.866718212</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>2596.4185</v>
       </c>
       <c r="G136" t="n">
-        <v>-7788627.448218212</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>22978.925</v>
       </c>
       <c r="G137" t="n">
-        <v>-7811606.373218212</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>236.9545</v>
       </c>
       <c r="G138" t="n">
-        <v>-7811843.327718212</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2416.8803</v>
       </c>
       <c r="G139" t="n">
-        <v>-7811843.327718212</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>120</v>
       </c>
       <c r="G140" t="n">
-        <v>-7811723.327718212</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>212487.9824</v>
       </c>
       <c r="G141" t="n">
-        <v>-8024211.310118212</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>141447.1751</v>
       </c>
       <c r="G142" t="n">
-        <v>-8165658.485218212</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>23738.8269</v>
       </c>
       <c r="G143" t="n">
-        <v>-8189397.312118212</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>120</v>
       </c>
       <c r="G144" t="n">
-        <v>-8189277.312118212</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>107240.953</v>
       </c>
       <c r="G145" t="n">
-        <v>-8296518.265118212</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>118</v>
       </c>
       <c r="G146" t="n">
-        <v>-8296400.265118212</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>38246.8885</v>
       </c>
       <c r="G147" t="n">
-        <v>-8334647.153618212</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>374790.0731</v>
       </c>
       <c r="G148" t="n">
-        <v>-7959857.080518212</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>268126.8546</v>
       </c>
       <c r="G149" t="n">
-        <v>-8227983.935118212</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>82173.25199999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-8310157.187118213</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>1723.0301</v>
       </c>
       <c r="G151" t="n">
-        <v>-8311880.217218213</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>484389.2748</v>
       </c>
       <c r="G152" t="n">
-        <v>-8796269.492018213</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>120</v>
       </c>
       <c r="G153" t="n">
-        <v>-8796149.492018213</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>94693.12179999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-8890842.613818213</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>120368.3156</v>
       </c>
       <c r="G155" t="n">
-        <v>-8890842.613818213</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>45129.818</v>
       </c>
       <c r="G156" t="n">
-        <v>-8845712.795818213</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>325115.5775</v>
       </c>
       <c r="G157" t="n">
-        <v>-8845712.795818213</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>6898.3414</v>
       </c>
       <c r="G158" t="n">
-        <v>-8838814.454418214</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1939.5709</v>
       </c>
       <c r="G159" t="n">
-        <v>-8838814.454418214</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>211961.1178</v>
       </c>
       <c r="G160" t="n">
-        <v>-9050775.572218213</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>219713.1388</v>
       </c>
       <c r="G161" t="n">
-        <v>-9270488.711018214</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>131601.2824</v>
       </c>
       <c r="G162" t="n">
-        <v>-9402089.993418215</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>217237.0061</v>
       </c>
       <c r="G163" t="n">
-        <v>-9184852.987318214</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>351129.4749</v>
       </c>
       <c r="G164" t="n">
-        <v>-8833723.512418214</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>333573.0011</v>
       </c>
       <c r="G165" t="n">
-        <v>-9167296.513518214</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>191405.3805</v>
       </c>
       <c r="G166" t="n">
-        <v>-9167296.513518214</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>406.608</v>
       </c>
       <c r="G167" t="n">
-        <v>-9166889.905518215</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>108968.8873</v>
       </c>
       <c r="G168" t="n">
-        <v>-9057921.018218216</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>700813.4941</v>
       </c>
       <c r="G169" t="n">
-        <v>-9758734.512318216</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>160732.3343</v>
       </c>
       <c r="G170" t="n">
-        <v>-9919466.846618216</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>448063.5823</v>
       </c>
       <c r="G171" t="n">
-        <v>-9471403.264318217</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>665772.8194</v>
       </c>
       <c r="G172" t="n">
-        <v>-9471403.264318217</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>1096358.6298</v>
       </c>
       <c r="G173" t="n">
-        <v>-9471403.264318217</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>453000</v>
       </c>
       <c r="G174" t="n">
-        <v>-9471403.264318217</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>502.4847</v>
       </c>
       <c r="G175" t="n">
-        <v>-9471403.264318217</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>119441.2527</v>
       </c>
       <c r="G176" t="n">
-        <v>-9351962.011618217</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>106651.9688</v>
       </c>
       <c r="G177" t="n">
-        <v>-9351962.011618217</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>666722.3108</v>
       </c>
       <c r="G178" t="n">
-        <v>-8685239.700818218</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>132489.2824</v>
       </c>
       <c r="G179" t="n">
-        <v>-8817728.983218219</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>444</v>
       </c>
       <c r="G180" t="n">
-        <v>-8817728.983218219</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>663632.3367</v>
       </c>
       <c r="G181" t="n">
-        <v>-8817728.983218219</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>12266.2112</v>
       </c>
       <c r="G182" t="n">
-        <v>-8817728.983218219</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>252001.4083</v>
       </c>
       <c r="G183" t="n">
-        <v>-8565727.57491822</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>116714.9338</v>
       </c>
       <c r="G184" t="n">
-        <v>-8565727.57491822</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>7388.8888</v>
       </c>
       <c r="G185" t="n">
-        <v>-8573116.463718221</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>271748.6562</v>
       </c>
       <c r="G186" t="n">
-        <v>-8844865.11991822</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>25000</v>
       </c>
       <c r="G187" t="n">
-        <v>-8844865.11991822</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>280363.7299</v>
       </c>
       <c r="G188" t="n">
-        <v>-8844865.11991822</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>276030.8015</v>
       </c>
       <c r="G189" t="n">
-        <v>-8568834.31841822</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>11267.9634</v>
       </c>
       <c r="G190" t="n">
-        <v>-8568834.31841822</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>486707.6676</v>
       </c>
       <c r="G191" t="n">
-        <v>-9055541.98601822</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>50000</v>
       </c>
       <c r="G192" t="n">
-        <v>-9055541.98601822</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>581100</v>
       </c>
       <c r="G193" t="n">
-        <v>-9636641.98601822</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>152007.3938</v>
       </c>
       <c r="G194" t="n">
-        <v>-9484634.59221822</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>208273.2273</v>
       </c>
       <c r="G195" t="n">
-        <v>-9484634.59221822</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>89459.37940000001</v>
       </c>
       <c r="G196" t="n">
-        <v>-9574093.97161822</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>350000</v>
       </c>
       <c r="G197" t="n">
-        <v>-9924093.97161822</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>71728.63619999999</v>
       </c>
       <c r="G198" t="n">
-        <v>-9852365.335418221</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>31860.0619</v>
       </c>
       <c r="G199" t="n">
-        <v>-9852365.335418221</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>536232.0639</v>
       </c>
       <c r="G200" t="n">
-        <v>-10388597.39931822</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>275966.7817</v>
       </c>
       <c r="G201" t="n">
-        <v>-10664564.18101822</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>22253.3054</v>
       </c>
       <c r="G202" t="n">
-        <v>-10664564.18101822</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>2870.9248</v>
       </c>
       <c r="G203" t="n">
-        <v>-10667435.10581822</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>866448.0441000001</v>
       </c>
       <c r="G204" t="n">
-        <v>-11533883.14991822</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>186591.2302</v>
       </c>
       <c r="G205" t="n">
-        <v>-11720474.38011822</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>161142.3682</v>
       </c>
       <c r="G206" t="n">
-        <v>-11559332.01191822</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>161129.9317</v>
       </c>
       <c r="G207" t="n">
-        <v>-11720461.94361822</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>88871.103191924</v>
       </c>
       <c r="G208" t="n">
-        <v>-11631590.8404263</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>23432.4234</v>
       </c>
       <c r="G209" t="n">
-        <v>-11655023.2638263</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>11710</v>
       </c>
       <c r="G210" t="n">
-        <v>-11643313.2638263</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>11710</v>
       </c>
       <c r="G211" t="n">
-        <v>-11643313.2638263</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>120</v>
       </c>
       <c r="G212" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>43144.774688398</v>
       </c>
       <c r="G213" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>525.1325000000001</v>
       </c>
       <c r="G214" t="n">
-        <v>-11643193.2638263</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>180000</v>
       </c>
       <c r="G215" t="n">
-        <v>-11823193.2638263</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>6219.3167</v>
       </c>
       <c r="G216" t="n">
-        <v>-11829412.5805263</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>83066.12940000001</v>
       </c>
       <c r="G217" t="n">
-        <v>-11746346.4511263</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>10530</v>
       </c>
       <c r="G218" t="n">
-        <v>-11756876.4511263</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>120</v>
       </c>
       <c r="G219" t="n">
-        <v>-11756756.4511263</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>750</v>
       </c>
       <c r="G220" t="n">
-        <v>-11756756.4511263</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>64584.606</v>
       </c>
       <c r="G221" t="n">
-        <v>-11756756.4511263</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>70090.3836</v>
       </c>
       <c r="G222" t="n">
-        <v>-11826846.8347263</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>50000</v>
       </c>
       <c r="G223" t="n">
-        <v>-11876846.8347263</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>615587.3035</v>
       </c>
       <c r="G224" t="n">
-        <v>-12492434.1382263</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>16021</v>
       </c>
       <c r="G225" t="n">
-        <v>-12476413.1382263</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>173532.0607</v>
       </c>
       <c r="G226" t="n">
-        <v>-12649945.1989263</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>123</v>
       </c>
       <c r="G227" t="n">
-        <v>-12649822.1989263</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>705147.1588</v>
       </c>
       <c r="G228" t="n">
-        <v>-13354969.3577263</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>149135.2807</v>
       </c>
       <c r="G229" t="n">
-        <v>-13205834.0770263</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>122143.9687</v>
       </c>
       <c r="G230" t="n">
-        <v>-13083690.1083263</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>241543.8336</v>
       </c>
       <c r="G231" t="n">
-        <v>-12842146.2747263</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>20749.996912878</v>
       </c>
       <c r="G232" t="n">
-        <v>-12821396.27781342</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>22387.673277588</v>
       </c>
       <c r="G233" t="n">
-        <v>-12843783.95109101</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,19 @@
         <v>121</v>
       </c>
       <c r="G234" t="n">
-        <v>-12843662.95109101</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>4.115</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.115</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7437,21 @@
         <v>10000</v>
       </c>
       <c r="G235" t="n">
-        <v>-12833662.95109101</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7473,21 @@
         <v>3450.5187</v>
       </c>
       <c r="G236" t="n">
-        <v>-12837113.46979101</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7509,21 @@
         <v>121</v>
       </c>
       <c r="G237" t="n">
-        <v>-12836992.46979101</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7545,21 @@
         <v>3210</v>
       </c>
       <c r="G238" t="n">
-        <v>-12833782.46979101</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7581,21 @@
         <v>398389.19</v>
       </c>
       <c r="G239" t="n">
-        <v>-13232171.65979101</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7617,21 @@
         <v>43894.7746</v>
       </c>
       <c r="G240" t="n">
-        <v>-13276066.43439101</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7653,21 @@
         <v>121</v>
       </c>
       <c r="G241" t="n">
-        <v>-13275945.43439101</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7689,21 @@
         <v>121</v>
       </c>
       <c r="G242" t="n">
-        <v>-13275824.43439101</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7725,21 @@
         <v>42500</v>
       </c>
       <c r="G243" t="n">
-        <v>-13318324.43439101</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7761,21 @@
         <v>42491.3851</v>
       </c>
       <c r="G244" t="n">
-        <v>-13360815.81949101</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7797,21 @@
         <v>1807242.5375</v>
       </c>
       <c r="G245" t="n">
-        <v>-15168058.35699101</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7833,21 @@
         <v>422.9149</v>
       </c>
       <c r="G246" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7869,21 @@
         <v>90545.834</v>
       </c>
       <c r="G247" t="n">
-        <v>-15167635.44209101</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7905,21 @@
         <v>10000</v>
       </c>
       <c r="G248" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7941,21 @@
         <v>172490.5576</v>
       </c>
       <c r="G249" t="n">
-        <v>-15157635.44209101</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7977,21 @@
         <v>108337.442</v>
       </c>
       <c r="G250" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8013,21 @@
         <v>0.1032</v>
       </c>
       <c r="G251" t="n">
-        <v>-15265972.88409101</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8049,21 @@
         <v>25602.7258</v>
       </c>
       <c r="G252" t="n">
-        <v>-15291575.60989101</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8085,21 @@
         <v>398916.1809</v>
       </c>
       <c r="G253" t="n">
-        <v>-15690491.79079101</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8121,21 @@
         <v>123</v>
       </c>
       <c r="G254" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8157,21 @@
         <v>518.669</v>
       </c>
       <c r="G255" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,22 +8193,21 @@
         <v>270.8299</v>
       </c>
       <c r="G256" t="n">
-        <v>-15690368.79079101</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>4.115</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8867,26 +8229,21 @@
         <v>151.507</v>
       </c>
       <c r="G257" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J257" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K257" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8908,26 +8265,21 @@
         <v>577903.8021</v>
       </c>
       <c r="G258" t="n">
-        <v>-15690520.29779101</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J258" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K258" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J258" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8949,26 +8301,21 @@
         <v>186124.4167</v>
       </c>
       <c r="G259" t="n">
-        <v>-15876644.71449101</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J259" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K259" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8990,26 +8337,23 @@
         <v>237778.3265</v>
       </c>
       <c r="G260" t="n">
-        <v>-15876644.71449101</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>4.056</v>
       </c>
       <c r="I260" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="J260" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K260" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9031,26 +8375,23 @@
         <v>123</v>
       </c>
       <c r="G261" t="n">
-        <v>-15876521.71449101</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>4.056</v>
       </c>
       <c r="I261" t="n">
-        <v>4.056</v>
-      </c>
-      <c r="J261" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K261" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9072,26 +8413,23 @@
         <v>21906.5905</v>
       </c>
       <c r="G262" t="n">
-        <v>-15876521.71449101</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>4.081</v>
       </c>
       <c r="I262" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J262" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K262" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9113,26 +8451,23 @@
         <v>49999.8968</v>
       </c>
       <c r="G263" t="n">
-        <v>-15826521.81769101</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>4.081</v>
       </c>
       <c r="I263" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="J263" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K263" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9154,26 +8489,23 @@
         <v>94920</v>
       </c>
       <c r="G264" t="n">
-        <v>-15731601.81769101</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>4.091</v>
       </c>
       <c r="I264" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="J264" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K264" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9195,26 +8527,23 @@
         <v>108270</v>
       </c>
       <c r="G265" t="n">
-        <v>-15839871.81769101</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>4.105</v>
       </c>
       <c r="I265" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J265" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K265" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9236,26 +8565,21 @@
         <v>15000</v>
       </c>
       <c r="G266" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="J266" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K266" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9277,26 +8601,21 @@
         <v>60749.4054</v>
       </c>
       <c r="G267" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J267" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K267" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9318,26 +8637,21 @@
         <v>235223.1838</v>
       </c>
       <c r="G268" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J268" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K268" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9359,26 +8673,21 @@
         <v>3322.9016</v>
       </c>
       <c r="G269" t="n">
-        <v>-15824871.81769101</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J269" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K269" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9400,26 +8709,23 @@
         <v>3997.1285</v>
       </c>
       <c r="G270" t="n">
-        <v>-15824871.81769101</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>4.105</v>
       </c>
       <c r="I270" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J270" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K270" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9441,26 +8747,21 @@
         <v>471503.2378</v>
       </c>
       <c r="G271" t="n">
-        <v>-15353368.57989101</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J271" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="K271" t="inlineStr">
+        <v>4.115</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
